--- a/需求分析/接口文档/客户/客户资源.xlsx
+++ b/需求分析/接口文档/客户/客户资源.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -473,6 +473,21 @@
     <t>养殖规模</t>
   </si>
   <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>养殖信息(json对象)</t>
+  </si>
+  <si>
+    <t>获取养殖信息详情</t>
+  </si>
+  <si>
+    <t>/s/getVisitUserBreed.action</t>
+  </si>
+  <si>
+    <t>result(json对象)</t>
+  </si>
+  <si>
     <t>获取农户列表</t>
   </si>
   <si>
@@ -573,9 +588,6 @@
   </si>
   <si>
     <t>/s/getVisitCustomerFollow.action</t>
-  </si>
-  <si>
-    <t>result(json对象)</t>
   </si>
 </sst>
 </file>
@@ -583,10 +595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -625,38 +637,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,39 +661,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,6 +690,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -740,6 +736,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -748,8 +752,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +773,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,13 +830,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,31 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,18 +914,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -903,6 +921,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,13 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,13 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,36 +1012,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1023,6 +1023,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,6 +1054,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1052,15 +1091,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,10 +1117,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,91 +1129,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,10 +1222,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,32 +1234,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,6 +1306,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1629,10 +1677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R375"/>
+  <dimension ref="A1:R396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="O196" sqref="O196"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="N276" sqref="N276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4816,1111 +4864,1165 @@
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
     </row>
+    <row r="267" spans="1:15">
+      <c r="A267" s="16"/>
+      <c r="B267" s="16"/>
+      <c r="C267" s="16"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="16"/>
+      <c r="I267" s="16"/>
+      <c r="J267" s="16"/>
+      <c r="K267" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L267" s="16"/>
+      <c r="M267" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N267" s="16"/>
+      <c r="O267" s="16"/>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="A277" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B277" s="17"/>
+      <c r="C277" s="17"/>
+      <c r="D277" s="17"/>
+      <c r="E277" s="17"/>
+      <c r="F277" s="17"/>
+      <c r="G277" s="17"/>
+      <c r="H277" s="17"/>
+      <c r="I277" s="17"/>
+      <c r="J277" s="17"/>
+      <c r="K277" s="17"/>
+      <c r="L277" s="17"/>
+      <c r="M277" s="17"/>
+      <c r="N277" s="17"/>
+      <c r="O277" s="17"/>
+    </row>
+    <row r="278" spans="1:15">
+      <c r="A278" s="17"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
+      <c r="D278" s="17"/>
+      <c r="E278" s="17"/>
+      <c r="F278" s="17"/>
+      <c r="G278" s="17"/>
+      <c r="H278" s="17"/>
+      <c r="I278" s="17"/>
+      <c r="J278" s="17"/>
+      <c r="K278" s="17"/>
+      <c r="L278" s="17"/>
+      <c r="M278" s="17"/>
+      <c r="N278" s="17"/>
+      <c r="O278" s="17"/>
+    </row>
+    <row r="279" spans="1:15">
+      <c r="A279" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B279" s="18"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="18"/>
+      <c r="E279" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F279" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G279" s="18"/>
+      <c r="H279" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I279" s="18"/>
+      <c r="J279" s="18"/>
+      <c r="K279" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L279" s="18"/>
+      <c r="M279" s="18"/>
+      <c r="N279" s="18"/>
+      <c r="O279" s="18"/>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="A280" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B280" s="16"/>
+      <c r="C280" s="16"/>
+      <c r="D280" s="16"/>
+      <c r="E280" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F280" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" s="16"/>
+      <c r="H280" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I280" s="16"/>
+      <c r="J280" s="16"/>
+      <c r="K280" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L280" s="16"/>
+      <c r="M280" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N280" s="16"/>
+      <c r="O280" s="16"/>
+    </row>
+    <row r="281" spans="1:15">
+      <c r="A281" s="16"/>
+      <c r="B281" s="16"/>
+      <c r="C281" s="16"/>
+      <c r="D281" s="16"/>
+      <c r="E281" s="16"/>
+      <c r="F281" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G281" s="16"/>
+      <c r="H281" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I281" s="16"/>
+      <c r="J281" s="16"/>
+      <c r="K281" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L281" s="16"/>
+      <c r="M281" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N281" s="16"/>
+      <c r="O281" s="16"/>
+    </row>
+    <row r="282" spans="1:15">
+      <c r="A282" s="16"/>
+      <c r="B282" s="16"/>
+      <c r="C282" s="16"/>
+      <c r="D282" s="16"/>
+      <c r="E282" s="16"/>
+      <c r="F282" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G282" s="16"/>
+      <c r="H282" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I282" s="16"/>
+      <c r="J282" s="16"/>
+      <c r="K282" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="L282" s="21"/>
+      <c r="M282" s="21"/>
+      <c r="N282" s="21"/>
+      <c r="O282" s="21"/>
+    </row>
+    <row r="283" spans="1:15">
+      <c r="A283" s="16"/>
+      <c r="B283" s="16"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G283" s="16"/>
+      <c r="H283" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I283" s="16"/>
+      <c r="J283" s="16"/>
+      <c r="K283" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L283" s="16"/>
+      <c r="M283" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N283" s="16"/>
+      <c r="O283" s="16"/>
+    </row>
+    <row r="284" spans="1:15">
+      <c r="A284" s="16"/>
+      <c r="B284" s="16"/>
+      <c r="C284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="16"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+      <c r="I284" s="16"/>
+      <c r="J284" s="16"/>
+      <c r="K284" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L284" s="16"/>
+      <c r="M284" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="N284" s="16"/>
+      <c r="O284" s="16"/>
+    </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="16"/>
+      <c r="B285" s="16"/>
+      <c r="C285" s="16"/>
+      <c r="D285" s="16"/>
+      <c r="E285" s="16"/>
+      <c r="F285" s="16"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="16"/>
+      <c r="I285" s="16"/>
+      <c r="J285" s="16"/>
+      <c r="K285" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L285" s="16"/>
+      <c r="M285" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N285" s="16"/>
+      <c r="O285" s="16"/>
+    </row>
+    <row r="286" spans="1:15">
+      <c r="A286" s="16"/>
+      <c r="B286" s="16"/>
+      <c r="C286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
+      <c r="G286" s="16"/>
+      <c r="H286" s="16"/>
+      <c r="I286" s="16"/>
+      <c r="J286" s="16"/>
+      <c r="K286" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L286" s="16"/>
+      <c r="M286" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N286" s="16"/>
+      <c r="O286" s="16"/>
+    </row>
+    <row r="287" spans="1:15">
+      <c r="A287" s="16"/>
+      <c r="B287" s="16"/>
+      <c r="C287" s="16"/>
+      <c r="D287" s="16"/>
+      <c r="E287" s="16"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+      <c r="I287" s="16"/>
+      <c r="J287" s="16"/>
+      <c r="K287" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L287" s="16"/>
+      <c r="M287" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N287" s="16"/>
+      <c r="O287" s="16"/>
+    </row>
+    <row r="288" spans="1:15">
+      <c r="A288" s="16"/>
+      <c r="B288" s="16"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
+      <c r="I288" s="16"/>
+      <c r="J288" s="16"/>
+      <c r="K288" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L288" s="16"/>
+      <c r="M288" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N288" s="16"/>
+      <c r="O288" s="16"/>
+    </row>
+    <row r="289" spans="1:15">
+      <c r="A289" s="16"/>
+      <c r="B289" s="16"/>
+      <c r="C289" s="16"/>
+      <c r="D289" s="16"/>
+      <c r="E289" s="16"/>
+      <c r="F289" s="16"/>
+      <c r="G289" s="16"/>
+      <c r="H289" s="16"/>
+      <c r="I289" s="16"/>
+      <c r="J289" s="16"/>
+      <c r="K289" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L289" s="16"/>
+      <c r="M289" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N289" s="16"/>
+      <c r="O289" s="16"/>
+    </row>
+    <row r="290" spans="1:15">
+      <c r="A290" s="16"/>
+      <c r="B290" s="16"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="16"/>
+      <c r="E290" s="16"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="16"/>
+      <c r="I290" s="16"/>
+      <c r="J290" s="16"/>
+      <c r="K290" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="L290" s="16"/>
+      <c r="M290" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N290" s="16"/>
+      <c r="O290" s="16"/>
+    </row>
+    <row r="291" spans="1:15">
+      <c r="A291" s="16"/>
+      <c r="B291" s="16"/>
+      <c r="C291" s="16"/>
+      <c r="D291" s="16"/>
+      <c r="E291" s="16"/>
+      <c r="F291" s="16"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="16"/>
+      <c r="I291" s="16"/>
+      <c r="J291" s="16"/>
+      <c r="K291" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L291" s="16"/>
+      <c r="M291" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="N291" s="16"/>
+      <c r="O291" s="16"/>
+    </row>
+    <row r="292" spans="1:15">
+      <c r="A292" s="16"/>
+      <c r="B292" s="16"/>
+      <c r="C292" s="16"/>
+      <c r="D292" s="16"/>
+      <c r="E292" s="16"/>
+      <c r="F292" s="16"/>
+      <c r="G292" s="16"/>
+      <c r="H292" s="16"/>
+      <c r="I292" s="16"/>
+      <c r="J292" s="16"/>
+      <c r="K292" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="L292" s="16"/>
+      <c r="M292" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N292" s="16"/>
+      <c r="O292" s="16"/>
+    </row>
+    <row r="293" spans="1:15">
+      <c r="A293" s="16"/>
+      <c r="B293" s="16"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="16"/>
+      <c r="H293" s="16"/>
+      <c r="I293" s="16"/>
+      <c r="J293" s="16"/>
+      <c r="K293" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L293" s="16"/>
+      <c r="M293" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="N293" s="16"/>
+      <c r="O293" s="16"/>
+    </row>
+    <row r="294" spans="1:15">
+      <c r="A294" s="16"/>
+      <c r="B294" s="16"/>
+      <c r="C294" s="16"/>
+      <c r="D294" s="16"/>
+      <c r="E294" s="16"/>
+      <c r="F294" s="16"/>
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+      <c r="I294" s="16"/>
+      <c r="J294" s="16"/>
+      <c r="K294" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L294" s="16"/>
+      <c r="M294" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N294" s="16"/>
+      <c r="O294" s="16"/>
+    </row>
+    <row r="295" spans="1:15">
+      <c r="A295" s="16"/>
+      <c r="B295" s="16"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
+      <c r="F295" s="16"/>
+      <c r="G295" s="16"/>
+      <c r="H295" s="16"/>
+      <c r="I295" s="16"/>
+      <c r="J295" s="16"/>
+      <c r="K295" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L295" s="16"/>
+      <c r="M295" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N295" s="16"/>
+      <c r="O295" s="16"/>
+    </row>
+    <row r="296" spans="1:15">
+      <c r="A296" s="16"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="16"/>
+      <c r="E296" s="16"/>
+      <c r="F296" s="16"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="16"/>
+      <c r="J296" s="16"/>
+      <c r="K296" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
-      <c r="L285" s="1"/>
-      <c r="M285" s="1"/>
-      <c r="N285" s="1"/>
-      <c r="O285" s="1"/>
-    </row>
-    <row r="286" spans="1:15">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-      <c r="D286" s="1"/>
-      <c r="E286" s="1"/>
-      <c r="F286" s="1"/>
-      <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="1"/>
-      <c r="J286" s="1"/>
-      <c r="K286" s="1"/>
-      <c r="L286" s="1"/>
-      <c r="M286" s="1"/>
-      <c r="N286" s="1"/>
-      <c r="O286" s="1"/>
-    </row>
-    <row r="287" spans="1:15">
-      <c r="A287" s="2" t="s">
+      <c r="L296" s="16"/>
+      <c r="M296" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N296" s="16"/>
+      <c r="O296" s="16"/>
+    </row>
+    <row r="306" spans="1:15">
+      <c r="A306" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="G306" s="1"/>
+      <c r="H306" s="1"/>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+      <c r="K306" s="1"/>
+      <c r="L306" s="1"/>
+      <c r="M306" s="1"/>
+      <c r="N306" s="1"/>
+      <c r="O306" s="1"/>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="A308" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2" t="s">
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F287" s="2" t="s">
+      <c r="F308" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2" t="s">
+      <c r="G308" s="2"/>
+      <c r="H308" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2"/>
-      <c r="K287" s="2" t="s">
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L287" s="2"/>
-      <c r="M287" s="2"/>
-      <c r="N287" s="2"/>
-      <c r="O287" s="2"/>
-    </row>
-    <row r="288" spans="1:15">
-      <c r="A288" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3" t="s">
+      <c r="L308" s="2"/>
+      <c r="M308" s="2"/>
+      <c r="N308" s="2"/>
+      <c r="O308" s="2"/>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="A309" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3"/>
+      <c r="E309" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F288" s="3" t="s">
+      <c r="F309" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G288" s="3"/>
-      <c r="H288" s="3" t="s">
+      <c r="G309" s="3"/>
+      <c r="H309" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I288" s="3"/>
-      <c r="J288" s="3"/>
-      <c r="K288" s="3" t="s">
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+      <c r="K309" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L288" s="3"/>
-      <c r="M288" s="3" t="s">
+      <c r="L309" s="3"/>
+      <c r="M309" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N288" s="3"/>
-      <c r="O288" s="3"/>
-    </row>
-    <row r="289" spans="1:15">
-      <c r="A289" s="3"/>
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3" t="s">
+      <c r="N309" s="3"/>
+      <c r="O309" s="3"/>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3"/>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3" t="s">
+      <c r="G310" s="3"/>
+      <c r="H310" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I289" s="3"/>
-      <c r="J289" s="3"/>
-      <c r="K289" s="3" t="s">
+      <c r="I310" s="3"/>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L289" s="3"/>
-      <c r="M289" s="3" t="s">
+      <c r="L310" s="3"/>
+      <c r="M310" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N289" s="3"/>
-      <c r="O289" s="3"/>
-    </row>
-    <row r="290" spans="1:15">
-      <c r="A290" s="3"/>
-      <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3" t="s">
+      <c r="N310" s="3"/>
+      <c r="O310" s="3"/>
+    </row>
+    <row r="311" spans="1:15">
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3"/>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G290" s="3"/>
-      <c r="H290" s="3" t="s">
+      <c r="G311" s="3"/>
+      <c r="H311" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I290" s="3"/>
-      <c r="J290" s="3"/>
-      <c r="K290" s="11" t="s">
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L290" s="11"/>
-      <c r="M290" s="11" t="s">
+      <c r="L311" s="11"/>
+      <c r="M311" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N290" s="11"/>
-      <c r="O290" s="11"/>
-    </row>
-    <row r="291" spans="1:15">
-      <c r="A291" s="3"/>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3" t="s">
+      <c r="N311" s="11"/>
+      <c r="O311" s="11"/>
+    </row>
+    <row r="312" spans="1:15">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3"/>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G291" s="3"/>
-      <c r="H291" s="3" t="s">
+      <c r="G312" s="3"/>
+      <c r="H312" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I291" s="3"/>
-      <c r="J291" s="3"/>
-      <c r="K291" s="3" t="s">
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L291" s="3"/>
-      <c r="M291" s="3"/>
-      <c r="N291" s="3"/>
-      <c r="O291" s="3"/>
-    </row>
-    <row r="292" spans="1:15">
-      <c r="A292" s="4"/>
-      <c r="B292" s="4"/>
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="3" t="s">
+      <c r="L312" s="3"/>
+      <c r="M312" s="3"/>
+      <c r="N312" s="3"/>
+      <c r="O312" s="3"/>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3" t="s">
+      <c r="G313" s="3"/>
+      <c r="H313" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I292" s="3"/>
-      <c r="J292" s="3"/>
-      <c r="K292" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="L292" s="3"/>
-      <c r="M292" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N292" s="3"/>
-      <c r="O292" s="3"/>
-    </row>
-    <row r="293" spans="1:15">
-      <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
-      <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
-      <c r="E293" s="4"/>
-      <c r="F293" s="3" t="s">
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+      <c r="K313" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L313" s="3"/>
+      <c r="M313" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N313" s="3"/>
+      <c r="O313" s="3"/>
+    </row>
+    <row r="314" spans="1:15">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G293" s="3"/>
-      <c r="H293" s="3" t="s">
+      <c r="G314" s="3"/>
+      <c r="H314" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I293" s="3"/>
-      <c r="J293" s="3"/>
-      <c r="K293" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="L293" s="3"/>
-      <c r="M293" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N293" s="3"/>
-      <c r="O293" s="3"/>
-    </row>
-    <row r="294" spans="1:15">
-      <c r="A294" s="4"/>
-      <c r="B294" s="4"/>
-      <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
-      <c r="E294" s="4"/>
-      <c r="F294" s="4"/>
-      <c r="G294" s="4"/>
-      <c r="H294" s="4"/>
-      <c r="I294" s="4"/>
-      <c r="J294" s="4"/>
-      <c r="K294" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L294" s="3"/>
-      <c r="M294" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N294" s="3"/>
-      <c r="O294" s="3"/>
-    </row>
-    <row r="312" spans="1:15">
-      <c r="A312" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
-      <c r="G312" s="1"/>
-      <c r="H312" s="1"/>
-      <c r="I312" s="1"/>
-      <c r="J312" s="1"/>
-      <c r="K312" s="1"/>
-      <c r="L312" s="1"/>
-      <c r="M312" s="1"/>
-      <c r="N312" s="1"/>
-      <c r="O312" s="1"/>
-    </row>
-    <row r="313" spans="1:15">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
-      <c r="H313" s="1"/>
-      <c r="I313" s="1"/>
-      <c r="J313" s="1"/>
-      <c r="K313" s="1"/>
-      <c r="L313" s="1"/>
-      <c r="M313" s="1"/>
-      <c r="N313" s="1"/>
-      <c r="O313" s="1"/>
-    </row>
-    <row r="314" spans="1:15">
-      <c r="A314" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I314" s="2"/>
-      <c r="J314" s="2"/>
-      <c r="K314" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L314" s="2"/>
-      <c r="M314" s="2"/>
-      <c r="N314" s="2"/>
-      <c r="O314" s="2"/>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3"/>
+      <c r="K314" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L314" s="3"/>
+      <c r="M314" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N314" s="3"/>
+      <c r="O314" s="3"/>
     </row>
     <row r="315" spans="1:15">
-      <c r="A315" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F315" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I315" s="3"/>
-      <c r="J315" s="3"/>
+      <c r="A315" s="4"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
+      <c r="H315" s="4"/>
+      <c r="I315" s="4"/>
+      <c r="J315" s="4"/>
       <c r="K315" s="3" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="L315" s="3"/>
       <c r="M315" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15">
-      <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
-      <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3" t="s">
+    <row r="333" spans="1:15">
+      <c r="A333" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+      <c r="G333" s="1"/>
+      <c r="H333" s="1"/>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+      <c r="K333" s="1"/>
+      <c r="L333" s="1"/>
+      <c r="M333" s="1"/>
+      <c r="N333" s="1"/>
+      <c r="O333" s="1"/>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+      <c r="H334" s="1"/>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+      <c r="K334" s="1"/>
+      <c r="L334" s="1"/>
+      <c r="M334" s="1"/>
+      <c r="N334" s="1"/>
+      <c r="O334" s="1"/>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="A335" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" s="2"/>
+      <c r="H335" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I335" s="2"/>
+      <c r="J335" s="2"/>
+      <c r="K335" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L335" s="2"/>
+      <c r="M335" s="2"/>
+      <c r="N335" s="2"/>
+      <c r="O335" s="2"/>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3"/>
+      <c r="E336" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I336" s="3"/>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L336" s="3"/>
+      <c r="M336" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N336" s="3"/>
+      <c r="O336" s="3"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
+      <c r="F337" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G316" s="3"/>
-      <c r="H316" s="3" t="s">
+      <c r="G337" s="3"/>
+      <c r="H337" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I316" s="3"/>
-      <c r="J316" s="3"/>
-      <c r="K316" s="3" t="s">
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L316" s="3"/>
-      <c r="M316" s="3" t="s">
+      <c r="L337" s="3"/>
+      <c r="M337" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N316" s="3"/>
-      <c r="O316" s="3"/>
-    </row>
-    <row r="317" spans="1:15">
-      <c r="A317" s="3"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3" t="s">
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3"/>
+      <c r="E338" s="3"/>
+      <c r="F338" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3" t="s">
+      <c r="G338" s="3"/>
+      <c r="H338" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I317" s="3"/>
-      <c r="J317" s="3"/>
-      <c r="K317" s="11" t="s">
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L317" s="11"/>
-      <c r="M317" s="11" t="s">
+      <c r="L338" s="11"/>
+      <c r="M338" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N317" s="11"/>
-      <c r="O317" s="11"/>
-    </row>
-    <row r="318" spans="1:15">
-      <c r="A318" s="3"/>
-      <c r="B318" s="3"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3" t="s">
+      <c r="N338" s="11"/>
+      <c r="O338" s="11"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3"/>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3" t="s">
+      <c r="G339" s="3"/>
+      <c r="H339" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I318" s="3"/>
-      <c r="J318" s="3"/>
-      <c r="K318" s="3" t="s">
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L318" s="3"/>
-      <c r="M318" s="3"/>
-      <c r="N318" s="3"/>
-      <c r="O318" s="3"/>
-    </row>
-    <row r="319" spans="1:15">
-      <c r="A319" s="3"/>
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3" t="s">
+      <c r="L339" s="3"/>
+      <c r="M339" s="3"/>
+      <c r="N339" s="3"/>
+      <c r="O339" s="3"/>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3" t="s">
+      <c r="G340" s="3"/>
+      <c r="H340" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I319" s="3"/>
-      <c r="J319" s="3"/>
-      <c r="K319" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L319" s="3"/>
-      <c r="M319" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N319" s="3"/>
-      <c r="O319" s="3"/>
-    </row>
-    <row r="320" spans="1:15">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-      <c r="F320" s="3" t="s">
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L340" s="3"/>
+      <c r="M340" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N340" s="3"/>
+      <c r="O340" s="3"/>
+    </row>
+    <row r="341" spans="1:15">
+      <c r="A341" s="4"/>
+      <c r="B341" s="4"/>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
+      <c r="F341" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3" t="s">
+      <c r="G341" s="3"/>
+      <c r="H341" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I320" s="3"/>
-      <c r="J320" s="3"/>
-      <c r="K320" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L320" s="3"/>
-      <c r="M320" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N320" s="3"/>
-      <c r="O320" s="3"/>
-    </row>
-    <row r="321" spans="1:15">
-      <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
-      <c r="I321" s="3"/>
-      <c r="J321" s="3"/>
-      <c r="K321" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L321" s="3"/>
-      <c r="M321" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N321" s="3"/>
-      <c r="O321" s="3"/>
-    </row>
-    <row r="322" spans="1:15">
-      <c r="A322" s="4"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="3"/>
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
-      <c r="I322" s="3"/>
-      <c r="J322" s="3"/>
-      <c r="K322" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L322" s="3"/>
-      <c r="M322" s="3" t="s">
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N322" s="3"/>
-      <c r="O322" s="3"/>
-    </row>
-    <row r="323" spans="1:15">
-      <c r="A323" s="4"/>
-      <c r="B323" s="4"/>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-      <c r="F323" s="3"/>
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
-      <c r="J323" s="3"/>
-      <c r="K323" s="3" t="s">
+      <c r="L341" s="3"/>
+      <c r="M341" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L323" s="3"/>
-      <c r="M323" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N323" s="3"/>
-      <c r="O323" s="3"/>
-    </row>
-    <row r="339" spans="1:15">
-      <c r="A339" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
-      <c r="N339" s="1"/>
-      <c r="O339" s="1"/>
-    </row>
-    <row r="340" spans="1:15">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
-      <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
-      <c r="M340" s="1"/>
-      <c r="N340" s="1"/>
-      <c r="O340" s="1"/>
-    </row>
-    <row r="341" spans="1:15">
-      <c r="A341" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F341" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I341" s="2"/>
-      <c r="J341" s="2"/>
-      <c r="K341" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L341" s="2"/>
-      <c r="M341" s="2"/>
-      <c r="N341" s="2"/>
-      <c r="O341" s="2"/>
+      <c r="N341" s="3"/>
+      <c r="O341" s="3"/>
     </row>
     <row r="342" spans="1:15">
-      <c r="A342" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
-      <c r="E342" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A342" s="4"/>
+      <c r="B342" s="4"/>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="3"/>
       <c r="G342" s="3"/>
-      <c r="H342" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="L342" s="3"/>
       <c r="M342" s="3" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="N342" s="3"/>
       <c r="O342" s="3"/>
     </row>
     <row r="343" spans="1:15">
-      <c r="A343" s="3"/>
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A343" s="4"/>
+      <c r="B343" s="4"/>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="3"/>
       <c r="G343" s="3"/>
-      <c r="H343" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="L343" s="3"/>
       <c r="M343" s="3" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="N343" s="3"/>
       <c r="O343" s="3"/>
     </row>
     <row r="344" spans="1:15">
-      <c r="A344" s="3"/>
-      <c r="B344" s="3"/>
-      <c r="C344" s="3"/>
-      <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
-      <c r="F344" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A344" s="4"/>
+      <c r="B344" s="4"/>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="3"/>
       <c r="G344" s="3"/>
-      <c r="H344" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
-      <c r="K344" s="11" t="s">
+      <c r="K344" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N344" s="3"/>
+      <c r="O344" s="3"/>
+    </row>
+    <row r="360" spans="1:15">
+      <c r="A360" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+      <c r="F360" s="1"/>
+      <c r="G360" s="1"/>
+      <c r="H360" s="1"/>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+      <c r="K360" s="1"/>
+      <c r="L360" s="1"/>
+      <c r="M360" s="1"/>
+      <c r="N360" s="1"/>
+      <c r="O360" s="1"/>
+    </row>
+    <row r="361" spans="1:15">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+      <c r="F361" s="1"/>
+      <c r="G361" s="1"/>
+      <c r="H361" s="1"/>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+      <c r="K361" s="1"/>
+      <c r="L361" s="1"/>
+      <c r="M361" s="1"/>
+      <c r="N361" s="1"/>
+      <c r="O361" s="1"/>
+    </row>
+    <row r="362" spans="1:15">
+      <c r="A362" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G362" s="2"/>
+      <c r="H362" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
+      <c r="K362" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L362" s="2"/>
+      <c r="M362" s="2"/>
+      <c r="N362" s="2"/>
+      <c r="O362" s="2"/>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="A363" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="3"/>
+      <c r="E363" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G363" s="3"/>
+      <c r="H363" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I363" s="3"/>
+      <c r="J363" s="3"/>
+      <c r="K363" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L363" s="3"/>
+      <c r="M363" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N363" s="3"/>
+      <c r="O363" s="3"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" s="3"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="3"/>
+      <c r="E364" s="3"/>
+      <c r="F364" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G364" s="3"/>
+      <c r="H364" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I364" s="3"/>
+      <c r="J364" s="3"/>
+      <c r="K364" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L364" s="3"/>
+      <c r="M364" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N364" s="3"/>
+      <c r="O364" s="3"/>
+    </row>
+    <row r="365" spans="1:15">
+      <c r="A365" s="3"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="3"/>
+      <c r="E365" s="3"/>
+      <c r="F365" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G365" s="3"/>
+      <c r="H365" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I365" s="3"/>
+      <c r="J365" s="3"/>
+      <c r="K365" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L344" s="11"/>
-      <c r="M344" s="11" t="s">
+      <c r="L365" s="11"/>
+      <c r="M365" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N344" s="11"/>
-      <c r="O344" s="11"/>
-    </row>
-    <row r="345" spans="1:15">
-      <c r="A345" s="3"/>
-      <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="3" t="s">
+      <c r="N365" s="11"/>
+      <c r="O365" s="11"/>
+    </row>
+    <row r="366" spans="1:15">
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="3"/>
+      <c r="E366" s="3"/>
+      <c r="F366" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G345" s="3"/>
-      <c r="H345" s="3" t="s">
+      <c r="G366" s="3"/>
+      <c r="H366" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I345" s="3"/>
-      <c r="J345" s="3"/>
-      <c r="K345" s="3" t="s">
+      <c r="I366" s="3"/>
+      <c r="J366" s="3"/>
+      <c r="K366" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L345" s="3"/>
-      <c r="M345" s="3"/>
-      <c r="N345" s="3"/>
-      <c r="O345" s="3"/>
-    </row>
-    <row r="346" spans="1:15">
-      <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
-      <c r="F346" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G346" s="3"/>
-      <c r="H346" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I346" s="3"/>
-      <c r="J346" s="3"/>
-      <c r="K346" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="L346" s="3"/>
-      <c r="M346" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="N346" s="3"/>
-      <c r="O346" s="3"/>
-    </row>
-    <row r="347" spans="1:15">
-      <c r="A347" s="3"/>
-      <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
-      <c r="F347" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G347" s="3"/>
-      <c r="H347" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I347" s="3"/>
-      <c r="J347" s="3"/>
-      <c r="K347" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L347" s="3"/>
-      <c r="M347" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="N347" s="3"/>
-      <c r="O347" s="3"/>
-    </row>
-    <row r="348" spans="1:15">
-      <c r="A348" s="4"/>
-      <c r="B348" s="4"/>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
-      <c r="I348" s="3"/>
-      <c r="J348" s="3"/>
-      <c r="K348" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L348" s="3"/>
-      <c r="M348" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N348" s="3"/>
-      <c r="O348" s="3"/>
-    </row>
-    <row r="349" spans="1:15">
-      <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
-      <c r="I349" s="3"/>
-      <c r="J349" s="3"/>
-      <c r="K349" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L349" s="3"/>
-      <c r="M349" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N349" s="3"/>
-      <c r="O349" s="3"/>
-    </row>
-    <row r="350" spans="1:15">
-      <c r="A350" s="4"/>
-      <c r="B350" s="4"/>
-      <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
-      <c r="E350" s="4"/>
-      <c r="F350" s="4"/>
-      <c r="G350" s="4"/>
-      <c r="H350" s="4"/>
-      <c r="I350" s="4"/>
-      <c r="J350" s="4"/>
-      <c r="K350" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="L350" s="3"/>
-      <c r="M350" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="N350" s="3"/>
-      <c r="O350" s="3"/>
-    </row>
-    <row r="351" spans="1:15">
-      <c r="A351" s="4"/>
-      <c r="B351" s="4"/>
-      <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
-      <c r="E351" s="4"/>
-      <c r="F351" s="4"/>
-      <c r="G351" s="4"/>
-      <c r="H351" s="4"/>
-      <c r="I351" s="4"/>
-      <c r="J351" s="4"/>
-      <c r="K351" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L351" s="3"/>
-      <c r="M351" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N351" s="3"/>
-      <c r="O351" s="3"/>
-    </row>
-    <row r="352" spans="1:15">
-      <c r="A352" s="16"/>
-      <c r="B352" s="16"/>
-      <c r="C352" s="16"/>
-      <c r="D352" s="16"/>
-      <c r="E352" s="16"/>
-      <c r="F352" s="16"/>
-      <c r="G352" s="16"/>
-      <c r="H352" s="16"/>
-      <c r="I352" s="16"/>
-      <c r="J352" s="16"/>
-      <c r="K352" s="16"/>
-      <c r="L352" s="16"/>
-      <c r="M352" s="16"/>
-      <c r="N352" s="16"/>
-      <c r="O352" s="16"/>
-    </row>
-    <row r="353" spans="1:15">
-      <c r="A353" s="16"/>
-      <c r="B353" s="16"/>
-      <c r="C353" s="16"/>
-      <c r="D353" s="16"/>
-      <c r="E353" s="16"/>
-      <c r="F353" s="16"/>
-      <c r="G353" s="16"/>
-      <c r="H353" s="16"/>
-      <c r="I353" s="16"/>
-      <c r="J353" s="16"/>
-      <c r="K353" s="16"/>
-      <c r="L353" s="16"/>
-      <c r="M353" s="16"/>
-      <c r="N353" s="16"/>
-      <c r="O353" s="16"/>
-    </row>
-    <row r="354" spans="1:15">
-      <c r="A354" s="16"/>
-      <c r="B354" s="16"/>
-      <c r="C354" s="16"/>
-      <c r="D354" s="16"/>
-      <c r="E354" s="16"/>
-      <c r="F354" s="16"/>
-      <c r="G354" s="16"/>
-      <c r="H354" s="16"/>
-      <c r="I354" s="16"/>
-      <c r="J354" s="16"/>
-      <c r="K354" s="16"/>
-      <c r="L354" s="16"/>
-      <c r="M354" s="16"/>
-      <c r="N354" s="16"/>
-      <c r="O354" s="16"/>
-    </row>
-    <row r="355" spans="1:15">
-      <c r="A355" s="16"/>
-      <c r="B355" s="16"/>
-      <c r="C355" s="16"/>
-      <c r="D355" s="16"/>
-      <c r="E355" s="16"/>
-      <c r="F355" s="16"/>
-      <c r="G355" s="16"/>
-      <c r="H355" s="16"/>
-      <c r="I355" s="16"/>
-      <c r="J355" s="16"/>
-      <c r="K355" s="16"/>
-      <c r="L355" s="16"/>
-      <c r="M355" s="16"/>
-      <c r="N355" s="16"/>
-      <c r="O355" s="16"/>
-    </row>
-    <row r="356" spans="1:15">
-      <c r="A356" s="16"/>
-      <c r="B356" s="16"/>
-      <c r="C356" s="16"/>
-      <c r="D356" s="16"/>
-      <c r="E356" s="16"/>
-      <c r="F356" s="16"/>
-      <c r="G356" s="16"/>
-      <c r="H356" s="16"/>
-      <c r="I356" s="16"/>
-      <c r="J356" s="16"/>
-      <c r="K356" s="16"/>
-      <c r="L356" s="16"/>
-      <c r="M356" s="16"/>
-      <c r="N356" s="16"/>
-      <c r="O356" s="16"/>
-    </row>
-    <row r="357" spans="1:15">
-      <c r="A357" s="16"/>
-      <c r="B357" s="16"/>
-      <c r="C357" s="16"/>
-      <c r="D357" s="16"/>
-      <c r="E357" s="16"/>
-      <c r="F357" s="16"/>
-      <c r="G357" s="16"/>
-      <c r="H357" s="16"/>
-      <c r="I357" s="16"/>
-      <c r="J357" s="16"/>
-      <c r="K357" s="16"/>
-      <c r="L357" s="16"/>
-      <c r="M357" s="16"/>
-      <c r="N357" s="16"/>
-      <c r="O357" s="16"/>
-    </row>
-    <row r="358" spans="1:15">
-      <c r="A358" s="16"/>
-      <c r="B358" s="16"/>
-      <c r="C358" s="16"/>
-      <c r="D358" s="16"/>
-      <c r="E358" s="16"/>
-      <c r="F358" s="16"/>
-      <c r="G358" s="16"/>
-      <c r="H358" s="16"/>
-      <c r="I358" s="16"/>
-      <c r="J358" s="16"/>
-      <c r="K358" s="16"/>
-      <c r="L358" s="16"/>
-      <c r="M358" s="16"/>
-      <c r="N358" s="16"/>
-      <c r="O358" s="16"/>
-    </row>
-    <row r="359" spans="1:15">
-      <c r="A359" s="16"/>
-      <c r="B359" s="16"/>
-      <c r="C359" s="16"/>
-      <c r="D359" s="16"/>
-      <c r="E359" s="16"/>
-      <c r="F359" s="16"/>
-      <c r="G359" s="16"/>
-      <c r="H359" s="16"/>
-      <c r="I359" s="16"/>
-      <c r="J359" s="16"/>
-      <c r="K359" s="16"/>
-      <c r="L359" s="16"/>
-      <c r="M359" s="16"/>
-      <c r="N359" s="16"/>
-      <c r="O359" s="16"/>
-    </row>
-    <row r="360" spans="1:15">
-      <c r="A360" s="16"/>
-      <c r="B360" s="16"/>
-      <c r="C360" s="16"/>
-      <c r="D360" s="16"/>
-      <c r="E360" s="16"/>
-      <c r="F360" s="16"/>
-      <c r="G360" s="16"/>
-      <c r="H360" s="16"/>
-      <c r="I360" s="16"/>
-      <c r="J360" s="16"/>
-      <c r="K360" s="16"/>
-      <c r="L360" s="16"/>
-      <c r="M360" s="16"/>
-      <c r="N360" s="16"/>
-      <c r="O360" s="16"/>
-    </row>
-    <row r="361" spans="1:15">
-      <c r="A361" s="16"/>
-      <c r="B361" s="16"/>
-      <c r="C361" s="16"/>
-      <c r="D361" s="16"/>
-      <c r="E361" s="16"/>
-      <c r="F361" s="16"/>
-      <c r="G361" s="16"/>
-      <c r="H361" s="16"/>
-      <c r="I361" s="16"/>
-      <c r="J361" s="16"/>
-      <c r="K361" s="16"/>
-      <c r="L361" s="16"/>
-      <c r="M361" s="16"/>
-      <c r="N361" s="16"/>
-      <c r="O361" s="16"/>
-    </row>
-    <row r="362" spans="1:15">
-      <c r="A362" s="16"/>
-      <c r="B362" s="16"/>
-      <c r="C362" s="16"/>
-      <c r="D362" s="16"/>
-      <c r="E362" s="16"/>
-      <c r="F362" s="16"/>
-      <c r="G362" s="16"/>
-      <c r="H362" s="16"/>
-      <c r="I362" s="16"/>
-      <c r="J362" s="16"/>
-      <c r="K362" s="16"/>
-      <c r="L362" s="16"/>
-      <c r="M362" s="16"/>
-      <c r="N362" s="16"/>
-      <c r="O362" s="16"/>
-    </row>
-    <row r="363" spans="1:15">
-      <c r="A363" s="16"/>
-      <c r="B363" s="16"/>
-      <c r="C363" s="16"/>
-      <c r="D363" s="16"/>
-      <c r="E363" s="16"/>
-      <c r="F363" s="16"/>
-      <c r="G363" s="16"/>
-      <c r="H363" s="16"/>
-      <c r="I363" s="16"/>
-      <c r="J363" s="16"/>
-      <c r="K363" s="16"/>
-      <c r="L363" s="16"/>
-      <c r="M363" s="16"/>
-      <c r="N363" s="16"/>
-      <c r="O363" s="16"/>
-    </row>
-    <row r="364" spans="1:15">
-      <c r="A364" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-      <c r="D364" s="1"/>
-      <c r="E364" s="1"/>
-      <c r="F364" s="1"/>
-      <c r="G364" s="1"/>
-      <c r="H364" s="1"/>
-      <c r="I364" s="1"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="1"/>
-      <c r="M364" s="1"/>
-      <c r="N364" s="1"/>
-      <c r="O364" s="1"/>
-    </row>
-    <row r="365" spans="1:15">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
-      <c r="H365" s="1"/>
-      <c r="I365" s="1"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
-      <c r="M365" s="1"/>
-      <c r="N365" s="1"/>
-      <c r="O365" s="1"/>
-    </row>
-    <row r="366" spans="1:15">
-      <c r="A366" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-      <c r="E366" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F366" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G366" s="2"/>
-      <c r="H366" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I366" s="2"/>
-      <c r="J366" s="2"/>
-      <c r="K366" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L366" s="2"/>
-      <c r="M366" s="2"/>
-      <c r="N366" s="2"/>
-      <c r="O366" s="2"/>
+      <c r="L366" s="3"/>
+      <c r="M366" s="3"/>
+      <c r="N366" s="3"/>
+      <c r="O366" s="3"/>
     </row>
     <row r="367" spans="1:15">
-      <c r="A367" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
-      <c r="E367" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E367" s="3"/>
       <c r="F367" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G367" s="3"/>
       <c r="H367" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
       <c r="K367" s="3" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="L367" s="3"/>
       <c r="M367" s="3" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="N367" s="3"/>
       <c r="O367" s="3"/>
@@ -5932,68 +6034,62 @@
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G368" s="3"/>
       <c r="H368" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
       <c r="K368" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="L368" s="3"/>
       <c r="M368" s="3" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
     </row>
     <row r="369" spans="1:15">
-      <c r="A369" s="3"/>
-      <c r="B369" s="3"/>
-      <c r="C369" s="3"/>
-      <c r="D369" s="3"/>
-      <c r="E369" s="3"/>
-      <c r="F369" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A369" s="4"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4"/>
+      <c r="F369" s="3"/>
       <c r="G369" s="3"/>
-      <c r="H369" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L369" s="3"/>
-      <c r="M369" s="3"/>
+      <c r="M369" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="N369" s="3"/>
       <c r="O369" s="3"/>
     </row>
     <row r="370" spans="1:15">
-      <c r="A370" s="3"/>
-      <c r="B370" s="3"/>
-      <c r="C370" s="3"/>
-      <c r="D370" s="3"/>
-      <c r="E370" s="3"/>
-      <c r="F370" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="A370" s="4"/>
+      <c r="B370" s="4"/>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4"/>
+      <c r="F370" s="3"/>
       <c r="G370" s="3"/>
-      <c r="H370" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="K370" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L370" s="3"/>
       <c r="M370" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
@@ -6010,11 +6106,11 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
       <c r="K371" s="3" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="L371" s="3"/>
       <c r="M371" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="N371" s="3"/>
       <c r="O371" s="3"/>
@@ -6031,80 +6127,491 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
       <c r="K372" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L372" s="3"/>
       <c r="M372" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="N372" s="3"/>
       <c r="O372" s="3"/>
     </row>
     <row r="373" spans="1:15">
-      <c r="A373" s="4"/>
-      <c r="B373" s="4"/>
-      <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
-      <c r="E373" s="4"/>
-      <c r="F373" s="4"/>
-      <c r="G373" s="4"/>
-      <c r="H373" s="4"/>
-      <c r="I373" s="4"/>
-      <c r="J373" s="4"/>
-      <c r="K373" s="3" t="s">
+      <c r="A373" s="22"/>
+      <c r="B373" s="22"/>
+      <c r="C373" s="22"/>
+      <c r="D373" s="22"/>
+      <c r="E373" s="22"/>
+      <c r="F373" s="22"/>
+      <c r="G373" s="22"/>
+      <c r="H373" s="22"/>
+      <c r="I373" s="22"/>
+      <c r="J373" s="22"/>
+      <c r="K373" s="22"/>
+      <c r="L373" s="22"/>
+      <c r="M373" s="22"/>
+      <c r="N373" s="22"/>
+      <c r="O373" s="22"/>
+    </row>
+    <row r="374" spans="1:15">
+      <c r="A374" s="22"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="22"/>
+      <c r="D374" s="22"/>
+      <c r="E374" s="22"/>
+      <c r="F374" s="22"/>
+      <c r="G374" s="22"/>
+      <c r="H374" s="22"/>
+      <c r="I374" s="22"/>
+      <c r="J374" s="22"/>
+      <c r="K374" s="22"/>
+      <c r="L374" s="22"/>
+      <c r="M374" s="22"/>
+      <c r="N374" s="22"/>
+      <c r="O374" s="22"/>
+    </row>
+    <row r="375" spans="1:15">
+      <c r="A375" s="22"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="22"/>
+      <c r="D375" s="22"/>
+      <c r="E375" s="22"/>
+      <c r="F375" s="22"/>
+      <c r="G375" s="22"/>
+      <c r="H375" s="22"/>
+      <c r="I375" s="22"/>
+      <c r="J375" s="22"/>
+      <c r="K375" s="22"/>
+      <c r="L375" s="22"/>
+      <c r="M375" s="22"/>
+      <c r="N375" s="22"/>
+      <c r="O375" s="22"/>
+    </row>
+    <row r="376" spans="1:15">
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="22"/>
+      <c r="D376" s="22"/>
+      <c r="E376" s="22"/>
+      <c r="F376" s="22"/>
+      <c r="G376" s="22"/>
+      <c r="H376" s="22"/>
+      <c r="I376" s="22"/>
+      <c r="J376" s="22"/>
+      <c r="K376" s="22"/>
+      <c r="L376" s="22"/>
+      <c r="M376" s="22"/>
+      <c r="N376" s="22"/>
+      <c r="O376" s="22"/>
+    </row>
+    <row r="377" spans="1:15">
+      <c r="A377" s="22"/>
+      <c r="B377" s="22"/>
+      <c r="C377" s="22"/>
+      <c r="D377" s="22"/>
+      <c r="E377" s="22"/>
+      <c r="F377" s="22"/>
+      <c r="G377" s="22"/>
+      <c r="H377" s="22"/>
+      <c r="I377" s="22"/>
+      <c r="J377" s="22"/>
+      <c r="K377" s="22"/>
+      <c r="L377" s="22"/>
+      <c r="M377" s="22"/>
+      <c r="N377" s="22"/>
+      <c r="O377" s="22"/>
+    </row>
+    <row r="378" spans="1:15">
+      <c r="A378" s="22"/>
+      <c r="B378" s="22"/>
+      <c r="C378" s="22"/>
+      <c r="D378" s="22"/>
+      <c r="E378" s="22"/>
+      <c r="F378" s="22"/>
+      <c r="G378" s="22"/>
+      <c r="H378" s="22"/>
+      <c r="I378" s="22"/>
+      <c r="J378" s="22"/>
+      <c r="K378" s="22"/>
+      <c r="L378" s="22"/>
+      <c r="M378" s="22"/>
+      <c r="N378" s="22"/>
+      <c r="O378" s="22"/>
+    </row>
+    <row r="379" spans="1:15">
+      <c r="A379" s="22"/>
+      <c r="B379" s="22"/>
+      <c r="C379" s="22"/>
+      <c r="D379" s="22"/>
+      <c r="E379" s="22"/>
+      <c r="F379" s="22"/>
+      <c r="G379" s="22"/>
+      <c r="H379" s="22"/>
+      <c r="I379" s="22"/>
+      <c r="J379" s="22"/>
+      <c r="K379" s="22"/>
+      <c r="L379" s="22"/>
+      <c r="M379" s="22"/>
+      <c r="N379" s="22"/>
+      <c r="O379" s="22"/>
+    </row>
+    <row r="380" spans="1:15">
+      <c r="A380" s="22"/>
+      <c r="B380" s="22"/>
+      <c r="C380" s="22"/>
+      <c r="D380" s="22"/>
+      <c r="E380" s="22"/>
+      <c r="F380" s="22"/>
+      <c r="G380" s="22"/>
+      <c r="H380" s="22"/>
+      <c r="I380" s="22"/>
+      <c r="J380" s="22"/>
+      <c r="K380" s="22"/>
+      <c r="L380" s="22"/>
+      <c r="M380" s="22"/>
+      <c r="N380" s="22"/>
+      <c r="O380" s="22"/>
+    </row>
+    <row r="381" spans="1:15">
+      <c r="A381" s="22"/>
+      <c r="B381" s="22"/>
+      <c r="C381" s="22"/>
+      <c r="D381" s="22"/>
+      <c r="E381" s="22"/>
+      <c r="F381" s="22"/>
+      <c r="G381" s="22"/>
+      <c r="H381" s="22"/>
+      <c r="I381" s="22"/>
+      <c r="J381" s="22"/>
+      <c r="K381" s="22"/>
+      <c r="L381" s="22"/>
+      <c r="M381" s="22"/>
+      <c r="N381" s="22"/>
+      <c r="O381" s="22"/>
+    </row>
+    <row r="382" spans="1:15">
+      <c r="A382" s="22"/>
+      <c r="B382" s="22"/>
+      <c r="C382" s="22"/>
+      <c r="D382" s="22"/>
+      <c r="E382" s="22"/>
+      <c r="F382" s="22"/>
+      <c r="G382" s="22"/>
+      <c r="H382" s="22"/>
+      <c r="I382" s="22"/>
+      <c r="J382" s="22"/>
+      <c r="K382" s="22"/>
+      <c r="L382" s="22"/>
+      <c r="M382" s="22"/>
+      <c r="N382" s="22"/>
+      <c r="O382" s="22"/>
+    </row>
+    <row r="383" spans="1:15">
+      <c r="A383" s="22"/>
+      <c r="B383" s="22"/>
+      <c r="C383" s="22"/>
+      <c r="D383" s="22"/>
+      <c r="E383" s="22"/>
+      <c r="F383" s="22"/>
+      <c r="G383" s="22"/>
+      <c r="H383" s="22"/>
+      <c r="I383" s="22"/>
+      <c r="J383" s="22"/>
+      <c r="K383" s="22"/>
+      <c r="L383" s="22"/>
+      <c r="M383" s="22"/>
+      <c r="N383" s="22"/>
+      <c r="O383" s="22"/>
+    </row>
+    <row r="384" spans="1:15">
+      <c r="A384" s="22"/>
+      <c r="B384" s="22"/>
+      <c r="C384" s="22"/>
+      <c r="D384" s="22"/>
+      <c r="E384" s="22"/>
+      <c r="F384" s="22"/>
+      <c r="G384" s="22"/>
+      <c r="H384" s="22"/>
+      <c r="I384" s="22"/>
+      <c r="J384" s="22"/>
+      <c r="K384" s="22"/>
+      <c r="L384" s="22"/>
+      <c r="M384" s="22"/>
+      <c r="N384" s="22"/>
+      <c r="O384" s="22"/>
+    </row>
+    <row r="385" spans="1:15">
+      <c r="A385" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+      <c r="K385" s="1"/>
+      <c r="L385" s="1"/>
+      <c r="M385" s="1"/>
+      <c r="N385" s="1"/>
+      <c r="O385" s="1"/>
+    </row>
+    <row r="386" spans="1:15">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+      <c r="K386" s="1"/>
+      <c r="L386" s="1"/>
+      <c r="M386" s="1"/>
+      <c r="N386" s="1"/>
+      <c r="O386" s="1"/>
+    </row>
+    <row r="387" spans="1:15">
+      <c r="A387" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G387" s="2"/>
+      <c r="H387" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I387" s="2"/>
+      <c r="J387" s="2"/>
+      <c r="K387" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L387" s="2"/>
+      <c r="M387" s="2"/>
+      <c r="N387" s="2"/>
+      <c r="O387" s="2"/>
+    </row>
+    <row r="388" spans="1:15">
+      <c r="A388" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+      <c r="D388" s="3"/>
+      <c r="E388" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G388" s="3"/>
+      <c r="H388" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I388" s="3"/>
+      <c r="J388" s="3"/>
+      <c r="K388" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L388" s="3"/>
+      <c r="M388" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N388" s="3"/>
+      <c r="O388" s="3"/>
+    </row>
+    <row r="389" spans="1:15">
+      <c r="A389" s="3"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="3"/>
+      <c r="E389" s="3"/>
+      <c r="F389" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G389" s="3"/>
+      <c r="H389" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I389" s="3"/>
+      <c r="J389" s="3"/>
+      <c r="K389" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L389" s="3"/>
+      <c r="M389" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N389" s="3"/>
+      <c r="O389" s="3"/>
+    </row>
+    <row r="390" spans="1:15">
+      <c r="A390" s="3"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="3"/>
+      <c r="E390" s="3"/>
+      <c r="F390" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G390" s="3"/>
+      <c r="H390" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I390" s="3"/>
+      <c r="J390" s="3"/>
+      <c r="K390" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L390" s="3"/>
+      <c r="M390" s="3"/>
+      <c r="N390" s="3"/>
+      <c r="O390" s="3"/>
+    </row>
+    <row r="391" spans="1:15">
+      <c r="A391" s="3"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="3"/>
+      <c r="E391" s="3"/>
+      <c r="F391" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L373" s="3"/>
-      <c r="M373" s="3" t="s">
+      <c r="G391" s="3"/>
+      <c r="H391" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N373" s="3"/>
-      <c r="O373" s="3"/>
-    </row>
-    <row r="374" spans="1:15">
-      <c r="A374" s="4"/>
-      <c r="B374" s="4"/>
-      <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
-      <c r="F374" s="4"/>
-      <c r="G374" s="4"/>
-      <c r="H374" s="4"/>
-      <c r="I374" s="4"/>
-      <c r="J374" s="4"/>
-      <c r="K374" s="3" t="s">
+      <c r="I391" s="3"/>
+      <c r="J391" s="3"/>
+      <c r="K391" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L391" s="3"/>
+      <c r="M391" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N391" s="3"/>
+      <c r="O391" s="3"/>
+    </row>
+    <row r="392" spans="1:15">
+      <c r="A392" s="4"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
+      <c r="H392" s="4"/>
+      <c r="I392" s="4"/>
+      <c r="J392" s="4"/>
+      <c r="K392" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L374" s="3"/>
-      <c r="M374" s="3" t="s">
+      <c r="N392" s="3"/>
+      <c r="O392" s="3"/>
+    </row>
+    <row r="393" spans="1:15">
+      <c r="A393" s="4"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4"/>
+      <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
+      <c r="H393" s="4"/>
+      <c r="I393" s="4"/>
+      <c r="J393" s="4"/>
+      <c r="K393" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N374" s="3"/>
-      <c r="O374" s="3"/>
-    </row>
-    <row r="375" spans="1:15">
-      <c r="A375" s="4"/>
-      <c r="B375" s="4"/>
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="4"/>
-      <c r="G375" s="4"/>
-      <c r="H375" s="4"/>
-      <c r="I375" s="4"/>
-      <c r="J375" s="4"/>
-      <c r="K375" s="3" t="s">
+      <c r="L393" s="3"/>
+      <c r="M393" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L375" s="3"/>
-      <c r="M375" s="3" t="s">
+      <c r="N393" s="3"/>
+      <c r="O393" s="3"/>
+    </row>
+    <row r="394" spans="1:15">
+      <c r="A394" s="4"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="4"/>
+      <c r="D394" s="4"/>
+      <c r="E394" s="4"/>
+      <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
+      <c r="H394" s="4"/>
+      <c r="I394" s="4"/>
+      <c r="J394" s="4"/>
+      <c r="K394" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N375" s="3"/>
-      <c r="O375" s="3"/>
+      <c r="L394" s="3"/>
+      <c r="M394" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N394" s="3"/>
+      <c r="O394" s="3"/>
+    </row>
+    <row r="395" spans="1:15">
+      <c r="A395" s="4"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="4"/>
+      <c r="D395" s="4"/>
+      <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
+      <c r="H395" s="4"/>
+      <c r="I395" s="4"/>
+      <c r="J395" s="4"/>
+      <c r="K395" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L395" s="3"/>
+      <c r="M395" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="N395" s="3"/>
+      <c r="O395" s="3"/>
+    </row>
+    <row r="396" spans="1:15">
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
+      <c r="H396" s="4"/>
+      <c r="I396" s="4"/>
+      <c r="J396" s="4"/>
+      <c r="K396" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L396" s="3"/>
+      <c r="M396" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N396" s="3"/>
+      <c r="O396" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="555">
+  <mergeCells count="632">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -6506,11 +7013,46 @@
     <mergeCell ref="H266:J266"/>
     <mergeCell ref="K266:L266"/>
     <mergeCell ref="M266:O266"/>
-    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="F267:G267"/>
+    <mergeCell ref="H267:J267"/>
+    <mergeCell ref="K267:L267"/>
+    <mergeCell ref="M267:O267"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:J279"/>
+    <mergeCell ref="K279:O279"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="H280:J280"/>
+    <mergeCell ref="K280:L280"/>
+    <mergeCell ref="M280:O280"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="H281:J281"/>
+    <mergeCell ref="K281:L281"/>
+    <mergeCell ref="M281:O281"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="H282:J282"/>
+    <mergeCell ref="K282:O282"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="H283:J283"/>
+    <mergeCell ref="K283:L283"/>
+    <mergeCell ref="M283:O283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="H284:J284"/>
+    <mergeCell ref="K284:L284"/>
+    <mergeCell ref="M284:O284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="H285:J285"/>
+    <mergeCell ref="K285:L285"/>
+    <mergeCell ref="M285:O285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="H286:J286"/>
+    <mergeCell ref="K286:L286"/>
+    <mergeCell ref="M286:O286"/>
     <mergeCell ref="F287:G287"/>
     <mergeCell ref="H287:J287"/>
-    <mergeCell ref="K287:O287"/>
-    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="K287:L287"/>
+    <mergeCell ref="M287:O287"/>
     <mergeCell ref="F288:G288"/>
     <mergeCell ref="H288:J288"/>
     <mergeCell ref="K288:L288"/>
@@ -6525,7 +7067,8 @@
     <mergeCell ref="M290:O290"/>
     <mergeCell ref="F291:G291"/>
     <mergeCell ref="H291:J291"/>
-    <mergeCell ref="K291:O291"/>
+    <mergeCell ref="K291:L291"/>
+    <mergeCell ref="M291:O291"/>
     <mergeCell ref="F292:G292"/>
     <mergeCell ref="H292:J292"/>
     <mergeCell ref="K292:L292"/>
@@ -6534,53 +7077,76 @@
     <mergeCell ref="H293:J293"/>
     <mergeCell ref="K293:L293"/>
     <mergeCell ref="M293:O293"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="H294:J294"/>
     <mergeCell ref="K294:L294"/>
     <mergeCell ref="M294:O294"/>
-    <mergeCell ref="A314:D314"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="H295:J295"/>
+    <mergeCell ref="K295:L295"/>
+    <mergeCell ref="M295:O295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="H296:J296"/>
+    <mergeCell ref="K296:L296"/>
+    <mergeCell ref="M296:O296"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="H308:J308"/>
+    <mergeCell ref="K308:O308"/>
+    <mergeCell ref="A309:D309"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="H309:J309"/>
+    <mergeCell ref="K309:L309"/>
+    <mergeCell ref="M309:O309"/>
+    <mergeCell ref="F310:G310"/>
+    <mergeCell ref="H310:J310"/>
+    <mergeCell ref="K310:L310"/>
+    <mergeCell ref="M310:O310"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="H311:J311"/>
+    <mergeCell ref="K311:L311"/>
+    <mergeCell ref="M311:O311"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="H312:J312"/>
+    <mergeCell ref="K312:O312"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="H313:J313"/>
+    <mergeCell ref="K313:L313"/>
+    <mergeCell ref="M313:O313"/>
     <mergeCell ref="F314:G314"/>
     <mergeCell ref="H314:J314"/>
-    <mergeCell ref="K314:O314"/>
-    <mergeCell ref="A315:D315"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="H315:J315"/>
+    <mergeCell ref="K314:L314"/>
+    <mergeCell ref="M314:O314"/>
     <mergeCell ref="K315:L315"/>
     <mergeCell ref="M315:O315"/>
-    <mergeCell ref="F316:G316"/>
-    <mergeCell ref="H316:J316"/>
-    <mergeCell ref="K316:L316"/>
-    <mergeCell ref="M316:O316"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:J317"/>
-    <mergeCell ref="K317:L317"/>
-    <mergeCell ref="M317:O317"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:J318"/>
-    <mergeCell ref="K318:O318"/>
-    <mergeCell ref="F319:G319"/>
-    <mergeCell ref="H319:J319"/>
-    <mergeCell ref="K319:L319"/>
-    <mergeCell ref="M319:O319"/>
-    <mergeCell ref="F320:G320"/>
-    <mergeCell ref="H320:J320"/>
-    <mergeCell ref="K320:L320"/>
-    <mergeCell ref="M320:O320"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="H321:J321"/>
-    <mergeCell ref="K321:L321"/>
-    <mergeCell ref="M321:O321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="H322:J322"/>
-    <mergeCell ref="K322:L322"/>
-    <mergeCell ref="M322:O322"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="H323:J323"/>
-    <mergeCell ref="K323:L323"/>
-    <mergeCell ref="M323:O323"/>
-    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="H335:J335"/>
+    <mergeCell ref="K335:O335"/>
+    <mergeCell ref="A336:D336"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="H336:J336"/>
+    <mergeCell ref="K336:L336"/>
+    <mergeCell ref="M336:O336"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="H337:J337"/>
+    <mergeCell ref="K337:L337"/>
+    <mergeCell ref="M337:O337"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="H338:J338"/>
+    <mergeCell ref="K338:L338"/>
+    <mergeCell ref="M338:O338"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="H339:J339"/>
+    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="H340:J340"/>
+    <mergeCell ref="K340:L340"/>
+    <mergeCell ref="M340:O340"/>
     <mergeCell ref="F341:G341"/>
     <mergeCell ref="H341:J341"/>
-    <mergeCell ref="K341:O341"/>
-    <mergeCell ref="A342:D342"/>
+    <mergeCell ref="K341:L341"/>
+    <mergeCell ref="M341:O341"/>
     <mergeCell ref="F342:G342"/>
     <mergeCell ref="H342:J342"/>
     <mergeCell ref="K342:L342"/>
@@ -6593,34 +7159,26 @@
     <mergeCell ref="H344:J344"/>
     <mergeCell ref="K344:L344"/>
     <mergeCell ref="M344:O344"/>
-    <mergeCell ref="F345:G345"/>
-    <mergeCell ref="H345:J345"/>
-    <mergeCell ref="K345:O345"/>
-    <mergeCell ref="F346:G346"/>
-    <mergeCell ref="H346:J346"/>
-    <mergeCell ref="K346:L346"/>
-    <mergeCell ref="M346:O346"/>
-    <mergeCell ref="F347:G347"/>
-    <mergeCell ref="H347:J347"/>
-    <mergeCell ref="K347:L347"/>
-    <mergeCell ref="M347:O347"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="H348:J348"/>
-    <mergeCell ref="K348:L348"/>
-    <mergeCell ref="M348:O348"/>
-    <mergeCell ref="F349:G349"/>
-    <mergeCell ref="H349:J349"/>
-    <mergeCell ref="K349:L349"/>
-    <mergeCell ref="M349:O349"/>
-    <mergeCell ref="K350:L350"/>
-    <mergeCell ref="M350:O350"/>
-    <mergeCell ref="K351:L351"/>
-    <mergeCell ref="M351:O351"/>
-    <mergeCell ref="A366:D366"/>
+    <mergeCell ref="A362:D362"/>
+    <mergeCell ref="F362:G362"/>
+    <mergeCell ref="H362:J362"/>
+    <mergeCell ref="K362:O362"/>
+    <mergeCell ref="A363:D363"/>
+    <mergeCell ref="F363:G363"/>
+    <mergeCell ref="H363:J363"/>
+    <mergeCell ref="K363:L363"/>
+    <mergeCell ref="M363:O363"/>
+    <mergeCell ref="F364:G364"/>
+    <mergeCell ref="H364:J364"/>
+    <mergeCell ref="K364:L364"/>
+    <mergeCell ref="M364:O364"/>
+    <mergeCell ref="F365:G365"/>
+    <mergeCell ref="H365:J365"/>
+    <mergeCell ref="K365:L365"/>
+    <mergeCell ref="M365:O365"/>
     <mergeCell ref="F366:G366"/>
     <mergeCell ref="H366:J366"/>
     <mergeCell ref="K366:O366"/>
-    <mergeCell ref="A367:D367"/>
     <mergeCell ref="F367:G367"/>
     <mergeCell ref="H367:J367"/>
     <mergeCell ref="K367:L367"/>
@@ -6631,7 +7189,8 @@
     <mergeCell ref="M368:O368"/>
     <mergeCell ref="F369:G369"/>
     <mergeCell ref="H369:J369"/>
-    <mergeCell ref="K369:O369"/>
+    <mergeCell ref="K369:L369"/>
+    <mergeCell ref="M369:O369"/>
     <mergeCell ref="F370:G370"/>
     <mergeCell ref="H370:J370"/>
     <mergeCell ref="K370:L370"/>
@@ -6640,26 +7199,51 @@
     <mergeCell ref="M371:O371"/>
     <mergeCell ref="K372:L372"/>
     <mergeCell ref="M372:O372"/>
-    <mergeCell ref="K373:L373"/>
-    <mergeCell ref="M373:O373"/>
-    <mergeCell ref="K374:L374"/>
-    <mergeCell ref="M374:O374"/>
-    <mergeCell ref="K375:L375"/>
-    <mergeCell ref="M375:O375"/>
+    <mergeCell ref="A387:D387"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="H387:J387"/>
+    <mergeCell ref="K387:O387"/>
+    <mergeCell ref="A388:D388"/>
+    <mergeCell ref="F388:G388"/>
+    <mergeCell ref="H388:J388"/>
+    <mergeCell ref="K388:L388"/>
+    <mergeCell ref="M388:O388"/>
+    <mergeCell ref="F389:G389"/>
+    <mergeCell ref="H389:J389"/>
+    <mergeCell ref="K389:L389"/>
+    <mergeCell ref="M389:O389"/>
+    <mergeCell ref="F390:G390"/>
+    <mergeCell ref="H390:J390"/>
+    <mergeCell ref="K390:O390"/>
+    <mergeCell ref="F391:G391"/>
+    <mergeCell ref="H391:J391"/>
+    <mergeCell ref="K391:L391"/>
+    <mergeCell ref="M391:O391"/>
+    <mergeCell ref="K392:L392"/>
+    <mergeCell ref="M392:O392"/>
+    <mergeCell ref="K393:L393"/>
+    <mergeCell ref="M393:O393"/>
+    <mergeCell ref="K394:L394"/>
+    <mergeCell ref="M394:O394"/>
+    <mergeCell ref="K395:L395"/>
+    <mergeCell ref="M395:O395"/>
+    <mergeCell ref="K396:L396"/>
+    <mergeCell ref="M396:O396"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A23:O24"/>
     <mergeCell ref="A44:O45"/>
-    <mergeCell ref="A339:O340"/>
     <mergeCell ref="A74:O75"/>
     <mergeCell ref="A104:O105"/>
     <mergeCell ref="A146:O147"/>
     <mergeCell ref="A170:O171"/>
     <mergeCell ref="A209:O210"/>
     <mergeCell ref="A247:O248"/>
-    <mergeCell ref="A285:O286"/>
-    <mergeCell ref="A312:O313"/>
-    <mergeCell ref="A364:O365"/>
     <mergeCell ref="P23:R30"/>
+    <mergeCell ref="A277:O278"/>
+    <mergeCell ref="A360:O361"/>
+    <mergeCell ref="A306:O307"/>
+    <mergeCell ref="A333:O334"/>
+    <mergeCell ref="A385:O386"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/客户资源.xlsx
+++ b/需求分析/接口文档/客户/客户资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22395" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="客户资源" sheetId="1" r:id="rId1"/>
@@ -637,16 +637,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,14 +683,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,37 +737,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -736,14 +752,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -752,16 +760,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,7 +773,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,37 +830,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,25 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +902,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,25 +944,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,25 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,18 +990,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1009,6 +997,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1023,15 +1041,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,36 +1063,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1091,6 +1070,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,10 +1105,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1129,91 +1117,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,10 +1210,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,7 +1222,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,23 +1231,23 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,22 +1296,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1679,8 +1652,8 @@
   <sheetPr/>
   <dimension ref="A1:R396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="N276" sqref="N276"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87:L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4865,463 +4838,463 @@
       <c r="O266" s="3"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="16"/>
-      <c r="B267" s="16"/>
-      <c r="C267" s="16"/>
-      <c r="D267" s="16"/>
-      <c r="E267" s="16"/>
-      <c r="F267" s="16"/>
-      <c r="G267" s="16"/>
-      <c r="H267" s="16"/>
-      <c r="I267" s="16"/>
-      <c r="J267" s="16"/>
-      <c r="K267" s="16" t="s">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L267" s="16"/>
-      <c r="M267" s="16" t="s">
+      <c r="L267" s="3"/>
+      <c r="M267" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N267" s="16"/>
-      <c r="O267" s="16"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
     </row>
     <row r="277" spans="1:15">
-      <c r="A277" s="17" t="s">
+      <c r="A277" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B277" s="17"/>
-      <c r="C277" s="17"/>
-      <c r="D277" s="17"/>
-      <c r="E277" s="17"/>
-      <c r="F277" s="17"/>
-      <c r="G277" s="17"/>
-      <c r="H277" s="17"/>
-      <c r="I277" s="17"/>
-      <c r="J277" s="17"/>
-      <c r="K277" s="17"/>
-      <c r="L277" s="17"/>
-      <c r="M277" s="17"/>
-      <c r="N277" s="17"/>
-      <c r="O277" s="17"/>
+      <c r="B277" s="16"/>
+      <c r="C277" s="16"/>
+      <c r="D277" s="16"/>
+      <c r="E277" s="16"/>
+      <c r="F277" s="16"/>
+      <c r="G277" s="16"/>
+      <c r="H277" s="16"/>
+      <c r="I277" s="16"/>
+      <c r="J277" s="16"/>
+      <c r="K277" s="16"/>
+      <c r="L277" s="16"/>
+      <c r="M277" s="16"/>
+      <c r="N277" s="16"/>
+      <c r="O277" s="16"/>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="17"/>
-      <c r="B278" s="17"/>
-      <c r="C278" s="17"/>
-      <c r="D278" s="17"/>
-      <c r="E278" s="17"/>
-      <c r="F278" s="17"/>
-      <c r="G278" s="17"/>
-      <c r="H278" s="17"/>
-      <c r="I278" s="17"/>
-      <c r="J278" s="17"/>
-      <c r="K278" s="17"/>
-      <c r="L278" s="17"/>
-      <c r="M278" s="17"/>
-      <c r="N278" s="17"/>
-      <c r="O278" s="17"/>
+      <c r="A278" s="16"/>
+      <c r="B278" s="16"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
+      <c r="G278" s="16"/>
+      <c r="H278" s="16"/>
+      <c r="I278" s="16"/>
+      <c r="J278" s="16"/>
+      <c r="K278" s="16"/>
+      <c r="L278" s="16"/>
+      <c r="M278" s="16"/>
+      <c r="N278" s="16"/>
+      <c r="O278" s="16"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="18" t="s">
+      <c r="A279" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="19" t="s">
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F279" s="18" t="s">
+      <c r="F279" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G279" s="18"/>
-      <c r="H279" s="18" t="s">
+      <c r="G279" s="2"/>
+      <c r="H279" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I279" s="18"/>
-      <c r="J279" s="18"/>
-      <c r="K279" s="18" t="s">
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L279" s="18"/>
-      <c r="M279" s="18"/>
-      <c r="N279" s="18"/>
-      <c r="O279" s="18"/>
+      <c r="L279" s="2"/>
+      <c r="M279" s="2"/>
+      <c r="N279" s="2"/>
+      <c r="O279" s="2"/>
     </row>
     <row r="280" spans="1:15">
-      <c r="A280" s="20" t="s">
+      <c r="A280" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B280" s="16"/>
-      <c r="C280" s="16"/>
-      <c r="D280" s="16"/>
-      <c r="E280" s="20" t="s">
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F280" s="20" t="s">
+      <c r="F280" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G280" s="16"/>
-      <c r="H280" s="20" t="s">
+      <c r="G280" s="3"/>
+      <c r="H280" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I280" s="16"/>
-      <c r="J280" s="16"/>
-      <c r="K280" s="20" t="s">
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L280" s="16"/>
-      <c r="M280" s="20" t="s">
+      <c r="L280" s="3"/>
+      <c r="M280" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N280" s="16"/>
-      <c r="O280" s="16"/>
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
     </row>
     <row r="281" spans="1:15">
-      <c r="A281" s="16"/>
-      <c r="B281" s="16"/>
-      <c r="C281" s="16"/>
-      <c r="D281" s="16"/>
-      <c r="E281" s="16"/>
-      <c r="F281" s="16" t="s">
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G281" s="16"/>
-      <c r="H281" s="16" t="s">
+      <c r="G281" s="3"/>
+      <c r="H281" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I281" s="16"/>
-      <c r="J281" s="16"/>
-      <c r="K281" s="16" t="s">
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L281" s="16"/>
-      <c r="M281" s="16" t="s">
+      <c r="L281" s="3"/>
+      <c r="M281" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N281" s="16"/>
-      <c r="O281" s="16"/>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
     </row>
     <row r="282" spans="1:15">
-      <c r="A282" s="16"/>
-      <c r="B282" s="16"/>
-      <c r="C282" s="16"/>
-      <c r="D282" s="16"/>
-      <c r="E282" s="16"/>
-      <c r="F282" s="16" t="s">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G282" s="16"/>
-      <c r="H282" s="16" t="s">
+      <c r="G282" s="3"/>
+      <c r="H282" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I282" s="16"/>
-      <c r="J282" s="16"/>
-      <c r="K282" s="21" t="s">
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="L282" s="21"/>
-      <c r="M282" s="21"/>
-      <c r="N282" s="21"/>
-      <c r="O282" s="21"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
     </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="16"/>
-      <c r="B283" s="16"/>
-      <c r="C283" s="16"/>
-      <c r="D283" s="16"/>
-      <c r="E283" s="16"/>
-      <c r="F283" s="16" t="s">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G283" s="16"/>
-      <c r="H283" s="16" t="s">
+      <c r="G283" s="3"/>
+      <c r="H283" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I283" s="16"/>
-      <c r="J283" s="16"/>
-      <c r="K283" s="16" t="s">
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L283" s="16"/>
-      <c r="M283" s="16" t="s">
+      <c r="L283" s="3"/>
+      <c r="M283" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N283" s="16"/>
-      <c r="O283" s="16"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
     </row>
     <row r="284" spans="1:15">
-      <c r="A284" s="16"/>
-      <c r="B284" s="16"/>
-      <c r="C284" s="16"/>
-      <c r="D284" s="16"/>
-      <c r="E284" s="16"/>
-      <c r="F284" s="16"/>
-      <c r="G284" s="16"/>
-      <c r="H284" s="16"/>
-      <c r="I284" s="16"/>
-      <c r="J284" s="16"/>
-      <c r="K284" s="16" t="s">
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3"/>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L284" s="16"/>
-      <c r="M284" s="16" t="s">
+      <c r="L284" s="3"/>
+      <c r="M284" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N284" s="16"/>
-      <c r="O284" s="16"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3"/>
     </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="16"/>
-      <c r="B285" s="16"/>
-      <c r="C285" s="16"/>
-      <c r="D285" s="16"/>
-      <c r="E285" s="16"/>
-      <c r="F285" s="16"/>
-      <c r="G285" s="16"/>
-      <c r="H285" s="16"/>
-      <c r="I285" s="16"/>
-      <c r="J285" s="16"/>
-      <c r="K285" s="16" t="s">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L285" s="16"/>
-      <c r="M285" s="16" t="s">
+      <c r="L285" s="3"/>
+      <c r="M285" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N285" s="16"/>
-      <c r="O285" s="16"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
     </row>
     <row r="286" spans="1:15">
-      <c r="A286" s="16"/>
-      <c r="B286" s="16"/>
-      <c r="C286" s="16"/>
-      <c r="D286" s="16"/>
-      <c r="E286" s="16"/>
-      <c r="F286" s="16"/>
-      <c r="G286" s="16"/>
-      <c r="H286" s="16"/>
-      <c r="I286" s="16"/>
-      <c r="J286" s="16"/>
-      <c r="K286" s="16" t="s">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L286" s="16"/>
-      <c r="M286" s="16" t="s">
+      <c r="L286" s="3"/>
+      <c r="M286" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="N286" s="16"/>
-      <c r="O286" s="16"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
     </row>
     <row r="287" spans="1:15">
-      <c r="A287" s="16"/>
-      <c r="B287" s="16"/>
-      <c r="C287" s="16"/>
-      <c r="D287" s="16"/>
-      <c r="E287" s="16"/>
-      <c r="F287" s="16"/>
-      <c r="G287" s="16"/>
-      <c r="H287" s="16"/>
-      <c r="I287" s="16"/>
-      <c r="J287" s="16"/>
-      <c r="K287" s="16" t="s">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L287" s="16"/>
-      <c r="M287" s="16" t="s">
+      <c r="L287" s="3"/>
+      <c r="M287" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N287" s="16"/>
-      <c r="O287" s="16"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
     </row>
     <row r="288" spans="1:15">
-      <c r="A288" s="16"/>
-      <c r="B288" s="16"/>
-      <c r="C288" s="16"/>
-      <c r="D288" s="16"/>
-      <c r="E288" s="16"/>
-      <c r="F288" s="16"/>
-      <c r="G288" s="16"/>
-      <c r="H288" s="16"/>
-      <c r="I288" s="16"/>
-      <c r="J288" s="16"/>
-      <c r="K288" s="16" t="s">
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L288" s="16"/>
-      <c r="M288" s="16" t="s">
+      <c r="L288" s="3"/>
+      <c r="M288" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N288" s="16"/>
-      <c r="O288" s="16"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
     </row>
     <row r="289" spans="1:15">
-      <c r="A289" s="16"/>
-      <c r="B289" s="16"/>
-      <c r="C289" s="16"/>
-      <c r="D289" s="16"/>
-      <c r="E289" s="16"/>
-      <c r="F289" s="16"/>
-      <c r="G289" s="16"/>
-      <c r="H289" s="16"/>
-      <c r="I289" s="16"/>
-      <c r="J289" s="16"/>
-      <c r="K289" s="16" t="s">
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3"/>
+      <c r="E289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L289" s="16"/>
-      <c r="M289" s="16" t="s">
+      <c r="L289" s="3"/>
+      <c r="M289" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="N289" s="16"/>
-      <c r="O289" s="16"/>
+      <c r="N289" s="3"/>
+      <c r="O289" s="3"/>
     </row>
     <row r="290" spans="1:15">
-      <c r="A290" s="16"/>
-      <c r="B290" s="16"/>
-      <c r="C290" s="16"/>
-      <c r="D290" s="16"/>
-      <c r="E290" s="16"/>
-      <c r="F290" s="16"/>
-      <c r="G290" s="16"/>
-      <c r="H290" s="16"/>
-      <c r="I290" s="16"/>
-      <c r="J290" s="16"/>
-      <c r="K290" s="16" t="s">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L290" s="16"/>
-      <c r="M290" s="16" t="s">
+      <c r="L290" s="3"/>
+      <c r="M290" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N290" s="16"/>
-      <c r="O290" s="16"/>
+      <c r="N290" s="3"/>
+      <c r="O290" s="3"/>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="16"/>
-      <c r="B291" s="16"/>
-      <c r="C291" s="16"/>
-      <c r="D291" s="16"/>
-      <c r="E291" s="16"/>
-      <c r="F291" s="16"/>
-      <c r="G291" s="16"/>
-      <c r="H291" s="16"/>
-      <c r="I291" s="16"/>
-      <c r="J291" s="16"/>
-      <c r="K291" s="16" t="s">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L291" s="16"/>
-      <c r="M291" s="16" t="s">
+      <c r="L291" s="3"/>
+      <c r="M291" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="N291" s="16"/>
-      <c r="O291" s="16"/>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="16"/>
-      <c r="B292" s="16"/>
-      <c r="C292" s="16"/>
-      <c r="D292" s="16"/>
-      <c r="E292" s="16"/>
-      <c r="F292" s="16"/>
-      <c r="G292" s="16"/>
-      <c r="H292" s="16"/>
-      <c r="I292" s="16"/>
-      <c r="J292" s="16"/>
-      <c r="K292" s="16" t="s">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L292" s="16"/>
-      <c r="M292" s="16" t="s">
+      <c r="L292" s="3"/>
+      <c r="M292" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N292" s="16"/>
-      <c r="O292" s="16"/>
+      <c r="N292" s="3"/>
+      <c r="O292" s="3"/>
     </row>
     <row r="293" spans="1:15">
-      <c r="A293" s="16"/>
-      <c r="B293" s="16"/>
-      <c r="C293" s="16"/>
-      <c r="D293" s="16"/>
-      <c r="E293" s="16"/>
-      <c r="F293" s="16"/>
-      <c r="G293" s="16"/>
-      <c r="H293" s="16"/>
-      <c r="I293" s="16"/>
-      <c r="J293" s="16"/>
-      <c r="K293" s="16" t="s">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3"/>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3"/>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L293" s="16"/>
-      <c r="M293" s="16" t="s">
+      <c r="L293" s="3"/>
+      <c r="M293" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="N293" s="16"/>
-      <c r="O293" s="16"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
     </row>
     <row r="294" spans="1:15">
-      <c r="A294" s="16"/>
-      <c r="B294" s="16"/>
-      <c r="C294" s="16"/>
-      <c r="D294" s="16"/>
-      <c r="E294" s="16"/>
-      <c r="F294" s="16"/>
-      <c r="G294" s="16"/>
-      <c r="H294" s="16"/>
-      <c r="I294" s="16"/>
-      <c r="J294" s="16"/>
-      <c r="K294" s="16" t="s">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="L294" s="16"/>
-      <c r="M294" s="16" t="s">
+      <c r="L294" s="3"/>
+      <c r="M294" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="N294" s="16"/>
-      <c r="O294" s="16"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
     </row>
     <row r="295" spans="1:15">
-      <c r="A295" s="16"/>
-      <c r="B295" s="16"/>
-      <c r="C295" s="16"/>
-      <c r="D295" s="16"/>
-      <c r="E295" s="16"/>
-      <c r="F295" s="16"/>
-      <c r="G295" s="16"/>
-      <c r="H295" s="16"/>
-      <c r="I295" s="16"/>
-      <c r="J295" s="16"/>
-      <c r="K295" s="16" t="s">
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L295" s="16"/>
-      <c r="M295" s="16" t="s">
+      <c r="L295" s="3"/>
+      <c r="M295" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="N295" s="16"/>
-      <c r="O295" s="16"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
     </row>
     <row r="296" spans="1:15">
-      <c r="A296" s="16"/>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
-      <c r="D296" s="16"/>
-      <c r="E296" s="16"/>
-      <c r="F296" s="16"/>
-      <c r="G296" s="16"/>
-      <c r="H296" s="16"/>
-      <c r="I296" s="16"/>
-      <c r="J296" s="16"/>
-      <c r="K296" s="16" t="s">
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L296" s="16"/>
-      <c r="M296" s="16" t="s">
+      <c r="L296" s="3"/>
+      <c r="M296" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N296" s="16"/>
-      <c r="O296" s="16"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="1" t="s">
@@ -6137,208 +6110,208 @@
       <c r="O372" s="3"/>
     </row>
     <row r="373" spans="1:15">
-      <c r="A373" s="22"/>
-      <c r="B373" s="22"/>
-      <c r="C373" s="22"/>
-      <c r="D373" s="22"/>
-      <c r="E373" s="22"/>
-      <c r="F373" s="22"/>
-      <c r="G373" s="22"/>
-      <c r="H373" s="22"/>
-      <c r="I373" s="22"/>
-      <c r="J373" s="22"/>
-      <c r="K373" s="22"/>
-      <c r="L373" s="22"/>
-      <c r="M373" s="22"/>
-      <c r="N373" s="22"/>
-      <c r="O373" s="22"/>
+      <c r="A373" s="17"/>
+      <c r="B373" s="17"/>
+      <c r="C373" s="17"/>
+      <c r="D373" s="17"/>
+      <c r="E373" s="17"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17"/>
+      <c r="H373" s="17"/>
+      <c r="I373" s="17"/>
+      <c r="J373" s="17"/>
+      <c r="K373" s="17"/>
+      <c r="L373" s="17"/>
+      <c r="M373" s="17"/>
+      <c r="N373" s="17"/>
+      <c r="O373" s="17"/>
     </row>
     <row r="374" spans="1:15">
-      <c r="A374" s="22"/>
-      <c r="B374" s="22"/>
-      <c r="C374" s="22"/>
-      <c r="D374" s="22"/>
-      <c r="E374" s="22"/>
-      <c r="F374" s="22"/>
-      <c r="G374" s="22"/>
-      <c r="H374" s="22"/>
-      <c r="I374" s="22"/>
-      <c r="J374" s="22"/>
-      <c r="K374" s="22"/>
-      <c r="L374" s="22"/>
-      <c r="M374" s="22"/>
-      <c r="N374" s="22"/>
-      <c r="O374" s="22"/>
+      <c r="A374" s="17"/>
+      <c r="B374" s="17"/>
+      <c r="C374" s="17"/>
+      <c r="D374" s="17"/>
+      <c r="E374" s="17"/>
+      <c r="F374" s="17"/>
+      <c r="G374" s="17"/>
+      <c r="H374" s="17"/>
+      <c r="I374" s="17"/>
+      <c r="J374" s="17"/>
+      <c r="K374" s="17"/>
+      <c r="L374" s="17"/>
+      <c r="M374" s="17"/>
+      <c r="N374" s="17"/>
+      <c r="O374" s="17"/>
     </row>
     <row r="375" spans="1:15">
-      <c r="A375" s="22"/>
-      <c r="B375" s="22"/>
-      <c r="C375" s="22"/>
-      <c r="D375" s="22"/>
-      <c r="E375" s="22"/>
-      <c r="F375" s="22"/>
-      <c r="G375" s="22"/>
-      <c r="H375" s="22"/>
-      <c r="I375" s="22"/>
-      <c r="J375" s="22"/>
-      <c r="K375" s="22"/>
-      <c r="L375" s="22"/>
-      <c r="M375" s="22"/>
-      <c r="N375" s="22"/>
-      <c r="O375" s="22"/>
+      <c r="A375" s="17"/>
+      <c r="B375" s="17"/>
+      <c r="C375" s="17"/>
+      <c r="D375" s="17"/>
+      <c r="E375" s="17"/>
+      <c r="F375" s="17"/>
+      <c r="G375" s="17"/>
+      <c r="H375" s="17"/>
+      <c r="I375" s="17"/>
+      <c r="J375" s="17"/>
+      <c r="K375" s="17"/>
+      <c r="L375" s="17"/>
+      <c r="M375" s="17"/>
+      <c r="N375" s="17"/>
+      <c r="O375" s="17"/>
     </row>
     <row r="376" spans="1:15">
-      <c r="A376" s="22"/>
-      <c r="B376" s="22"/>
-      <c r="C376" s="22"/>
-      <c r="D376" s="22"/>
-      <c r="E376" s="22"/>
-      <c r="F376" s="22"/>
-      <c r="G376" s="22"/>
-      <c r="H376" s="22"/>
-      <c r="I376" s="22"/>
-      <c r="J376" s="22"/>
-      <c r="K376" s="22"/>
-      <c r="L376" s="22"/>
-      <c r="M376" s="22"/>
-      <c r="N376" s="22"/>
-      <c r="O376" s="22"/>
+      <c r="A376" s="17"/>
+      <c r="B376" s="17"/>
+      <c r="C376" s="17"/>
+      <c r="D376" s="17"/>
+      <c r="E376" s="17"/>
+      <c r="F376" s="17"/>
+      <c r="G376" s="17"/>
+      <c r="H376" s="17"/>
+      <c r="I376" s="17"/>
+      <c r="J376" s="17"/>
+      <c r="K376" s="17"/>
+      <c r="L376" s="17"/>
+      <c r="M376" s="17"/>
+      <c r="N376" s="17"/>
+      <c r="O376" s="17"/>
     </row>
     <row r="377" spans="1:15">
-      <c r="A377" s="22"/>
-      <c r="B377" s="22"/>
-      <c r="C377" s="22"/>
-      <c r="D377" s="22"/>
-      <c r="E377" s="22"/>
-      <c r="F377" s="22"/>
-      <c r="G377" s="22"/>
-      <c r="H377" s="22"/>
-      <c r="I377" s="22"/>
-      <c r="J377" s="22"/>
-      <c r="K377" s="22"/>
-      <c r="L377" s="22"/>
-      <c r="M377" s="22"/>
-      <c r="N377" s="22"/>
-      <c r="O377" s="22"/>
+      <c r="A377" s="17"/>
+      <c r="B377" s="17"/>
+      <c r="C377" s="17"/>
+      <c r="D377" s="17"/>
+      <c r="E377" s="17"/>
+      <c r="F377" s="17"/>
+      <c r="G377" s="17"/>
+      <c r="H377" s="17"/>
+      <c r="I377" s="17"/>
+      <c r="J377" s="17"/>
+      <c r="K377" s="17"/>
+      <c r="L377" s="17"/>
+      <c r="M377" s="17"/>
+      <c r="N377" s="17"/>
+      <c r="O377" s="17"/>
     </row>
     <row r="378" spans="1:15">
-      <c r="A378" s="22"/>
-      <c r="B378" s="22"/>
-      <c r="C378" s="22"/>
-      <c r="D378" s="22"/>
-      <c r="E378" s="22"/>
-      <c r="F378" s="22"/>
-      <c r="G378" s="22"/>
-      <c r="H378" s="22"/>
-      <c r="I378" s="22"/>
-      <c r="J378" s="22"/>
-      <c r="K378" s="22"/>
-      <c r="L378" s="22"/>
-      <c r="M378" s="22"/>
-      <c r="N378" s="22"/>
-      <c r="O378" s="22"/>
+      <c r="A378" s="17"/>
+      <c r="B378" s="17"/>
+      <c r="C378" s="17"/>
+      <c r="D378" s="17"/>
+      <c r="E378" s="17"/>
+      <c r="F378" s="17"/>
+      <c r="G378" s="17"/>
+      <c r="H378" s="17"/>
+      <c r="I378" s="17"/>
+      <c r="J378" s="17"/>
+      <c r="K378" s="17"/>
+      <c r="L378" s="17"/>
+      <c r="M378" s="17"/>
+      <c r="N378" s="17"/>
+      <c r="O378" s="17"/>
     </row>
     <row r="379" spans="1:15">
-      <c r="A379" s="22"/>
-      <c r="B379" s="22"/>
-      <c r="C379" s="22"/>
-      <c r="D379" s="22"/>
-      <c r="E379" s="22"/>
-      <c r="F379" s="22"/>
-      <c r="G379" s="22"/>
-      <c r="H379" s="22"/>
-      <c r="I379" s="22"/>
-      <c r="J379" s="22"/>
-      <c r="K379" s="22"/>
-      <c r="L379" s="22"/>
-      <c r="M379" s="22"/>
-      <c r="N379" s="22"/>
-      <c r="O379" s="22"/>
+      <c r="A379" s="17"/>
+      <c r="B379" s="17"/>
+      <c r="C379" s="17"/>
+      <c r="D379" s="17"/>
+      <c r="E379" s="17"/>
+      <c r="F379" s="17"/>
+      <c r="G379" s="17"/>
+      <c r="H379" s="17"/>
+      <c r="I379" s="17"/>
+      <c r="J379" s="17"/>
+      <c r="K379" s="17"/>
+      <c r="L379" s="17"/>
+      <c r="M379" s="17"/>
+      <c r="N379" s="17"/>
+      <c r="O379" s="17"/>
     </row>
     <row r="380" spans="1:15">
-      <c r="A380" s="22"/>
-      <c r="B380" s="22"/>
-      <c r="C380" s="22"/>
-      <c r="D380" s="22"/>
-      <c r="E380" s="22"/>
-      <c r="F380" s="22"/>
-      <c r="G380" s="22"/>
-      <c r="H380" s="22"/>
-      <c r="I380" s="22"/>
-      <c r="J380" s="22"/>
-      <c r="K380" s="22"/>
-      <c r="L380" s="22"/>
-      <c r="M380" s="22"/>
-      <c r="N380" s="22"/>
-      <c r="O380" s="22"/>
+      <c r="A380" s="17"/>
+      <c r="B380" s="17"/>
+      <c r="C380" s="17"/>
+      <c r="D380" s="17"/>
+      <c r="E380" s="17"/>
+      <c r="F380" s="17"/>
+      <c r="G380" s="17"/>
+      <c r="H380" s="17"/>
+      <c r="I380" s="17"/>
+      <c r="J380" s="17"/>
+      <c r="K380" s="17"/>
+      <c r="L380" s="17"/>
+      <c r="M380" s="17"/>
+      <c r="N380" s="17"/>
+      <c r="O380" s="17"/>
     </row>
     <row r="381" spans="1:15">
-      <c r="A381" s="22"/>
-      <c r="B381" s="22"/>
-      <c r="C381" s="22"/>
-      <c r="D381" s="22"/>
-      <c r="E381" s="22"/>
-      <c r="F381" s="22"/>
-      <c r="G381" s="22"/>
-      <c r="H381" s="22"/>
-      <c r="I381" s="22"/>
-      <c r="J381" s="22"/>
-      <c r="K381" s="22"/>
-      <c r="L381" s="22"/>
-      <c r="M381" s="22"/>
-      <c r="N381" s="22"/>
-      <c r="O381" s="22"/>
+      <c r="A381" s="17"/>
+      <c r="B381" s="17"/>
+      <c r="C381" s="17"/>
+      <c r="D381" s="17"/>
+      <c r="E381" s="17"/>
+      <c r="F381" s="17"/>
+      <c r="G381" s="17"/>
+      <c r="H381" s="17"/>
+      <c r="I381" s="17"/>
+      <c r="J381" s="17"/>
+      <c r="K381" s="17"/>
+      <c r="L381" s="17"/>
+      <c r="M381" s="17"/>
+      <c r="N381" s="17"/>
+      <c r="O381" s="17"/>
     </row>
     <row r="382" spans="1:15">
-      <c r="A382" s="22"/>
-      <c r="B382" s="22"/>
-      <c r="C382" s="22"/>
-      <c r="D382" s="22"/>
-      <c r="E382" s="22"/>
-      <c r="F382" s="22"/>
-      <c r="G382" s="22"/>
-      <c r="H382" s="22"/>
-      <c r="I382" s="22"/>
-      <c r="J382" s="22"/>
-      <c r="K382" s="22"/>
-      <c r="L382" s="22"/>
-      <c r="M382" s="22"/>
-      <c r="N382" s="22"/>
-      <c r="O382" s="22"/>
+      <c r="A382" s="17"/>
+      <c r="B382" s="17"/>
+      <c r="C382" s="17"/>
+      <c r="D382" s="17"/>
+      <c r="E382" s="17"/>
+      <c r="F382" s="17"/>
+      <c r="G382" s="17"/>
+      <c r="H382" s="17"/>
+      <c r="I382" s="17"/>
+      <c r="J382" s="17"/>
+      <c r="K382" s="17"/>
+      <c r="L382" s="17"/>
+      <c r="M382" s="17"/>
+      <c r="N382" s="17"/>
+      <c r="O382" s="17"/>
     </row>
     <row r="383" spans="1:15">
-      <c r="A383" s="22"/>
-      <c r="B383" s="22"/>
-      <c r="C383" s="22"/>
-      <c r="D383" s="22"/>
-      <c r="E383" s="22"/>
-      <c r="F383" s="22"/>
-      <c r="G383" s="22"/>
-      <c r="H383" s="22"/>
-      <c r="I383" s="22"/>
-      <c r="J383" s="22"/>
-      <c r="K383" s="22"/>
-      <c r="L383" s="22"/>
-      <c r="M383" s="22"/>
-      <c r="N383" s="22"/>
-      <c r="O383" s="22"/>
+      <c r="A383" s="17"/>
+      <c r="B383" s="17"/>
+      <c r="C383" s="17"/>
+      <c r="D383" s="17"/>
+      <c r="E383" s="17"/>
+      <c r="F383" s="17"/>
+      <c r="G383" s="17"/>
+      <c r="H383" s="17"/>
+      <c r="I383" s="17"/>
+      <c r="J383" s="17"/>
+      <c r="K383" s="17"/>
+      <c r="L383" s="17"/>
+      <c r="M383" s="17"/>
+      <c r="N383" s="17"/>
+      <c r="O383" s="17"/>
     </row>
     <row r="384" spans="1:15">
-      <c r="A384" s="22"/>
-      <c r="B384" s="22"/>
-      <c r="C384" s="22"/>
-      <c r="D384" s="22"/>
-      <c r="E384" s="22"/>
-      <c r="F384" s="22"/>
-      <c r="G384" s="22"/>
-      <c r="H384" s="22"/>
-      <c r="I384" s="22"/>
-      <c r="J384" s="22"/>
-      <c r="K384" s="22"/>
-      <c r="L384" s="22"/>
-      <c r="M384" s="22"/>
-      <c r="N384" s="22"/>
-      <c r="O384" s="22"/>
+      <c r="A384" s="17"/>
+      <c r="B384" s="17"/>
+      <c r="C384" s="17"/>
+      <c r="D384" s="17"/>
+      <c r="E384" s="17"/>
+      <c r="F384" s="17"/>
+      <c r="G384" s="17"/>
+      <c r="H384" s="17"/>
+      <c r="I384" s="17"/>
+      <c r="J384" s="17"/>
+      <c r="K384" s="17"/>
+      <c r="L384" s="17"/>
+      <c r="M384" s="17"/>
+      <c r="N384" s="17"/>
+      <c r="O384" s="17"/>
     </row>
     <row r="385" spans="1:15">
       <c r="A385" s="1" t="s">

--- a/需求分析/接口文档/客户/客户资源.xlsx
+++ b/需求分析/接口文档/客户/客户资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22395" windowHeight="9360"/>
+    <workbookView windowWidth="23025" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="客户资源" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -185,6 +185,9 @@
     <t>hadAccount</t>
   </si>
   <si>
+    <t>是否建账(选填)</t>
+  </si>
+  <si>
     <t>是否建账</t>
   </si>
   <si>
@@ -240,6 +243,12 @@
   </si>
   <si>
     <t>从事岗位</t>
+  </si>
+  <si>
+    <t>userImg</t>
+  </si>
+  <si>
+    <t>用户头像</t>
   </si>
   <si>
     <t>筛选客户列表</t>
@@ -595,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -637,38 +646,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,15 +663,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,38 +708,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,14 +724,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,13 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,79 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +881,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,37 +953,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,17 +1009,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,6 +1029,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,11 +1081,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,30 +1106,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1105,10 +1114,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,88 +1129,88 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,10 +1219,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,32 +1231,32 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,6 +1289,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,10 +1662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R396"/>
+  <dimension ref="A1:R398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87:L87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2273,21 +2285,21 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
+      <c r="F53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -2299,7 +2311,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="9"/>
@@ -2310,7 +2322,7 @@
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -2322,20 +2334,20 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -2352,11 +2364,11 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -2373,11 +2385,11 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -2394,11 +2406,11 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -2415,11 +2427,11 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -2436,11 +2448,11 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -2457,128 +2469,124 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
+    <row r="62" spans="1:15">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
+      <c r="A75" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2" t="s">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="3" t="s">
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F78" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -2590,69 +2598,69 @@
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
+      <c r="M80" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L81" s="3"/>
-      <c r="M81" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
@@ -2663,20 +2671,20 @@
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -2688,20 +2696,20 @@
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -2712,17 +2720,21 @@
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="F84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
       <c r="K84" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -2733,17 +2745,21 @@
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="F85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
       <c r="K85" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -2760,11 +2776,11 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -2781,11 +2797,11 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -2802,11 +2818,11 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
       <c r="K88" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -2823,11 +2839,11 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
       <c r="K89" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -2844,11 +2860,11 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
       <c r="K90" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -2865,36 +2881,40 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
+    <row r="92" spans="1:15">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2911,82 +2931,74 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2" t="s">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F108" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -2998,19 +3010,21 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
+      <c r="M109" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
     </row>
@@ -3021,21 +3035,19 @@
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L110" s="3"/>
-      <c r="M110" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
     </row>
@@ -3045,17 +3057,21 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -3072,11 +3088,11 @@
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -3093,32 +3109,32 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -3135,11 +3151,11 @@
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -3150,17 +3166,17 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -3177,11 +3193,11 @@
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L117" s="3"/>
       <c r="M117" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -3198,11 +3214,11 @@
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -3219,11 +3235,11 @@
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L119" s="3"/>
       <c r="M119" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -3236,15 +3252,15 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
       <c r="K120" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L120" s="3"/>
       <c r="M120" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -3261,11 +3277,11 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L121" s="3"/>
       <c r="M121" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -3282,11 +3298,11 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L122" s="3"/>
       <c r="M122" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -3303,11 +3319,11 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L123" s="3"/>
       <c r="M123" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
@@ -3324,11 +3340,11 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L124" s="3"/>
       <c r="M124" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -3345,142 +3361,142 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L125" s="3"/>
       <c r="M125" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
+    <row r="126" spans="1:15">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F148" s="2" t="s">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2" t="s">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2" t="s">
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
-      <c r="K150" s="3"/>
-      <c r="L150" s="3"/>
-      <c r="M150" s="3"/>
-      <c r="N150" s="3"/>
-      <c r="O150" s="3"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="3"/>
+      <c r="A151" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F151" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="3"/>
+      <c r="K151" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
@@ -3493,11 +3509,11 @@
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
@@ -3507,147 +3523,139 @@
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="170" spans="1:15">
-      <c r="A170" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-    </row>
-    <row r="171" spans="1:15">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
+    <row r="153" spans="1:15">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
     </row>
     <row r="172" spans="1:15">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F172" s="2" t="s">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2" t="s">
+      <c r="G174" s="2"/>
+      <c r="H174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2" t="s">
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-    </row>
-    <row r="173" spans="1:15">
-      <c r="A173" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I173" s="3"/>
-      <c r="J173" s="3"/>
-      <c r="K173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L173" s="3"/>
-      <c r="M173" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N173" s="3"/>
-      <c r="O173" s="3"/>
-    </row>
-    <row r="174" spans="1:15">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
-      <c r="K174" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N174" s="3"/>
-      <c r="O174" s="3"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="3"/>
+      <c r="A175" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F175" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L175" s="11"/>
-      <c r="M175" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N175" s="11"/>
-      <c r="O175" s="11"/>
+      <c r="K175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="3"/>
@@ -3656,69 +3664,69 @@
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L176" s="3"/>
-      <c r="M176" s="3"/>
+      <c r="M176" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
       <c r="F177" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N177" s="3"/>
-      <c r="O177" s="3"/>
+      <c r="K177" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
     </row>
     <row r="178" spans="1:15">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
       <c r="F178" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G178" s="3"/>
       <c r="H178" s="3" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="L178" s="3"/>
-      <c r="M178" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="M178" s="3"/>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
     </row>
@@ -3728,17 +3736,21 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="3"/>
+      <c r="F179" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L179" s="3"/>
       <c r="M179" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
@@ -3749,17 +3761,21 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="3"/>
+      <c r="F180" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L180" s="3"/>
       <c r="M180" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
@@ -3776,11 +3792,11 @@
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L181" s="3"/>
       <c r="M181" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
@@ -3793,15 +3809,15 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
       <c r="K182" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L182" s="3"/>
       <c r="M182" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
@@ -3814,15 +3830,15 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
       <c r="K183" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L183" s="3"/>
       <c r="M183" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
@@ -3838,15 +3854,15 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
-      <c r="K184" s="12" t="s">
+      <c r="K184" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L184" s="12"/>
-      <c r="M184" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N184" s="12"/>
-      <c r="O184" s="12"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="4"/>
@@ -3859,15 +3875,15 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
-      <c r="K185" s="13" t="s">
+      <c r="K185" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L185" s="13"/>
-      <c r="M185" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N185" s="13"/>
-      <c r="O185" s="13"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="4"/>
@@ -3881,11 +3897,11 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L186" s="13"/>
       <c r="M186" s="13" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="N186" s="13"/>
       <c r="O186" s="13"/>
@@ -3922,15 +3938,15 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
-      <c r="K188" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L188" s="15"/>
-      <c r="M188" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N188" s="15"/>
-      <c r="O188" s="15"/>
+      <c r="K188" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L188" s="14"/>
+      <c r="M188" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N188" s="14"/>
+      <c r="O188" s="14"/>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="4"/>
@@ -3944,156 +3960,148 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L189" s="15"/>
       <c r="M189" s="15" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="N189" s="15"/>
       <c r="O189" s="15"/>
     </row>
-    <row r="209" spans="1:15">
-      <c r="A209" s="1" t="s">
+    <row r="190" spans="1:15">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L190" s="16"/>
+      <c r="M190" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N190" s="16"/>
+      <c r="O190" s="16"/>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-    </row>
-    <row r="210" spans="1:15">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
+      <c r="L191" s="16"/>
+      <c r="M191" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N191" s="16"/>
+      <c r="O191" s="16"/>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F211" s="2" t="s">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F213" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2" t="s">
+      <c r="G213" s="2"/>
+      <c r="H213" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2" t="s">
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-    </row>
-    <row r="212" spans="1:15">
-      <c r="A212" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3"/>
-      <c r="K212" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-    </row>
-    <row r="213" spans="1:15">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3"/>
-      <c r="K213" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
     </row>
     <row r="214" spans="1:15">
-      <c r="A214" s="3"/>
+      <c r="A214" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
+      <c r="E214" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F214" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G214" s="3"/>
       <c r="H214" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L214" s="11"/>
-      <c r="M214" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N214" s="11"/>
-      <c r="O214" s="11"/>
+      <c r="K214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="3"/>
@@ -4102,61 +4110,69 @@
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
+      <c r="M215" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
     </row>
     <row r="216" spans="1:15">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="3"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
+      <c r="H216" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
+      <c r="K216" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L216" s="12"/>
+      <c r="M216" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N216" s="12"/>
+      <c r="O216" s="12"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="3"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
+      <c r="H217" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="L217" s="3"/>
-      <c r="M217" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
     </row>
@@ -4166,17 +4182,17 @@
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
@@ -4187,17 +4203,17 @@
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
@@ -4214,11 +4230,11 @@
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
@@ -4231,15 +4247,15 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
-      <c r="H221" s="4"/>
-      <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
       <c r="K221" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L221" s="3"/>
       <c r="M221" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
@@ -4252,15 +4268,15 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
-      <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
       <c r="K222" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
@@ -4276,15 +4292,15 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
-      <c r="K223" s="12" t="s">
+      <c r="K223" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L223" s="12"/>
-      <c r="M223" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N223" s="12"/>
-      <c r="O223" s="12"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="4"/>
@@ -4297,15 +4313,15 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
-      <c r="K224" s="13" t="s">
+      <c r="K224" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L224" s="13"/>
-      <c r="M224" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N224" s="13"/>
-      <c r="O224" s="13"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="4"/>
@@ -4319,11 +4335,11 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L225" s="13"/>
       <c r="M225" s="13" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="N225" s="13"/>
       <c r="O225" s="13"/>
@@ -4360,15 +4376,15 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
-      <c r="K227" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="L227" s="15"/>
-      <c r="M227" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="N227" s="15"/>
-      <c r="O227" s="15"/>
+      <c r="K227" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L227" s="14"/>
+      <c r="M227" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N227" s="14"/>
+      <c r="O227" s="14"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="4"/>
@@ -4382,156 +4398,148 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L228" s="15"/>
       <c r="M228" s="15" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="N228" s="15"/>
       <c r="O228" s="15"/>
     </row>
-    <row r="247" spans="1:15">
-      <c r="A247" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
-      <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
-    </row>
-    <row r="248" spans="1:15">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
+    <row r="229" spans="1:15">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L229" s="16"/>
+      <c r="M229" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N229" s="16"/>
+      <c r="O229" s="16"/>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L230" s="16"/>
+      <c r="M230" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N230" s="16"/>
+      <c r="O230" s="16"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+    </row>
+    <row r="250" spans="1:15">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F249" s="2" t="s">
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2" t="s">
+      <c r="G251" s="2"/>
+      <c r="H251" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
-      <c r="K249" s="2" t="s">
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L249" s="2"/>
-      <c r="M249" s="2"/>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
-    </row>
-    <row r="250" spans="1:15">
-      <c r="A250" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N250" s="3"/>
-      <c r="O250" s="3"/>
-    </row>
-    <row r="251" spans="1:15">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
     </row>
     <row r="252" spans="1:15">
-      <c r="A252" s="3"/>
+      <c r="A252" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
+      <c r="E252" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F252" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G252" s="3"/>
       <c r="H252" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L252" s="11"/>
-      <c r="M252" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N252" s="11"/>
-      <c r="O252" s="11"/>
+      <c r="K252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="3"/>
@@ -4540,19 +4548,21 @@
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G253" s="3"/>
       <c r="H253" s="3" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
+      <c r="M253" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
     </row>
@@ -4563,23 +4573,23 @@
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G254" s="3"/>
       <c r="H254" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
+      <c r="K254" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L254" s="12"/>
+      <c r="M254" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N254" s="12"/>
+      <c r="O254" s="12"/>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="3"/>
@@ -4588,62 +4598,68 @@
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="G255" s="3"/>
       <c r="H255" s="3" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="L255" s="3"/>
-      <c r="M255" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="M255" s="3"/>
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
     </row>
     <row r="256" spans="1:15">
-      <c r="A256" s="4"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="3"/>
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
+      <c r="H256" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I256" s="3"/>
       <c r="J256" s="3"/>
       <c r="K256" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L256" s="3"/>
       <c r="M256" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="3"/>
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
+      <c r="H257" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L257" s="3"/>
       <c r="M257" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
@@ -4660,11 +4676,11 @@
       <c r="I258" s="3"/>
       <c r="J258" s="3"/>
       <c r="K258" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L258" s="3"/>
       <c r="M258" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
@@ -4681,11 +4697,11 @@
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L259" s="3"/>
       <c r="M259" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
@@ -4702,11 +4718,11 @@
       <c r="I260" s="3"/>
       <c r="J260" s="3"/>
       <c r="K260" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L260" s="3"/>
       <c r="M260" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
@@ -4723,11 +4739,11 @@
       <c r="I261" s="3"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L261" s="3"/>
       <c r="M261" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
@@ -4744,11 +4760,11 @@
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
       <c r="K262" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L262" s="3"/>
       <c r="M262" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
@@ -4765,11 +4781,11 @@
       <c r="I263" s="3"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L263" s="3"/>
       <c r="M263" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
@@ -4786,11 +4802,11 @@
       <c r="I264" s="3"/>
       <c r="J264" s="3"/>
       <c r="K264" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L264" s="3"/>
       <c r="M264" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
@@ -4807,11 +4823,11 @@
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L265" s="3"/>
       <c r="M265" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
@@ -4828,175 +4844,169 @@
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
       <c r="K266" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L266" s="3"/>
       <c r="M266" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L267" s="3"/>
       <c r="M267" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="277" spans="1:15">
-      <c r="A277" s="16" t="s">
+    <row r="268" spans="1:15">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B277" s="16"/>
-      <c r="C277" s="16"/>
-      <c r="D277" s="16"/>
-      <c r="E277" s="16"/>
-      <c r="F277" s="16"/>
-      <c r="G277" s="16"/>
-      <c r="H277" s="16"/>
-      <c r="I277" s="16"/>
-      <c r="J277" s="16"/>
-      <c r="K277" s="16"/>
-      <c r="L277" s="16"/>
-      <c r="M277" s="16"/>
-      <c r="N277" s="16"/>
-      <c r="O277" s="16"/>
-    </row>
-    <row r="278" spans="1:15">
-      <c r="A278" s="16"/>
-      <c r="B278" s="16"/>
-      <c r="C278" s="16"/>
-      <c r="D278" s="16"/>
-      <c r="E278" s="16"/>
-      <c r="F278" s="16"/>
-      <c r="G278" s="16"/>
-      <c r="H278" s="16"/>
-      <c r="I278" s="16"/>
-      <c r="J278" s="16"/>
-      <c r="K278" s="16"/>
-      <c r="L278" s="16"/>
-      <c r="M278" s="16"/>
-      <c r="N278" s="16"/>
-      <c r="O278" s="16"/>
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
+    </row>
+    <row r="269" spans="1:15">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="2" t="s">
+      <c r="A279" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B279" s="17"/>
+      <c r="C279" s="17"/>
+      <c r="D279" s="17"/>
+      <c r="E279" s="17"/>
+      <c r="F279" s="17"/>
+      <c r="G279" s="17"/>
+      <c r="H279" s="17"/>
+      <c r="I279" s="17"/>
+      <c r="J279" s="17"/>
+      <c r="K279" s="17"/>
+      <c r="L279" s="17"/>
+      <c r="M279" s="17"/>
+      <c r="N279" s="17"/>
+      <c r="O279" s="17"/>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="A280" s="17"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="17"/>
+      <c r="D280" s="17"/>
+      <c r="E280" s="17"/>
+      <c r="F280" s="17"/>
+      <c r="G280" s="17"/>
+      <c r="H280" s="17"/>
+      <c r="I280" s="17"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="17"/>
+      <c r="L280" s="17"/>
+      <c r="M280" s="17"/>
+      <c r="N280" s="17"/>
+      <c r="O280" s="17"/>
+    </row>
+    <row r="281" spans="1:15">
+      <c r="A281" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F279" s="2" t="s">
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F281" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2" t="s">
+      <c r="G281" s="2"/>
+      <c r="H281" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I279" s="2"/>
-      <c r="J279" s="2"/>
-      <c r="K279" s="2" t="s">
+      <c r="I281" s="2"/>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L279" s="2"/>
-      <c r="M279" s="2"/>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
-    </row>
-    <row r="280" spans="1:15">
-      <c r="A280" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I280" s="3"/>
-      <c r="J280" s="3"/>
-      <c r="K280" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L280" s="3"/>
-      <c r="M280" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N280" s="3"/>
-      <c r="O280" s="3"/>
-    </row>
-    <row r="281" spans="1:15">
-      <c r="A281" s="3"/>
-      <c r="B281" s="3"/>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I281" s="3"/>
-      <c r="J281" s="3"/>
-      <c r="K281" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L281" s="3"/>
-      <c r="M281" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N281" s="3"/>
-      <c r="O281" s="3"/>
+      <c r="L281" s="2"/>
+      <c r="M281" s="2"/>
+      <c r="N281" s="2"/>
+      <c r="O281" s="2"/>
     </row>
     <row r="282" spans="1:15">
-      <c r="A282" s="3"/>
+      <c r="A282" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
+      <c r="E282" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F282" s="3" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="G282" s="3"/>
       <c r="H282" s="3" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="L282" s="11"/>
-      <c r="M282" s="11"/>
-      <c r="N282" s="11"/>
-      <c r="O282" s="11"/>
+      <c r="K282" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="3"/>
@@ -5005,20 +5015,20 @@
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="G283" s="3"/>
       <c r="H283" s="3" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="L283" s="3"/>
       <c r="M283" s="3" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
@@ -5029,20 +5039,22 @@
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
+      <c r="F284" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
+      <c r="H284" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
-      <c r="K284" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L284" s="3"/>
-      <c r="M284" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N284" s="3"/>
-      <c r="O284" s="3"/>
+      <c r="K284" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L284" s="12"/>
+      <c r="M284" s="12"/>
+      <c r="N284" s="12"/>
+      <c r="O284" s="12"/>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="3"/>
@@ -5050,17 +5062,21 @@
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
+      <c r="F285" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
+      <c r="H285" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
       <c r="K285" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L285" s="3"/>
       <c r="M285" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
@@ -5077,11 +5093,11 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
       <c r="K286" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L286" s="3"/>
       <c r="M286" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
@@ -5098,11 +5114,11 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L287" s="3"/>
       <c r="M287" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
@@ -5119,11 +5135,11 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
       <c r="K288" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L288" s="3"/>
       <c r="M288" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
@@ -5140,11 +5156,11 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L289" s="3"/>
       <c r="M289" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
@@ -5161,11 +5177,11 @@
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
       <c r="K290" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L290" s="3"/>
       <c r="M290" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
@@ -5182,11 +5198,11 @@
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
       <c r="K291" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L291" s="3"/>
       <c r="M291" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
@@ -5203,11 +5219,11 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L292" s="3"/>
       <c r="M292" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
@@ -5224,11 +5240,11 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L293" s="3"/>
       <c r="M293" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
@@ -5245,11 +5261,11 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L294" s="3"/>
       <c r="M294" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
@@ -5266,11 +5282,11 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L295" s="3"/>
       <c r="M295" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
@@ -5287,156 +5303,148 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L296" s="3"/>
       <c r="M296" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="306" spans="1:15">
-      <c r="A306" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
-      <c r="E306" s="1"/>
-      <c r="F306" s="1"/>
-      <c r="G306" s="1"/>
-      <c r="H306" s="1"/>
-      <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
-      <c r="K306" s="1"/>
-      <c r="L306" s="1"/>
-      <c r="M306" s="1"/>
-      <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
-    </row>
-    <row r="307" spans="1:15">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
-      <c r="E307" s="1"/>
-      <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
+    <row r="297" spans="1:15">
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3"/>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L298" s="3"/>
+      <c r="M298" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
     </row>
     <row r="308" spans="1:15">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+      <c r="G308" s="1"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+      <c r="K308" s="1"/>
+      <c r="L308" s="1"/>
+      <c r="M308" s="1"/>
+      <c r="N308" s="1"/>
+      <c r="O308" s="1"/>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+      <c r="H309" s="1"/>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+      <c r="K309" s="1"/>
+      <c r="L309" s="1"/>
+      <c r="M309" s="1"/>
+      <c r="N309" s="1"/>
+      <c r="O309" s="1"/>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F308" s="2" t="s">
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2" t="s">
+      <c r="G310" s="2"/>
+      <c r="H310" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2"/>
-      <c r="K308" s="2" t="s">
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L308" s="2"/>
-      <c r="M308" s="2"/>
-      <c r="N308" s="2"/>
-      <c r="O308" s="2"/>
-    </row>
-    <row r="309" spans="1:15">
-      <c r="A309" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G309" s="3"/>
-      <c r="H309" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I309" s="3"/>
-      <c r="J309" s="3"/>
-      <c r="K309" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L309" s="3"/>
-      <c r="M309" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N309" s="3"/>
-      <c r="O309" s="3"/>
-    </row>
-    <row r="310" spans="1:15">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I310" s="3"/>
-      <c r="J310" s="3"/>
-      <c r="K310" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L310" s="3"/>
-      <c r="M310" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N310" s="3"/>
-      <c r="O310" s="3"/>
+      <c r="L310" s="2"/>
+      <c r="M310" s="2"/>
+      <c r="N310" s="2"/>
+      <c r="O310" s="2"/>
     </row>
     <row r="311" spans="1:15">
-      <c r="A311" s="3"/>
+      <c r="A311" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
+      <c r="E311" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F311" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G311" s="3"/>
       <c r="H311" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L311" s="11"/>
-      <c r="M311" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N311" s="11"/>
-      <c r="O311" s="11"/>
+      <c r="K311" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L311" s="3"/>
+      <c r="M311" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N311" s="3"/>
+      <c r="O311" s="3"/>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="3"/>
@@ -5445,69 +5453,69 @@
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G312" s="3"/>
       <c r="H312" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L312" s="3"/>
-      <c r="M312" s="3"/>
+      <c r="M312" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N312" s="3"/>
       <c r="O312" s="3"/>
     </row>
     <row r="313" spans="1:15">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3"/>
+      <c r="E313" s="3"/>
       <c r="F313" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G313" s="3"/>
       <c r="H313" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
-      <c r="K313" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L313" s="3"/>
-      <c r="M313" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N313" s="3"/>
-      <c r="O313" s="3"/>
+      <c r="K313" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L313" s="12"/>
+      <c r="M313" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N313" s="12"/>
+      <c r="O313" s="12"/>
     </row>
     <row r="314" spans="1:15">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3"/>
+      <c r="E314" s="3"/>
       <c r="F314" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G314" s="3"/>
       <c r="H314" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="L314" s="3"/>
-      <c r="M314" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="M314" s="3"/>
       <c r="N314" s="3"/>
       <c r="O314" s="3"/>
     </row>
@@ -5517,162 +5525,162 @@
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="4"/>
-      <c r="H315" s="4"/>
-      <c r="I315" s="4"/>
-      <c r="J315" s="4"/>
+      <c r="F315" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
       <c r="K315" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L315" s="3"/>
       <c r="M315" s="3" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="333" spans="1:15">
-      <c r="A333" s="1" t="s">
+    <row r="316" spans="1:15">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
-      <c r="N333" s="1"/>
-      <c r="O333" s="1"/>
-    </row>
-    <row r="334" spans="1:15">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
-      <c r="H334" s="1"/>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
-      <c r="L334" s="1"/>
-      <c r="M334" s="1"/>
-      <c r="N334" s="1"/>
-      <c r="O334" s="1"/>
+      <c r="L316" s="3"/>
+      <c r="M316" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N316" s="3"/>
+      <c r="O316" s="3"/>
+    </row>
+    <row r="317" spans="1:15">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+      <c r="H317" s="4"/>
+      <c r="I317" s="4"/>
+      <c r="J317" s="4"/>
+      <c r="K317" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L317" s="3"/>
+      <c r="M317" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N317" s="3"/>
+      <c r="O317" s="3"/>
     </row>
     <row r="335" spans="1:15">
-      <c r="A335" s="2" t="s">
+      <c r="A335" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+      <c r="G335" s="1"/>
+      <c r="H335" s="1"/>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+      <c r="K335" s="1"/>
+      <c r="L335" s="1"/>
+      <c r="M335" s="1"/>
+      <c r="N335" s="1"/>
+      <c r="O335" s="1"/>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+      <c r="H336" s="1"/>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+      <c r="K336" s="1"/>
+      <c r="L336" s="1"/>
+      <c r="M336" s="1"/>
+      <c r="N336" s="1"/>
+      <c r="O336" s="1"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F335" s="2" t="s">
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F337" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2" t="s">
+      <c r="G337" s="2"/>
+      <c r="H337" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I335" s="2"/>
-      <c r="J335" s="2"/>
-      <c r="K335" s="2" t="s">
+      <c r="I337" s="2"/>
+      <c r="J337" s="2"/>
+      <c r="K337" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L335" s="2"/>
-      <c r="M335" s="2"/>
-      <c r="N335" s="2"/>
-      <c r="O335" s="2"/>
-    </row>
-    <row r="336" spans="1:15">
-      <c r="A336" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B336" s="3"/>
-      <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
-      <c r="E336" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G336" s="3"/>
-      <c r="H336" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I336" s="3"/>
-      <c r="J336" s="3"/>
-      <c r="K336" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L336" s="3"/>
-      <c r="M336" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N336" s="3"/>
-      <c r="O336" s="3"/>
-    </row>
-    <row r="337" spans="1:15">
-      <c r="A337" s="3"/>
-      <c r="B337" s="3"/>
-      <c r="C337" s="3"/>
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
-      <c r="F337" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G337" s="3"/>
-      <c r="H337" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I337" s="3"/>
-      <c r="J337" s="3"/>
-      <c r="K337" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L337" s="3"/>
-      <c r="M337" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N337" s="3"/>
-      <c r="O337" s="3"/>
+      <c r="L337" s="2"/>
+      <c r="M337" s="2"/>
+      <c r="N337" s="2"/>
+      <c r="O337" s="2"/>
     </row>
     <row r="338" spans="1:15">
-      <c r="A338" s="3"/>
+      <c r="A338" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
+      <c r="E338" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F338" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G338" s="3"/>
       <c r="H338" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I338" s="3"/>
       <c r="J338" s="3"/>
-      <c r="K338" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L338" s="11"/>
-      <c r="M338" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N338" s="11"/>
-      <c r="O338" s="11"/>
+      <c r="K338" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L338" s="3"/>
+      <c r="M338" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="3"/>
@@ -5681,19 +5689,21 @@
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G339" s="3"/>
       <c r="H339" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L339" s="3"/>
-      <c r="M339" s="3"/>
+      <c r="M339" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N339" s="3"/>
       <c r="O339" s="3"/>
     </row>
@@ -5704,66 +5714,68 @@
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G340" s="3"/>
       <c r="H340" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L340" s="3"/>
-      <c r="M340" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N340" s="3"/>
-      <c r="O340" s="3"/>
+      <c r="K340" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L340" s="12"/>
+      <c r="M340" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N340" s="12"/>
+      <c r="O340" s="12"/>
     </row>
     <row r="341" spans="1:15">
-      <c r="A341" s="4"/>
-      <c r="B341" s="4"/>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="3"/>
       <c r="F341" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G341" s="3"/>
       <c r="H341" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="L341" s="3"/>
-      <c r="M341" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="M341" s="3"/>
       <c r="N341" s="3"/>
       <c r="O341" s="3"/>
     </row>
     <row r="342" spans="1:15">
-      <c r="A342" s="4"/>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
-      <c r="F342" s="3"/>
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+      <c r="F342" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
+      <c r="H342" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L342" s="3"/>
       <c r="M342" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N342" s="3"/>
       <c r="O342" s="3"/>
@@ -5774,17 +5786,21 @@
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
-      <c r="F343" s="3"/>
+      <c r="F343" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
+      <c r="H343" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L343" s="3"/>
       <c r="M343" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N343" s="3"/>
       <c r="O343" s="3"/>
@@ -5801,156 +5817,148 @@
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
       <c r="K344" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L344" s="3"/>
       <c r="M344" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="360" spans="1:15">
-      <c r="A360" s="1" t="s">
+    <row r="345" spans="1:15">
+      <c r="A345" s="4"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L345" s="3"/>
+      <c r="M345" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-      <c r="D360" s="1"/>
-      <c r="E360" s="1"/>
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
-      <c r="H360" s="1"/>
-      <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
-      <c r="M360" s="1"/>
-      <c r="N360" s="1"/>
-      <c r="O360" s="1"/>
-    </row>
-    <row r="361" spans="1:15">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-      <c r="D361" s="1"/>
-      <c r="E361" s="1"/>
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
-      <c r="H361" s="1"/>
-      <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
-      <c r="N361" s="1"/>
-      <c r="O361" s="1"/>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
+    </row>
+    <row r="346" spans="1:15">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="3"/>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L346" s="3"/>
+      <c r="M346" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N346" s="3"/>
+      <c r="O346" s="3"/>
     </row>
     <row r="362" spans="1:15">
-      <c r="A362" s="2" t="s">
+      <c r="A362" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+      <c r="F362" s="1"/>
+      <c r="G362" s="1"/>
+      <c r="H362" s="1"/>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="L362" s="1"/>
+      <c r="M362" s="1"/>
+      <c r="N362" s="1"/>
+      <c r="O362" s="1"/>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+      <c r="F363" s="1"/>
+      <c r="G363" s="1"/>
+      <c r="H363" s="1"/>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="L363" s="1"/>
+      <c r="M363" s="1"/>
+      <c r="N363" s="1"/>
+      <c r="O363" s="1"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-      <c r="E362" s="2" t="s">
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F362" s="2" t="s">
+      <c r="F364" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G362" s="2"/>
-      <c r="H362" s="2" t="s">
+      <c r="G364" s="2"/>
+      <c r="H364" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I362" s="2"/>
-      <c r="J362" s="2"/>
-      <c r="K362" s="2" t="s">
+      <c r="I364" s="2"/>
+      <c r="J364" s="2"/>
+      <c r="K364" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L362" s="2"/>
-      <c r="M362" s="2"/>
-      <c r="N362" s="2"/>
-      <c r="O362" s="2"/>
-    </row>
-    <row r="363" spans="1:15">
-      <c r="A363" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B363" s="3"/>
-      <c r="C363" s="3"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
-      <c r="K363" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L363" s="3"/>
-      <c r="M363" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N363" s="3"/>
-      <c r="O363" s="3"/>
-    </row>
-    <row r="364" spans="1:15">
-      <c r="A364" s="3"/>
-      <c r="B364" s="3"/>
-      <c r="C364" s="3"/>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G364" s="3"/>
-      <c r="H364" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I364" s="3"/>
-      <c r="J364" s="3"/>
-      <c r="K364" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L364" s="3"/>
-      <c r="M364" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N364" s="3"/>
-      <c r="O364" s="3"/>
+      <c r="L364" s="2"/>
+      <c r="M364" s="2"/>
+      <c r="N364" s="2"/>
+      <c r="O364" s="2"/>
     </row>
     <row r="365" spans="1:15">
-      <c r="A365" s="3"/>
+      <c r="A365" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
+      <c r="E365" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F365" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G365" s="3"/>
       <c r="H365" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I365" s="3"/>
       <c r="J365" s="3"/>
-      <c r="K365" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L365" s="11"/>
-      <c r="M365" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N365" s="11"/>
-      <c r="O365" s="11"/>
+      <c r="K365" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L365" s="3"/>
+      <c r="M365" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N365" s="3"/>
+      <c r="O365" s="3"/>
     </row>
     <row r="366" spans="1:15">
       <c r="A366" s="3"/>
@@ -5959,19 +5967,21 @@
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G366" s="3"/>
       <c r="H366" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L366" s="3"/>
-      <c r="M366" s="3"/>
+      <c r="M366" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
     </row>
@@ -5982,23 +5992,23 @@
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G367" s="3"/>
       <c r="H367" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L367" s="3"/>
-      <c r="M367" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N367" s="3"/>
-      <c r="O367" s="3"/>
+      <c r="K367" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L367" s="12"/>
+      <c r="M367" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N367" s="12"/>
+      <c r="O367" s="12"/>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="3"/>
@@ -6007,33 +6017,35 @@
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G368" s="3"/>
       <c r="H368" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
       <c r="K368" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="L368" s="3"/>
-      <c r="M368" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="M368" s="3"/>
       <c r="N368" s="3"/>
       <c r="O368" s="3"/>
     </row>
     <row r="369" spans="1:15">
-      <c r="A369" s="4"/>
-      <c r="B369" s="4"/>
-      <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
-      <c r="F369" s="3"/>
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+      <c r="E369" s="3"/>
+      <c r="F369" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
+      <c r="H369" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3" t="s">
@@ -6047,22 +6059,26 @@
       <c r="O369" s="3"/>
     </row>
     <row r="370" spans="1:15">
-      <c r="A370" s="4"/>
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
-      <c r="F370" s="3"/>
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
+      <c r="F370" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
+      <c r="H370" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="K370" s="3" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="L370" s="3"/>
       <c r="M370" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
@@ -6073,17 +6089,17 @@
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
-      <c r="F371" s="4"/>
-      <c r="G371" s="4"/>
-      <c r="H371" s="4"/>
-      <c r="I371" s="4"/>
-      <c r="J371" s="4"/>
+      <c r="F371" s="3"/>
+      <c r="G371" s="3"/>
+      <c r="H371" s="3"/>
+      <c r="I371" s="3"/>
+      <c r="J371" s="3"/>
       <c r="K371" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L371" s="3"/>
       <c r="M371" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N371" s="3"/>
       <c r="O371" s="3"/>
@@ -6094,362 +6110,356 @@
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
-      <c r="F372" s="4"/>
-      <c r="G372" s="4"/>
-      <c r="H372" s="4"/>
-      <c r="I372" s="4"/>
-      <c r="J372" s="4"/>
+      <c r="F372" s="3"/>
+      <c r="G372" s="3"/>
+      <c r="H372" s="3"/>
+      <c r="I372" s="3"/>
+      <c r="J372" s="3"/>
       <c r="K372" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L372" s="3"/>
       <c r="M372" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N372" s="3"/>
       <c r="O372" s="3"/>
     </row>
     <row r="373" spans="1:15">
-      <c r="A373" s="17"/>
-      <c r="B373" s="17"/>
-      <c r="C373" s="17"/>
-      <c r="D373" s="17"/>
-      <c r="E373" s="17"/>
-      <c r="F373" s="17"/>
-      <c r="G373" s="17"/>
-      <c r="H373" s="17"/>
-      <c r="I373" s="17"/>
-      <c r="J373" s="17"/>
-      <c r="K373" s="17"/>
-      <c r="L373" s="17"/>
-      <c r="M373" s="17"/>
-      <c r="N373" s="17"/>
-      <c r="O373" s="17"/>
+      <c r="A373" s="4"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4"/>
+      <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
+      <c r="H373" s="4"/>
+      <c r="I373" s="4"/>
+      <c r="J373" s="4"/>
+      <c r="K373" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L373" s="3"/>
+      <c r="M373" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N373" s="3"/>
+      <c r="O373" s="3"/>
     </row>
     <row r="374" spans="1:15">
-      <c r="A374" s="17"/>
-      <c r="B374" s="17"/>
-      <c r="C374" s="17"/>
-      <c r="D374" s="17"/>
-      <c r="E374" s="17"/>
-      <c r="F374" s="17"/>
-      <c r="G374" s="17"/>
-      <c r="H374" s="17"/>
-      <c r="I374" s="17"/>
-      <c r="J374" s="17"/>
-      <c r="K374" s="17"/>
-      <c r="L374" s="17"/>
-      <c r="M374" s="17"/>
-      <c r="N374" s="17"/>
-      <c r="O374" s="17"/>
+      <c r="A374" s="4"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4"/>
+      <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
+      <c r="H374" s="4"/>
+      <c r="I374" s="4"/>
+      <c r="J374" s="4"/>
+      <c r="K374" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L374" s="3"/>
+      <c r="M374" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N374" s="3"/>
+      <c r="O374" s="3"/>
     </row>
     <row r="375" spans="1:15">
-      <c r="A375" s="17"/>
-      <c r="B375" s="17"/>
-      <c r="C375" s="17"/>
-      <c r="D375" s="17"/>
-      <c r="E375" s="17"/>
-      <c r="F375" s="17"/>
-      <c r="G375" s="17"/>
-      <c r="H375" s="17"/>
-      <c r="I375" s="17"/>
-      <c r="J375" s="17"/>
-      <c r="K375" s="17"/>
-      <c r="L375" s="17"/>
-      <c r="M375" s="17"/>
-      <c r="N375" s="17"/>
-      <c r="O375" s="17"/>
+      <c r="A375" s="18"/>
+      <c r="B375" s="18"/>
+      <c r="C375" s="18"/>
+      <c r="D375" s="18"/>
+      <c r="E375" s="18"/>
+      <c r="F375" s="18"/>
+      <c r="G375" s="18"/>
+      <c r="H375" s="18"/>
+      <c r="I375" s="18"/>
+      <c r="J375" s="18"/>
+      <c r="K375" s="18"/>
+      <c r="L375" s="18"/>
+      <c r="M375" s="18"/>
+      <c r="N375" s="18"/>
+      <c r="O375" s="18"/>
     </row>
     <row r="376" spans="1:15">
-      <c r="A376" s="17"/>
-      <c r="B376" s="17"/>
-      <c r="C376" s="17"/>
-      <c r="D376" s="17"/>
-      <c r="E376" s="17"/>
-      <c r="F376" s="17"/>
-      <c r="G376" s="17"/>
-      <c r="H376" s="17"/>
-      <c r="I376" s="17"/>
-      <c r="J376" s="17"/>
-      <c r="K376" s="17"/>
-      <c r="L376" s="17"/>
-      <c r="M376" s="17"/>
-      <c r="N376" s="17"/>
-      <c r="O376" s="17"/>
+      <c r="A376" s="18"/>
+      <c r="B376" s="18"/>
+      <c r="C376" s="18"/>
+      <c r="D376" s="18"/>
+      <c r="E376" s="18"/>
+      <c r="F376" s="18"/>
+      <c r="G376" s="18"/>
+      <c r="H376" s="18"/>
+      <c r="I376" s="18"/>
+      <c r="J376" s="18"/>
+      <c r="K376" s="18"/>
+      <c r="L376" s="18"/>
+      <c r="M376" s="18"/>
+      <c r="N376" s="18"/>
+      <c r="O376" s="18"/>
     </row>
     <row r="377" spans="1:15">
-      <c r="A377" s="17"/>
-      <c r="B377" s="17"/>
-      <c r="C377" s="17"/>
-      <c r="D377" s="17"/>
-      <c r="E377" s="17"/>
-      <c r="F377" s="17"/>
-      <c r="G377" s="17"/>
-      <c r="H377" s="17"/>
-      <c r="I377" s="17"/>
-      <c r="J377" s="17"/>
-      <c r="K377" s="17"/>
-      <c r="L377" s="17"/>
-      <c r="M377" s="17"/>
-      <c r="N377" s="17"/>
-      <c r="O377" s="17"/>
+      <c r="A377" s="18"/>
+      <c r="B377" s="18"/>
+      <c r="C377" s="18"/>
+      <c r="D377" s="18"/>
+      <c r="E377" s="18"/>
+      <c r="F377" s="18"/>
+      <c r="G377" s="18"/>
+      <c r="H377" s="18"/>
+      <c r="I377" s="18"/>
+      <c r="J377" s="18"/>
+      <c r="K377" s="18"/>
+      <c r="L377" s="18"/>
+      <c r="M377" s="18"/>
+      <c r="N377" s="18"/>
+      <c r="O377" s="18"/>
     </row>
     <row r="378" spans="1:15">
-      <c r="A378" s="17"/>
-      <c r="B378" s="17"/>
-      <c r="C378" s="17"/>
-      <c r="D378" s="17"/>
-      <c r="E378" s="17"/>
-      <c r="F378" s="17"/>
-      <c r="G378" s="17"/>
-      <c r="H378" s="17"/>
-      <c r="I378" s="17"/>
-      <c r="J378" s="17"/>
-      <c r="K378" s="17"/>
-      <c r="L378" s="17"/>
-      <c r="M378" s="17"/>
-      <c r="N378" s="17"/>
-      <c r="O378" s="17"/>
+      <c r="A378" s="18"/>
+      <c r="B378" s="18"/>
+      <c r="C378" s="18"/>
+      <c r="D378" s="18"/>
+      <c r="E378" s="18"/>
+      <c r="F378" s="18"/>
+      <c r="G378" s="18"/>
+      <c r="H378" s="18"/>
+      <c r="I378" s="18"/>
+      <c r="J378" s="18"/>
+      <c r="K378" s="18"/>
+      <c r="L378" s="18"/>
+      <c r="M378" s="18"/>
+      <c r="N378" s="18"/>
+      <c r="O378" s="18"/>
     </row>
     <row r="379" spans="1:15">
-      <c r="A379" s="17"/>
-      <c r="B379" s="17"/>
-      <c r="C379" s="17"/>
-      <c r="D379" s="17"/>
-      <c r="E379" s="17"/>
-      <c r="F379" s="17"/>
-      <c r="G379" s="17"/>
-      <c r="H379" s="17"/>
-      <c r="I379" s="17"/>
-      <c r="J379" s="17"/>
-      <c r="K379" s="17"/>
-      <c r="L379" s="17"/>
-      <c r="M379" s="17"/>
-      <c r="N379" s="17"/>
-      <c r="O379" s="17"/>
+      <c r="A379" s="18"/>
+      <c r="B379" s="18"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="18"/>
+      <c r="E379" s="18"/>
+      <c r="F379" s="18"/>
+      <c r="G379" s="18"/>
+      <c r="H379" s="18"/>
+      <c r="I379" s="18"/>
+      <c r="J379" s="18"/>
+      <c r="K379" s="18"/>
+      <c r="L379" s="18"/>
+      <c r="M379" s="18"/>
+      <c r="N379" s="18"/>
+      <c r="O379" s="18"/>
     </row>
     <row r="380" spans="1:15">
-      <c r="A380" s="17"/>
-      <c r="B380" s="17"/>
-      <c r="C380" s="17"/>
-      <c r="D380" s="17"/>
-      <c r="E380" s="17"/>
-      <c r="F380" s="17"/>
-      <c r="G380" s="17"/>
-      <c r="H380" s="17"/>
-      <c r="I380" s="17"/>
-      <c r="J380" s="17"/>
-      <c r="K380" s="17"/>
-      <c r="L380" s="17"/>
-      <c r="M380" s="17"/>
-      <c r="N380" s="17"/>
-      <c r="O380" s="17"/>
+      <c r="A380" s="18"/>
+      <c r="B380" s="18"/>
+      <c r="C380" s="18"/>
+      <c r="D380" s="18"/>
+      <c r="E380" s="18"/>
+      <c r="F380" s="18"/>
+      <c r="G380" s="18"/>
+      <c r="H380" s="18"/>
+      <c r="I380" s="18"/>
+      <c r="J380" s="18"/>
+      <c r="K380" s="18"/>
+      <c r="L380" s="18"/>
+      <c r="M380" s="18"/>
+      <c r="N380" s="18"/>
+      <c r="O380" s="18"/>
     </row>
     <row r="381" spans="1:15">
-      <c r="A381" s="17"/>
-      <c r="B381" s="17"/>
-      <c r="C381" s="17"/>
-      <c r="D381" s="17"/>
-      <c r="E381" s="17"/>
-      <c r="F381" s="17"/>
-      <c r="G381" s="17"/>
-      <c r="H381" s="17"/>
-      <c r="I381" s="17"/>
-      <c r="J381" s="17"/>
-      <c r="K381" s="17"/>
-      <c r="L381" s="17"/>
-      <c r="M381" s="17"/>
-      <c r="N381" s="17"/>
-      <c r="O381" s="17"/>
+      <c r="A381" s="18"/>
+      <c r="B381" s="18"/>
+      <c r="C381" s="18"/>
+      <c r="D381" s="18"/>
+      <c r="E381" s="18"/>
+      <c r="F381" s="18"/>
+      <c r="G381" s="18"/>
+      <c r="H381" s="18"/>
+      <c r="I381" s="18"/>
+      <c r="J381" s="18"/>
+      <c r="K381" s="18"/>
+      <c r="L381" s="18"/>
+      <c r="M381" s="18"/>
+      <c r="N381" s="18"/>
+      <c r="O381" s="18"/>
     </row>
     <row r="382" spans="1:15">
-      <c r="A382" s="17"/>
-      <c r="B382" s="17"/>
-      <c r="C382" s="17"/>
-      <c r="D382" s="17"/>
-      <c r="E382" s="17"/>
-      <c r="F382" s="17"/>
-      <c r="G382" s="17"/>
-      <c r="H382" s="17"/>
-      <c r="I382" s="17"/>
-      <c r="J382" s="17"/>
-      <c r="K382" s="17"/>
-      <c r="L382" s="17"/>
-      <c r="M382" s="17"/>
-      <c r="N382" s="17"/>
-      <c r="O382" s="17"/>
+      <c r="A382" s="18"/>
+      <c r="B382" s="18"/>
+      <c r="C382" s="18"/>
+      <c r="D382" s="18"/>
+      <c r="E382" s="18"/>
+      <c r="F382" s="18"/>
+      <c r="G382" s="18"/>
+      <c r="H382" s="18"/>
+      <c r="I382" s="18"/>
+      <c r="J382" s="18"/>
+      <c r="K382" s="18"/>
+      <c r="L382" s="18"/>
+      <c r="M382" s="18"/>
+      <c r="N382" s="18"/>
+      <c r="O382" s="18"/>
     </row>
     <row r="383" spans="1:15">
-      <c r="A383" s="17"/>
-      <c r="B383" s="17"/>
-      <c r="C383" s="17"/>
-      <c r="D383" s="17"/>
-      <c r="E383" s="17"/>
-      <c r="F383" s="17"/>
-      <c r="G383" s="17"/>
-      <c r="H383" s="17"/>
-      <c r="I383" s="17"/>
-      <c r="J383" s="17"/>
-      <c r="K383" s="17"/>
-      <c r="L383" s="17"/>
-      <c r="M383" s="17"/>
-      <c r="N383" s="17"/>
-      <c r="O383" s="17"/>
+      <c r="A383" s="18"/>
+      <c r="B383" s="18"/>
+      <c r="C383" s="18"/>
+      <c r="D383" s="18"/>
+      <c r="E383" s="18"/>
+      <c r="F383" s="18"/>
+      <c r="G383" s="18"/>
+      <c r="H383" s="18"/>
+      <c r="I383" s="18"/>
+      <c r="J383" s="18"/>
+      <c r="K383" s="18"/>
+      <c r="L383" s="18"/>
+      <c r="M383" s="18"/>
+      <c r="N383" s="18"/>
+      <c r="O383" s="18"/>
     </row>
     <row r="384" spans="1:15">
-      <c r="A384" s="17"/>
-      <c r="B384" s="17"/>
-      <c r="C384" s="17"/>
-      <c r="D384" s="17"/>
-      <c r="E384" s="17"/>
-      <c r="F384" s="17"/>
-      <c r="G384" s="17"/>
-      <c r="H384" s="17"/>
-      <c r="I384" s="17"/>
-      <c r="J384" s="17"/>
-      <c r="K384" s="17"/>
-      <c r="L384" s="17"/>
-      <c r="M384" s="17"/>
-      <c r="N384" s="17"/>
-      <c r="O384" s="17"/>
+      <c r="A384" s="18"/>
+      <c r="B384" s="18"/>
+      <c r="C384" s="18"/>
+      <c r="D384" s="18"/>
+      <c r="E384" s="18"/>
+      <c r="F384" s="18"/>
+      <c r="G384" s="18"/>
+      <c r="H384" s="18"/>
+      <c r="I384" s="18"/>
+      <c r="J384" s="18"/>
+      <c r="K384" s="18"/>
+      <c r="L384" s="18"/>
+      <c r="M384" s="18"/>
+      <c r="N384" s="18"/>
+      <c r="O384" s="18"/>
     </row>
     <row r="385" spans="1:15">
-      <c r="A385" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-      <c r="D385" s="1"/>
-      <c r="E385" s="1"/>
-      <c r="F385" s="1"/>
-      <c r="G385" s="1"/>
-      <c r="H385" s="1"/>
-      <c r="I385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="1"/>
-      <c r="L385" s="1"/>
-      <c r="M385" s="1"/>
-      <c r="N385" s="1"/>
-      <c r="O385" s="1"/>
+      <c r="A385" s="18"/>
+      <c r="B385" s="18"/>
+      <c r="C385" s="18"/>
+      <c r="D385" s="18"/>
+      <c r="E385" s="18"/>
+      <c r="F385" s="18"/>
+      <c r="G385" s="18"/>
+      <c r="H385" s="18"/>
+      <c r="I385" s="18"/>
+      <c r="J385" s="18"/>
+      <c r="K385" s="18"/>
+      <c r="L385" s="18"/>
+      <c r="M385" s="18"/>
+      <c r="N385" s="18"/>
+      <c r="O385" s="18"/>
     </row>
     <row r="386" spans="1:15">
-      <c r="A386" s="1"/>
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
-      <c r="D386" s="1"/>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-      <c r="I386" s="1"/>
-      <c r="J386" s="1"/>
-      <c r="K386" s="1"/>
-      <c r="L386" s="1"/>
-      <c r="M386" s="1"/>
-      <c r="N386" s="1"/>
-      <c r="O386" s="1"/>
+      <c r="A386" s="18"/>
+      <c r="B386" s="18"/>
+      <c r="C386" s="18"/>
+      <c r="D386" s="18"/>
+      <c r="E386" s="18"/>
+      <c r="F386" s="18"/>
+      <c r="G386" s="18"/>
+      <c r="H386" s="18"/>
+      <c r="I386" s="18"/>
+      <c r="J386" s="18"/>
+      <c r="K386" s="18"/>
+      <c r="L386" s="18"/>
+      <c r="M386" s="18"/>
+      <c r="N386" s="18"/>
+      <c r="O386" s="18"/>
     </row>
     <row r="387" spans="1:15">
-      <c r="A387" s="2" t="s">
+      <c r="A387" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="H387" s="1"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+      <c r="M387" s="1"/>
+      <c r="N387" s="1"/>
+      <c r="O387" s="1"/>
+    </row>
+    <row r="388" spans="1:15">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+    </row>
+    <row r="389" spans="1:15">
+      <c r="A389" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-      <c r="E387" s="2" t="s">
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F387" s="2" t="s">
+      <c r="F389" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G387" s="2"/>
-      <c r="H387" s="2" t="s">
+      <c r="G389" s="2"/>
+      <c r="H389" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I387" s="2"/>
-      <c r="J387" s="2"/>
-      <c r="K387" s="2" t="s">
+      <c r="I389" s="2"/>
+      <c r="J389" s="2"/>
+      <c r="K389" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L387" s="2"/>
-      <c r="M387" s="2"/>
-      <c r="N387" s="2"/>
-      <c r="O387" s="2"/>
-    </row>
-    <row r="388" spans="1:15">
-      <c r="A388" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B388" s="3"/>
-      <c r="C388" s="3"/>
-      <c r="D388" s="3"/>
-      <c r="E388" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F388" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G388" s="3"/>
-      <c r="H388" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I388" s="3"/>
-      <c r="J388" s="3"/>
-      <c r="K388" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L388" s="3"/>
-      <c r="M388" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N388" s="3"/>
-      <c r="O388" s="3"/>
-    </row>
-    <row r="389" spans="1:15">
-      <c r="A389" s="3"/>
-      <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G389" s="3"/>
-      <c r="H389" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I389" s="3"/>
-      <c r="J389" s="3"/>
-      <c r="K389" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L389" s="3"/>
-      <c r="M389" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N389" s="3"/>
-      <c r="O389" s="3"/>
+      <c r="L389" s="2"/>
+      <c r="M389" s="2"/>
+      <c r="N389" s="2"/>
+      <c r="O389" s="2"/>
     </row>
     <row r="390" spans="1:15">
-      <c r="A390" s="3"/>
+      <c r="A390" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
+      <c r="E390" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F390" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G390" s="3"/>
       <c r="H390" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I390" s="3"/>
       <c r="J390" s="3"/>
       <c r="K390" s="3" t="s">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="L390" s="3"/>
-      <c r="M390" s="3"/>
+      <c r="M390" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="N390" s="3"/>
       <c r="O390" s="3"/>
     </row>
@@ -6460,56 +6470,62 @@
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="G391" s="3"/>
       <c r="H391" s="3" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="I391" s="3"/>
       <c r="J391" s="3"/>
       <c r="K391" s="3" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="L391" s="3"/>
       <c r="M391" s="3" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="N391" s="3"/>
       <c r="O391" s="3"/>
     </row>
     <row r="392" spans="1:15">
-      <c r="A392" s="4"/>
-      <c r="B392" s="4"/>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
-      <c r="F392" s="4"/>
-      <c r="G392" s="4"/>
-      <c r="H392" s="4"/>
-      <c r="I392" s="4"/>
-      <c r="J392" s="4"/>
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="3"/>
+      <c r="E392" s="3"/>
+      <c r="F392" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G392" s="3"/>
+      <c r="H392" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I392" s="3"/>
+      <c r="J392" s="3"/>
       <c r="K392" s="3" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="L392" s="3"/>
-      <c r="M392" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="M392" s="3"/>
       <c r="N392" s="3"/>
       <c r="O392" s="3"/>
     </row>
     <row r="393" spans="1:15">
-      <c r="A393" s="4"/>
-      <c r="B393" s="4"/>
-      <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
-      <c r="F393" s="4"/>
-      <c r="G393" s="4"/>
-      <c r="H393" s="4"/>
-      <c r="I393" s="4"/>
-      <c r="J393" s="4"/>
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
+      <c r="E393" s="3"/>
+      <c r="F393" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G393" s="3"/>
+      <c r="H393" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I393" s="3"/>
+      <c r="J393" s="3"/>
       <c r="K393" s="3" t="s">
         <v>170</v>
       </c>
@@ -6532,11 +6548,11 @@
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="3" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="L394" s="3"/>
       <c r="M394" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N394" s="3"/>
       <c r="O394" s="3"/>
@@ -6553,11 +6569,11 @@
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L395" s="3"/>
       <c r="M395" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N395" s="3"/>
       <c r="O395" s="3"/>
@@ -6574,17 +6590,59 @@
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L396" s="3"/>
       <c r="M396" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N396" s="3"/>
       <c r="O396" s="3"/>
     </row>
+    <row r="397" spans="1:15">
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="4"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
+      <c r="H397" s="4"/>
+      <c r="I397" s="4"/>
+      <c r="J397" s="4"/>
+      <c r="K397" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L397" s="3"/>
+      <c r="M397" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N397" s="3"/>
+      <c r="O397" s="3"/>
+    </row>
+    <row r="398" spans="1:15">
+      <c r="A398" s="4"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
+      <c r="H398" s="4"/>
+      <c r="I398" s="4"/>
+      <c r="J398" s="4"/>
+      <c r="K398" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L398" s="3"/>
+      <c r="M398" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N398" s="3"/>
+      <c r="O398" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="638">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -6678,15 +6736,13 @@
     <mergeCell ref="M60:O60"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="M61:O61"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:O76"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:O62"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:O77"/>
+    <mergeCell ref="K77:O77"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H78:J78"/>
     <mergeCell ref="K78:L78"/>
@@ -6697,11 +6753,11 @@
     <mergeCell ref="M79:O79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="H80:J80"/>
-    <mergeCell ref="K80:O80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="M80:O80"/>
     <mergeCell ref="F81:G81"/>
     <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="M81:O81"/>
+    <mergeCell ref="K81:O81"/>
     <mergeCell ref="F82:G82"/>
     <mergeCell ref="H82:J82"/>
     <mergeCell ref="K82:L82"/>
@@ -6710,8 +6766,12 @@
     <mergeCell ref="H83:J83"/>
     <mergeCell ref="K83:L83"/>
     <mergeCell ref="M83:O83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:J84"/>
     <mergeCell ref="K84:L84"/>
     <mergeCell ref="M84:O84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:J85"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="M85:O85"/>
     <mergeCell ref="K86:L86"/>
@@ -6726,26 +6786,24 @@
     <mergeCell ref="M90:O90"/>
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="M91:O91"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:O106"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="M92:O92"/>
     <mergeCell ref="A107:D107"/>
     <mergeCell ref="F107:G107"/>
     <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="K107:O107"/>
+    <mergeCell ref="A108:D108"/>
     <mergeCell ref="F108:G108"/>
     <mergeCell ref="H108:J108"/>
     <mergeCell ref="K108:L108"/>
     <mergeCell ref="M108:O108"/>
     <mergeCell ref="F109:G109"/>
     <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:O109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="M109:O109"/>
     <mergeCell ref="F110:G110"/>
     <mergeCell ref="H110:J110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="K110:O110"/>
     <mergeCell ref="F111:G111"/>
     <mergeCell ref="H111:J111"/>
     <mergeCell ref="K111:L111"/>
@@ -6754,16 +6812,17 @@
     <mergeCell ref="H112:J112"/>
     <mergeCell ref="K112:L112"/>
     <mergeCell ref="M112:O112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:J113"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:J114"/>
     <mergeCell ref="K114:L114"/>
     <mergeCell ref="M114:O114"/>
     <mergeCell ref="F115:G115"/>
     <mergeCell ref="H115:J115"/>
     <mergeCell ref="K115:L115"/>
     <mergeCell ref="M115:O115"/>
+    <mergeCell ref="F116:G116"/>
     <mergeCell ref="H116:J116"/>
     <mergeCell ref="K116:L116"/>
     <mergeCell ref="M116:O116"/>
@@ -6776,6 +6835,7 @@
     <mergeCell ref="H119:J119"/>
     <mergeCell ref="K119:L119"/>
     <mergeCell ref="M119:O119"/>
+    <mergeCell ref="H120:J120"/>
     <mergeCell ref="K120:L120"/>
     <mergeCell ref="M120:O120"/>
     <mergeCell ref="K121:L121"/>
@@ -6788,65 +6848,65 @@
     <mergeCell ref="M124:O124"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="M125:O125"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:O148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:O149"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="A150:D150"/>
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="K150:O150"/>
+    <mergeCell ref="A151:D151"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="K151:O151"/>
     <mergeCell ref="F152:G152"/>
     <mergeCell ref="H152:J152"/>
     <mergeCell ref="K152:L152"/>
     <mergeCell ref="M152:O152"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="H172:J172"/>
-    <mergeCell ref="K172:O172"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="M173:O173"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:O153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:O154"/>
+    <mergeCell ref="A174:D174"/>
     <mergeCell ref="F174:G174"/>
     <mergeCell ref="H174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:O174"/>
+    <mergeCell ref="K174:O174"/>
+    <mergeCell ref="A175:D175"/>
     <mergeCell ref="F175:G175"/>
     <mergeCell ref="H175:J175"/>
     <mergeCell ref="K175:L175"/>
     <mergeCell ref="M175:O175"/>
     <mergeCell ref="F176:G176"/>
     <mergeCell ref="H176:J176"/>
-    <mergeCell ref="K176:O176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:O176"/>
     <mergeCell ref="F177:G177"/>
     <mergeCell ref="H177:J177"/>
     <mergeCell ref="K177:L177"/>
     <mergeCell ref="M177:O177"/>
     <mergeCell ref="F178:G178"/>
     <mergeCell ref="H178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="M178:O178"/>
+    <mergeCell ref="K178:O178"/>
+    <mergeCell ref="F179:G179"/>
     <mergeCell ref="H179:J179"/>
     <mergeCell ref="K179:L179"/>
     <mergeCell ref="M179:O179"/>
+    <mergeCell ref="F180:G180"/>
     <mergeCell ref="H180:J180"/>
     <mergeCell ref="K180:L180"/>
     <mergeCell ref="M180:O180"/>
     <mergeCell ref="H181:J181"/>
     <mergeCell ref="K181:L181"/>
     <mergeCell ref="M181:O181"/>
+    <mergeCell ref="H182:J182"/>
     <mergeCell ref="K182:L182"/>
     <mergeCell ref="M182:O182"/>
+    <mergeCell ref="H183:J183"/>
     <mergeCell ref="K183:L183"/>
     <mergeCell ref="M183:O183"/>
     <mergeCell ref="K184:L184"/>
@@ -6861,45 +6921,45 @@
     <mergeCell ref="M188:O188"/>
     <mergeCell ref="K189:L189"/>
     <mergeCell ref="M189:O189"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="H211:J211"/>
-    <mergeCell ref="K211:O211"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="H212:J212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="M212:O212"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:O190"/>
+    <mergeCell ref="K191:L191"/>
+    <mergeCell ref="M191:O191"/>
+    <mergeCell ref="A213:D213"/>
     <mergeCell ref="F213:G213"/>
     <mergeCell ref="H213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="M213:O213"/>
+    <mergeCell ref="K213:O213"/>
+    <mergeCell ref="A214:D214"/>
     <mergeCell ref="F214:G214"/>
     <mergeCell ref="H214:J214"/>
     <mergeCell ref="K214:L214"/>
     <mergeCell ref="M214:O214"/>
     <mergeCell ref="F215:G215"/>
     <mergeCell ref="H215:J215"/>
-    <mergeCell ref="K215:O215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="M215:O215"/>
     <mergeCell ref="F216:G216"/>
     <mergeCell ref="H216:J216"/>
     <mergeCell ref="K216:L216"/>
     <mergeCell ref="M216:O216"/>
     <mergeCell ref="F217:G217"/>
     <mergeCell ref="H217:J217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="M217:O217"/>
+    <mergeCell ref="K217:O217"/>
+    <mergeCell ref="F218:G218"/>
     <mergeCell ref="H218:J218"/>
     <mergeCell ref="K218:L218"/>
     <mergeCell ref="M218:O218"/>
+    <mergeCell ref="F219:G219"/>
     <mergeCell ref="H219:J219"/>
     <mergeCell ref="K219:L219"/>
     <mergeCell ref="M219:O219"/>
     <mergeCell ref="H220:J220"/>
     <mergeCell ref="K220:L220"/>
     <mergeCell ref="M220:O220"/>
+    <mergeCell ref="H221:J221"/>
     <mergeCell ref="K221:L221"/>
     <mergeCell ref="M221:O221"/>
+    <mergeCell ref="H222:J222"/>
     <mergeCell ref="K222:L222"/>
     <mergeCell ref="M222:O222"/>
     <mergeCell ref="K223:L223"/>
@@ -6914,34 +6974,30 @@
     <mergeCell ref="M227:O227"/>
     <mergeCell ref="K228:L228"/>
     <mergeCell ref="M228:O228"/>
-    <mergeCell ref="A249:D249"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="H249:J249"/>
-    <mergeCell ref="K249:O249"/>
-    <mergeCell ref="A250:D250"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="H250:J250"/>
-    <mergeCell ref="K250:L250"/>
-    <mergeCell ref="M250:O250"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="M229:O229"/>
+    <mergeCell ref="K230:L230"/>
+    <mergeCell ref="M230:O230"/>
+    <mergeCell ref="A251:D251"/>
     <mergeCell ref="F251:G251"/>
     <mergeCell ref="H251:J251"/>
-    <mergeCell ref="K251:L251"/>
-    <mergeCell ref="M251:O251"/>
+    <mergeCell ref="K251:O251"/>
+    <mergeCell ref="A252:D252"/>
     <mergeCell ref="F252:G252"/>
     <mergeCell ref="H252:J252"/>
     <mergeCell ref="K252:L252"/>
     <mergeCell ref="M252:O252"/>
     <mergeCell ref="F253:G253"/>
     <mergeCell ref="H253:J253"/>
-    <mergeCell ref="K253:O253"/>
+    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="M253:O253"/>
     <mergeCell ref="F254:G254"/>
     <mergeCell ref="H254:J254"/>
     <mergeCell ref="K254:L254"/>
     <mergeCell ref="M254:O254"/>
     <mergeCell ref="F255:G255"/>
     <mergeCell ref="H255:J255"/>
-    <mergeCell ref="K255:L255"/>
-    <mergeCell ref="M255:O255"/>
+    <mergeCell ref="K255:O255"/>
     <mergeCell ref="F256:G256"/>
     <mergeCell ref="H256:J256"/>
     <mergeCell ref="K256:L256"/>
@@ -6990,30 +7046,30 @@
     <mergeCell ref="H267:J267"/>
     <mergeCell ref="K267:L267"/>
     <mergeCell ref="M267:O267"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:J279"/>
-    <mergeCell ref="K279:O279"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="F280:G280"/>
-    <mergeCell ref="H280:J280"/>
-    <mergeCell ref="K280:L280"/>
-    <mergeCell ref="M280:O280"/>
+    <mergeCell ref="F268:G268"/>
+    <mergeCell ref="H268:J268"/>
+    <mergeCell ref="K268:L268"/>
+    <mergeCell ref="M268:O268"/>
+    <mergeCell ref="F269:G269"/>
+    <mergeCell ref="H269:J269"/>
+    <mergeCell ref="K269:L269"/>
+    <mergeCell ref="M269:O269"/>
+    <mergeCell ref="A281:D281"/>
     <mergeCell ref="F281:G281"/>
     <mergeCell ref="H281:J281"/>
-    <mergeCell ref="K281:L281"/>
-    <mergeCell ref="M281:O281"/>
+    <mergeCell ref="K281:O281"/>
+    <mergeCell ref="A282:D282"/>
     <mergeCell ref="F282:G282"/>
     <mergeCell ref="H282:J282"/>
-    <mergeCell ref="K282:O282"/>
+    <mergeCell ref="K282:L282"/>
+    <mergeCell ref="M282:O282"/>
     <mergeCell ref="F283:G283"/>
     <mergeCell ref="H283:J283"/>
     <mergeCell ref="K283:L283"/>
     <mergeCell ref="M283:O283"/>
     <mergeCell ref="F284:G284"/>
     <mergeCell ref="H284:J284"/>
-    <mergeCell ref="K284:L284"/>
-    <mergeCell ref="M284:O284"/>
+    <mergeCell ref="K284:O284"/>
     <mergeCell ref="F285:G285"/>
     <mergeCell ref="H285:J285"/>
     <mergeCell ref="K285:L285"/>
@@ -7062,64 +7118,64 @@
     <mergeCell ref="H296:J296"/>
     <mergeCell ref="K296:L296"/>
     <mergeCell ref="M296:O296"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="H308:J308"/>
-    <mergeCell ref="K308:O308"/>
-    <mergeCell ref="A309:D309"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="H309:J309"/>
-    <mergeCell ref="K309:L309"/>
-    <mergeCell ref="M309:O309"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:J297"/>
+    <mergeCell ref="K297:L297"/>
+    <mergeCell ref="M297:O297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="H298:J298"/>
+    <mergeCell ref="K298:L298"/>
+    <mergeCell ref="M298:O298"/>
+    <mergeCell ref="A310:D310"/>
     <mergeCell ref="F310:G310"/>
     <mergeCell ref="H310:J310"/>
-    <mergeCell ref="K310:L310"/>
-    <mergeCell ref="M310:O310"/>
+    <mergeCell ref="K310:O310"/>
+    <mergeCell ref="A311:D311"/>
     <mergeCell ref="F311:G311"/>
     <mergeCell ref="H311:J311"/>
     <mergeCell ref="K311:L311"/>
     <mergeCell ref="M311:O311"/>
     <mergeCell ref="F312:G312"/>
     <mergeCell ref="H312:J312"/>
-    <mergeCell ref="K312:O312"/>
+    <mergeCell ref="K312:L312"/>
+    <mergeCell ref="M312:O312"/>
     <mergeCell ref="F313:G313"/>
     <mergeCell ref="H313:J313"/>
     <mergeCell ref="K313:L313"/>
     <mergeCell ref="M313:O313"/>
     <mergeCell ref="F314:G314"/>
     <mergeCell ref="H314:J314"/>
-    <mergeCell ref="K314:L314"/>
-    <mergeCell ref="M314:O314"/>
+    <mergeCell ref="K314:O314"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="H315:J315"/>
     <mergeCell ref="K315:L315"/>
     <mergeCell ref="M315:O315"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="H335:J335"/>
-    <mergeCell ref="K335:O335"/>
-    <mergeCell ref="A336:D336"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="H336:J336"/>
-    <mergeCell ref="K336:L336"/>
-    <mergeCell ref="M336:O336"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="H316:J316"/>
+    <mergeCell ref="K316:L316"/>
+    <mergeCell ref="M316:O316"/>
+    <mergeCell ref="K317:L317"/>
+    <mergeCell ref="M317:O317"/>
+    <mergeCell ref="A337:D337"/>
     <mergeCell ref="F337:G337"/>
     <mergeCell ref="H337:J337"/>
-    <mergeCell ref="K337:L337"/>
-    <mergeCell ref="M337:O337"/>
+    <mergeCell ref="K337:O337"/>
+    <mergeCell ref="A338:D338"/>
     <mergeCell ref="F338:G338"/>
     <mergeCell ref="H338:J338"/>
     <mergeCell ref="K338:L338"/>
     <mergeCell ref="M338:O338"/>
     <mergeCell ref="F339:G339"/>
     <mergeCell ref="H339:J339"/>
-    <mergeCell ref="K339:O339"/>
+    <mergeCell ref="K339:L339"/>
+    <mergeCell ref="M339:O339"/>
     <mergeCell ref="F340:G340"/>
     <mergeCell ref="H340:J340"/>
     <mergeCell ref="K340:L340"/>
     <mergeCell ref="M340:O340"/>
     <mergeCell ref="F341:G341"/>
     <mergeCell ref="H341:J341"/>
-    <mergeCell ref="K341:L341"/>
-    <mergeCell ref="M341:O341"/>
+    <mergeCell ref="K341:O341"/>
     <mergeCell ref="F342:G342"/>
     <mergeCell ref="H342:J342"/>
     <mergeCell ref="K342:L342"/>
@@ -7132,34 +7188,34 @@
     <mergeCell ref="H344:J344"/>
     <mergeCell ref="K344:L344"/>
     <mergeCell ref="M344:O344"/>
-    <mergeCell ref="A362:D362"/>
-    <mergeCell ref="F362:G362"/>
-    <mergeCell ref="H362:J362"/>
-    <mergeCell ref="K362:O362"/>
-    <mergeCell ref="A363:D363"/>
-    <mergeCell ref="F363:G363"/>
-    <mergeCell ref="H363:J363"/>
-    <mergeCell ref="K363:L363"/>
-    <mergeCell ref="M363:O363"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="H345:J345"/>
+    <mergeCell ref="K345:L345"/>
+    <mergeCell ref="M345:O345"/>
+    <mergeCell ref="F346:G346"/>
+    <mergeCell ref="H346:J346"/>
+    <mergeCell ref="K346:L346"/>
+    <mergeCell ref="M346:O346"/>
+    <mergeCell ref="A364:D364"/>
     <mergeCell ref="F364:G364"/>
     <mergeCell ref="H364:J364"/>
-    <mergeCell ref="K364:L364"/>
-    <mergeCell ref="M364:O364"/>
+    <mergeCell ref="K364:O364"/>
+    <mergeCell ref="A365:D365"/>
     <mergeCell ref="F365:G365"/>
     <mergeCell ref="H365:J365"/>
     <mergeCell ref="K365:L365"/>
     <mergeCell ref="M365:O365"/>
     <mergeCell ref="F366:G366"/>
     <mergeCell ref="H366:J366"/>
-    <mergeCell ref="K366:O366"/>
+    <mergeCell ref="K366:L366"/>
+    <mergeCell ref="M366:O366"/>
     <mergeCell ref="F367:G367"/>
     <mergeCell ref="H367:J367"/>
     <mergeCell ref="K367:L367"/>
     <mergeCell ref="M367:O367"/>
     <mergeCell ref="F368:G368"/>
     <mergeCell ref="H368:J368"/>
-    <mergeCell ref="K368:L368"/>
-    <mergeCell ref="M368:O368"/>
+    <mergeCell ref="K368:O368"/>
     <mergeCell ref="F369:G369"/>
     <mergeCell ref="H369:J369"/>
     <mergeCell ref="K369:L369"/>
@@ -7168,32 +7224,36 @@
     <mergeCell ref="H370:J370"/>
     <mergeCell ref="K370:L370"/>
     <mergeCell ref="M370:O370"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="H371:J371"/>
     <mergeCell ref="K371:L371"/>
     <mergeCell ref="M371:O371"/>
+    <mergeCell ref="F372:G372"/>
+    <mergeCell ref="H372:J372"/>
     <mergeCell ref="K372:L372"/>
     <mergeCell ref="M372:O372"/>
-    <mergeCell ref="A387:D387"/>
-    <mergeCell ref="F387:G387"/>
-    <mergeCell ref="H387:J387"/>
-    <mergeCell ref="K387:O387"/>
-    <mergeCell ref="A388:D388"/>
-    <mergeCell ref="F388:G388"/>
-    <mergeCell ref="H388:J388"/>
-    <mergeCell ref="K388:L388"/>
-    <mergeCell ref="M388:O388"/>
+    <mergeCell ref="K373:L373"/>
+    <mergeCell ref="M373:O373"/>
+    <mergeCell ref="K374:L374"/>
+    <mergeCell ref="M374:O374"/>
+    <mergeCell ref="A389:D389"/>
     <mergeCell ref="F389:G389"/>
     <mergeCell ref="H389:J389"/>
-    <mergeCell ref="K389:L389"/>
-    <mergeCell ref="M389:O389"/>
+    <mergeCell ref="K389:O389"/>
+    <mergeCell ref="A390:D390"/>
     <mergeCell ref="F390:G390"/>
     <mergeCell ref="H390:J390"/>
-    <mergeCell ref="K390:O390"/>
+    <mergeCell ref="K390:L390"/>
+    <mergeCell ref="M390:O390"/>
     <mergeCell ref="F391:G391"/>
     <mergeCell ref="H391:J391"/>
     <mergeCell ref="K391:L391"/>
     <mergeCell ref="M391:O391"/>
-    <mergeCell ref="K392:L392"/>
-    <mergeCell ref="M392:O392"/>
+    <mergeCell ref="F392:G392"/>
+    <mergeCell ref="H392:J392"/>
+    <mergeCell ref="K392:O392"/>
+    <mergeCell ref="F393:G393"/>
+    <mergeCell ref="H393:J393"/>
     <mergeCell ref="K393:L393"/>
     <mergeCell ref="M393:O393"/>
     <mergeCell ref="K394:L394"/>
@@ -7202,21 +7262,25 @@
     <mergeCell ref="M395:O395"/>
     <mergeCell ref="K396:L396"/>
     <mergeCell ref="M396:O396"/>
+    <mergeCell ref="K397:L397"/>
+    <mergeCell ref="M397:O397"/>
+    <mergeCell ref="K398:L398"/>
+    <mergeCell ref="M398:O398"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A23:O24"/>
     <mergeCell ref="A44:O45"/>
-    <mergeCell ref="A74:O75"/>
-    <mergeCell ref="A104:O105"/>
-    <mergeCell ref="A146:O147"/>
-    <mergeCell ref="A170:O171"/>
-    <mergeCell ref="A209:O210"/>
-    <mergeCell ref="A247:O248"/>
     <mergeCell ref="P23:R30"/>
-    <mergeCell ref="A277:O278"/>
-    <mergeCell ref="A360:O361"/>
-    <mergeCell ref="A306:O307"/>
-    <mergeCell ref="A333:O334"/>
-    <mergeCell ref="A385:O386"/>
+    <mergeCell ref="A75:O76"/>
+    <mergeCell ref="A105:O106"/>
+    <mergeCell ref="A148:O149"/>
+    <mergeCell ref="A172:O173"/>
+    <mergeCell ref="A211:O212"/>
+    <mergeCell ref="A249:O250"/>
+    <mergeCell ref="A279:O280"/>
+    <mergeCell ref="A362:O363"/>
+    <mergeCell ref="A308:O309"/>
+    <mergeCell ref="A335:O336"/>
+    <mergeCell ref="A387:O388"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/客户资源.xlsx
+++ b/需求分析/接口文档/客户/客户资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="18855" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="客户资源" sheetId="1" r:id="rId1"/>
@@ -655,9 +655,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,33 +709,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,26 +738,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,17 +761,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,16 +777,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,19 +854,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,13 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,91 +986,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,6 +1015,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1059,24 +1083,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,26 +1115,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1123,10 +1123,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,91 +1135,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,10 +1228,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,28 +1240,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1670,8 +1670,8 @@
   <sheetPr/>
   <dimension ref="A1:R425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:O68"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="L439" sqref="L439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/客户资源.xlsx
+++ b/需求分析/接口文档/客户/客户资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="9705"/>
+    <workbookView windowWidth="22290" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="客户资源" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -167,6 +167,9 @@
     <t>pageSize</t>
   </si>
   <si>
+    <t>每页显示数量</t>
+  </si>
+  <si>
     <t>customerType</t>
   </si>
   <si>
@@ -245,9 +248,6 @@
     <t>总页数</t>
   </si>
   <si>
-    <t>每页显示数量</t>
-  </si>
-  <si>
     <t>客户类型(选填)</t>
   </si>
   <si>
@@ -606,6 +606,21 @@
   </si>
   <si>
     <t>/s/getVisitCustomerFollow.action</t>
+  </si>
+  <si>
+    <t>搜索当前部门下的客户</t>
+  </si>
+  <si>
+    <t>keyword 可以是电话号码或姓名，电话号码要输入完整才能搜索出结果</t>
+  </si>
+  <si>
+    <t>/s/listVisitCustomerByKeyword.action</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>搜索关键字</t>
   </si>
 </sst>
 </file>
@@ -613,10 +628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -655,6 +670,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -663,8 +699,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,16 +730,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,36 +766,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,25 +792,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,7 +806,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,7 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,13 +911,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +947,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,55 +983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,13 +1007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,13 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,6 +1040,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1028,6 +1079,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1051,36 +1117,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1100,21 +1136,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1123,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1135,10 +1156,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,79 +1168,79 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,10 +1249,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,32 +1261,32 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1340,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1668,13 +1692,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R425"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="L439" sqref="L439"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="H442" sqref="H442:J442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -2428,16 +2455,16 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -2454,11 +2481,11 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -2479,7 +2506,7 @@
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -2496,11 +2523,11 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -2517,11 +2544,11 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -2538,11 +2565,11 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -2559,11 +2586,11 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -2580,11 +2607,11 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -2601,11 +2628,11 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -2622,11 +2649,11 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -2643,18 +2670,18 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2717,7 +2744,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2739,7 +2766,7 @@
       </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -2785,11 +2812,11 @@
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -2828,7 +2855,7 @@
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -2849,7 +2876,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
@@ -2858,11 +2885,11 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -2874,7 +2901,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
@@ -2883,11 +2910,11 @@
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -2910,7 +2937,7 @@
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -2931,11 +2958,11 @@
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
@@ -2952,11 +2979,11 @@
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L104" s="3"/>
       <c r="M104" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -2973,11 +3000,11 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L105" s="3"/>
       <c r="M105" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
@@ -2994,11 +3021,11 @@
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L106" s="3"/>
       <c r="M106" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -3015,11 +3042,11 @@
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -3036,11 +3063,11 @@
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -3057,11 +3084,11 @@
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
@@ -3078,11 +3105,11 @@
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -3174,7 +3201,7 @@
       </c>
       <c r="L135" s="3"/>
       <c r="M135" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -3243,11 +3270,11 @@
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L138" s="3"/>
       <c r="M138" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
@@ -3264,11 +3291,11 @@
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L139" s="3"/>
       <c r="M139" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -3289,7 +3316,7 @@
       </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -3306,11 +3333,11 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L141" s="3"/>
       <c r="M141" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
@@ -3327,11 +3354,11 @@
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L142" s="3"/>
       <c r="M142" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
@@ -3348,11 +3375,11 @@
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L143" s="3"/>
       <c r="M143" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
@@ -3369,11 +3396,11 @@
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L144" s="3"/>
       <c r="M144" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
@@ -3390,11 +3417,11 @@
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L145" s="3"/>
       <c r="M145" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
@@ -3411,11 +3438,11 @@
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L146" s="3"/>
       <c r="M146" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
@@ -3432,11 +3459,11 @@
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L147" s="3"/>
       <c r="M147" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
@@ -3579,11 +3606,11 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
@@ -3828,7 +3855,7 @@
       </c>
       <c r="L202" s="3"/>
       <c r="M202" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
@@ -3874,11 +3901,11 @@
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L204" s="11"/>
       <c r="M204" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
@@ -3942,7 +3969,7 @@
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
@@ -4274,7 +4301,7 @@
       </c>
       <c r="L241" s="3"/>
       <c r="M241" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
@@ -4320,11 +4347,11 @@
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
       <c r="K243" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L243" s="11"/>
       <c r="M243" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
@@ -4712,7 +4739,7 @@
       </c>
       <c r="L279" s="3"/>
       <c r="M279" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>
@@ -4758,11 +4785,11 @@
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
       <c r="K281" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L281" s="11"/>
       <c r="M281" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N281" s="11"/>
       <c r="O281" s="11"/>
@@ -4826,7 +4853,7 @@
       </c>
       <c r="G284" s="3"/>
       <c r="H284" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
@@ -5179,7 +5206,7 @@
       </c>
       <c r="L309" s="3"/>
       <c r="M309" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N309" s="3"/>
       <c r="O309" s="3"/>
@@ -5617,7 +5644,7 @@
       </c>
       <c r="L338" s="3"/>
       <c r="M338" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N338" s="3"/>
       <c r="O338" s="3"/>
@@ -5663,11 +5690,11 @@
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
       <c r="K340" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L340" s="11"/>
       <c r="M340" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N340" s="11"/>
       <c r="O340" s="11"/>
@@ -5731,7 +5758,7 @@
       </c>
       <c r="G343" s="3"/>
       <c r="H343" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
@@ -5761,7 +5788,7 @@
       </c>
       <c r="L344" s="3"/>
       <c r="M344" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>
@@ -5853,7 +5880,7 @@
       </c>
       <c r="L365" s="3"/>
       <c r="M365" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N365" s="3"/>
       <c r="O365" s="3"/>
@@ -5899,11 +5926,11 @@
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
       <c r="K367" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L367" s="11"/>
       <c r="M367" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N367" s="11"/>
       <c r="O367" s="11"/>
@@ -5967,7 +5994,7 @@
       </c>
       <c r="G370" s="3"/>
       <c r="H370" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
@@ -6177,11 +6204,11 @@
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
       <c r="K394" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L394" s="11"/>
       <c r="M394" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N394" s="11"/>
       <c r="O394" s="11"/>
@@ -6245,7 +6272,7 @@
       </c>
       <c r="G397" s="3"/>
       <c r="H397" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
@@ -6817,8 +6844,441 @@
       <c r="N425" s="3"/>
       <c r="O425" s="3"/>
     </row>
+    <row r="438" spans="1:18">
+      <c r="A438" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="1"/>
+      <c r="F438" s="1"/>
+      <c r="G438" s="1"/>
+      <c r="H438" s="1"/>
+      <c r="I438" s="1"/>
+      <c r="J438" s="1"/>
+      <c r="K438" s="1"/>
+      <c r="L438" s="1"/>
+      <c r="M438" s="1"/>
+      <c r="N438" s="1"/>
+      <c r="O438" s="1"/>
+      <c r="P438" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q438" s="18"/>
+      <c r="R438" s="18"/>
+    </row>
+    <row r="439" spans="1:18">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="1"/>
+      <c r="F439" s="1"/>
+      <c r="G439" s="1"/>
+      <c r="H439" s="1"/>
+      <c r="I439" s="1"/>
+      <c r="J439" s="1"/>
+      <c r="K439" s="1"/>
+      <c r="L439" s="1"/>
+      <c r="M439" s="1"/>
+      <c r="N439" s="1"/>
+      <c r="O439" s="1"/>
+      <c r="P439" s="18"/>
+      <c r="Q439" s="18"/>
+      <c r="R439" s="18"/>
+    </row>
+    <row r="440" spans="1:18">
+      <c r="A440" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G440" s="2"/>
+      <c r="H440" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I440" s="2"/>
+      <c r="J440" s="2"/>
+      <c r="K440" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L440" s="2"/>
+      <c r="M440" s="2"/>
+      <c r="N440" s="2"/>
+      <c r="O440" s="2"/>
+      <c r="P440" s="18"/>
+      <c r="Q440" s="18"/>
+      <c r="R440" s="18"/>
+    </row>
+    <row r="441" spans="1:18">
+      <c r="A441" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="3"/>
+      <c r="E441" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G441" s="3"/>
+      <c r="H441" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I441" s="3"/>
+      <c r="J441" s="3"/>
+      <c r="K441" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L441" s="3"/>
+      <c r="M441" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N441" s="3"/>
+      <c r="O441" s="3"/>
+      <c r="P441" s="18"/>
+      <c r="Q441" s="18"/>
+      <c r="R441" s="18"/>
+    </row>
+    <row r="442" spans="1:18">
+      <c r="A442" s="3"/>
+      <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
+      <c r="D442" s="3"/>
+      <c r="E442" s="3"/>
+      <c r="F442" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G442" s="3"/>
+      <c r="H442" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I442" s="3"/>
+      <c r="J442" s="3"/>
+      <c r="K442" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L442" s="3"/>
+      <c r="M442" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N442" s="3"/>
+      <c r="O442" s="3"/>
+      <c r="P442" s="18"/>
+      <c r="Q442" s="18"/>
+      <c r="R442" s="18"/>
+    </row>
+    <row r="443" spans="1:18">
+      <c r="A443" s="3"/>
+      <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
+      <c r="D443" s="3"/>
+      <c r="E443" s="3"/>
+      <c r="F443" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G443" s="3"/>
+      <c r="H443" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I443" s="3"/>
+      <c r="J443" s="3"/>
+      <c r="K443" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L443" s="3"/>
+      <c r="M443" s="3"/>
+      <c r="N443" s="3"/>
+      <c r="O443" s="3"/>
+      <c r="P443" s="18"/>
+      <c r="Q443" s="18"/>
+      <c r="R443" s="18"/>
+    </row>
+    <row r="444" spans="1:18">
+      <c r="A444" s="3"/>
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G444" s="7"/>
+      <c r="H444" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I444" s="7"/>
+      <c r="J444" s="7"/>
+      <c r="K444" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L444" s="3"/>
+      <c r="M444" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N444" s="3"/>
+      <c r="O444" s="3"/>
+      <c r="P444" s="18"/>
+      <c r="Q444" s="18"/>
+      <c r="R444" s="18"/>
+    </row>
+    <row r="445" spans="1:18">
+      <c r="A445" s="4"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
+      <c r="E445" s="4"/>
+      <c r="F445" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G445" s="7"/>
+      <c r="H445" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I445" s="7"/>
+      <c r="J445" s="7"/>
+      <c r="K445" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L445" s="3"/>
+      <c r="M445" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N445" s="3"/>
+      <c r="O445" s="3"/>
+      <c r="P445" s="18"/>
+      <c r="Q445" s="18"/>
+      <c r="R445" s="18"/>
+    </row>
+    <row r="446" spans="1:18">
+      <c r="A446" s="4"/>
+      <c r="B446" s="4"/>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
+      <c r="E446" s="4"/>
+      <c r="F446" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G446" s="3"/>
+      <c r="H446" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I446" s="3"/>
+      <c r="J446" s="3"/>
+      <c r="K446" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L446" s="3"/>
+      <c r="M446" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N446" s="3"/>
+      <c r="O446" s="3"/>
+      <c r="P446" s="18"/>
+      <c r="Q446" s="18"/>
+      <c r="R446" s="18"/>
+    </row>
+    <row r="447" spans="1:15">
+      <c r="A447" s="4"/>
+      <c r="B447" s="4"/>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="E447" s="4"/>
+      <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
+      <c r="H447" s="4"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="4"/>
+      <c r="K447" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L447" s="3"/>
+      <c r="M447" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N447" s="3"/>
+      <c r="O447" s="3"/>
+    </row>
+    <row r="448" spans="1:15">
+      <c r="A448" s="4"/>
+      <c r="B448" s="4"/>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+      <c r="E448" s="4"/>
+      <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
+      <c r="H448" s="4"/>
+      <c r="I448" s="4"/>
+      <c r="J448" s="4"/>
+      <c r="K448" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L448" s="3"/>
+      <c r="M448" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N448" s="3"/>
+      <c r="O448" s="3"/>
+    </row>
+    <row r="449" spans="1:15">
+      <c r="A449" s="4"/>
+      <c r="B449" s="4"/>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
+      <c r="I449" s="4"/>
+      <c r="J449" s="4"/>
+      <c r="K449" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L449" s="3"/>
+      <c r="M449" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N449" s="3"/>
+      <c r="O449" s="3"/>
+    </row>
+    <row r="450" spans="1:15">
+      <c r="A450" s="4"/>
+      <c r="B450" s="4"/>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
+      <c r="H450" s="4"/>
+      <c r="I450" s="4"/>
+      <c r="J450" s="4"/>
+      <c r="K450" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L450" s="3"/>
+      <c r="M450" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N450" s="3"/>
+      <c r="O450" s="3"/>
+    </row>
+    <row r="451" spans="1:15">
+      <c r="A451" s="4"/>
+      <c r="B451" s="4"/>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
+      <c r="H451" s="4"/>
+      <c r="I451" s="4"/>
+      <c r="J451" s="4"/>
+      <c r="K451" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L451" s="3"/>
+      <c r="M451" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N451" s="3"/>
+      <c r="O451" s="3"/>
+    </row>
+    <row r="452" spans="1:15">
+      <c r="A452" s="4"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
+      <c r="H452" s="4"/>
+      <c r="I452" s="4"/>
+      <c r="J452" s="4"/>
+      <c r="K452" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L452" s="3"/>
+      <c r="M452" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N452" s="3"/>
+      <c r="O452" s="3"/>
+    </row>
+    <row r="453" spans="1:15">
+      <c r="A453" s="4"/>
+      <c r="B453" s="4"/>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
+      <c r="H453" s="4"/>
+      <c r="I453" s="4"/>
+      <c r="J453" s="4"/>
+      <c r="K453" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L453" s="3"/>
+      <c r="M453" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N453" s="3"/>
+      <c r="O453" s="3"/>
+    </row>
+    <row r="454" spans="1:15">
+      <c r="A454" s="4"/>
+      <c r="B454" s="4"/>
+      <c r="C454" s="4"/>
+      <c r="D454" s="4"/>
+      <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
+      <c r="H454" s="4"/>
+      <c r="I454" s="4"/>
+      <c r="J454" s="4"/>
+      <c r="K454" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L454" s="3"/>
+      <c r="M454" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N454" s="3"/>
+      <c r="O454" s="3"/>
+    </row>
+    <row r="455" spans="1:15">
+      <c r="A455" s="4"/>
+      <c r="B455" s="4"/>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
+      <c r="H455" s="4"/>
+      <c r="I455" s="4"/>
+      <c r="J455" s="4"/>
+      <c r="K455" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L455" s="3"/>
+      <c r="M455" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N455" s="3"/>
+      <c r="O455" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="655">
+  <mergeCells count="703">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -7458,6 +7918,52 @@
     <mergeCell ref="M424:O424"/>
     <mergeCell ref="K425:L425"/>
     <mergeCell ref="M425:O425"/>
+    <mergeCell ref="A440:D440"/>
+    <mergeCell ref="F440:G440"/>
+    <mergeCell ref="H440:J440"/>
+    <mergeCell ref="K440:O440"/>
+    <mergeCell ref="A441:D441"/>
+    <mergeCell ref="F441:G441"/>
+    <mergeCell ref="H441:J441"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="M441:O441"/>
+    <mergeCell ref="F442:G442"/>
+    <mergeCell ref="H442:J442"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="M442:O442"/>
+    <mergeCell ref="F443:G443"/>
+    <mergeCell ref="H443:J443"/>
+    <mergeCell ref="K443:O443"/>
+    <mergeCell ref="F444:G444"/>
+    <mergeCell ref="H444:J444"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="M444:O444"/>
+    <mergeCell ref="F445:G445"/>
+    <mergeCell ref="H445:J445"/>
+    <mergeCell ref="K445:L445"/>
+    <mergeCell ref="M445:O445"/>
+    <mergeCell ref="F446:G446"/>
+    <mergeCell ref="H446:J446"/>
+    <mergeCell ref="K446:L446"/>
+    <mergeCell ref="M446:O446"/>
+    <mergeCell ref="K447:L447"/>
+    <mergeCell ref="M447:O447"/>
+    <mergeCell ref="K448:L448"/>
+    <mergeCell ref="M448:O448"/>
+    <mergeCell ref="K449:L449"/>
+    <mergeCell ref="M449:O449"/>
+    <mergeCell ref="K450:L450"/>
+    <mergeCell ref="M450:O450"/>
+    <mergeCell ref="K451:L451"/>
+    <mergeCell ref="M451:O451"/>
+    <mergeCell ref="K452:L452"/>
+    <mergeCell ref="M452:O452"/>
+    <mergeCell ref="K453:L453"/>
+    <mergeCell ref="M453:O453"/>
+    <mergeCell ref="K454:L454"/>
+    <mergeCell ref="M454:O454"/>
+    <mergeCell ref="K455:L455"/>
+    <mergeCell ref="M455:O455"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A23:O24"/>
     <mergeCell ref="A44:O45"/>
@@ -7474,6 +7980,8 @@
     <mergeCell ref="A362:O363"/>
     <mergeCell ref="A414:O415"/>
     <mergeCell ref="A67:O68"/>
+    <mergeCell ref="A438:O439"/>
+    <mergeCell ref="P438:R446"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/客户资源.xlsx
+++ b/需求分析/接口文档/客户/客户资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135"/>
+    <workbookView windowWidth="21435" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="客户资源" sheetId="1" r:id="rId1"/>
@@ -152,24 +152,30 @@
     <t>/s/listVisitCurrentCustomer.action</t>
   </si>
   <si>
+    <t>pageCount</t>
+  </si>
+  <si>
+    <t>总页数</t>
+  </si>
+  <si>
     <t>pageNum</t>
   </si>
   <si>
     <t>页数</t>
   </si>
   <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>每页显示数量</t>
+  </si>
+  <si>
     <t>customerId</t>
   </si>
   <si>
     <t>客户Id</t>
   </si>
   <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>每页显示数量</t>
-  </si>
-  <si>
     <t>customerType</t>
   </si>
   <si>
@@ -240,12 +246,6 @@
   </si>
   <si>
     <t>1为成功，2为失败</t>
-  </si>
-  <si>
-    <t>pageCount</t>
-  </si>
-  <si>
-    <t>总页数</t>
   </si>
   <si>
     <t>客户类型(选填)</t>
@@ -628,9 +628,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -670,17 +670,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,8 +686,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,18 +716,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,24 +732,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,19 +747,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,9 +793,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +875,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,37 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,61 +995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,37 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,6 +1036,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1054,17 +1078,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,38 +1128,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,10 +1144,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,16 +1156,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,13 +1177,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,55 +1189,58 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,10 +1249,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,28 +1261,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,10 +1692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="H442" sqref="H442:J442"/>
+    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
+      <selection activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2412,10 +2412,12 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="M72" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
@@ -2426,30 +2428,28 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="L73" s="3"/>
-      <c r="M73" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
       <c r="F74" s="7" t="s">
         <v>38</v>
       </c>
@@ -2475,11 +2475,11 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="3" t="s">
         <v>42</v>
       </c>
@@ -2502,11 +2502,11 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -2523,7 +2523,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
@@ -2679,27 +2679,31 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="1" t="s">
+    <row r="85" spans="1:15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2716,82 +2720,74 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2" t="s">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2" t="s">
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="A95" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="3"/>
+      <c r="A96" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F96" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -2803,69 +2799,69 @@
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7" t="s">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7" t="s">
+      <c r="L98" s="3"/>
+      <c r="M98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
       <c r="F99" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="L99" s="3"/>
-      <c r="M99" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
     </row>
@@ -2876,11 +2872,11 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -2900,15 +2896,15 @@
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
       <c r="K101" s="3" t="s">
         <v>42</v>
       </c>
@@ -2925,19 +2921,21 @@
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
-      <c r="F102" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
+      <c r="F102" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -2948,17 +2946,15 @@
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
-      <c r="F103" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="F103" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="3" t="s">
@@ -2973,11 +2969,15 @@
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="F104" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
       <c r="K104" s="3" t="s">
         <v>47</v>
       </c>
@@ -3114,27 +3114,31 @@
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="132" spans="1:15">
-      <c r="A132" s="1" t="s">
+    <row r="111" spans="1:15">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3151,82 +3155,74 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2" t="s">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2" t="s">
+      <c r="G135" s="2"/>
+      <c r="H135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2" t="s">
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="2"/>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="3" t="s">
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L135" s="3"/>
-      <c r="M135" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F136" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L136" s="3"/>
       <c r="M136" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
@@ -3238,19 +3234,21 @@
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L137" s="3"/>
-      <c r="M137" s="3"/>
+      <c r="M137" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
     </row>
@@ -3261,21 +3259,19 @@
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L138" s="3"/>
-      <c r="M138" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
     </row>
@@ -3285,9 +3281,13 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
@@ -3312,11 +3312,11 @@
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -3333,7 +3333,7 @@
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="L141" s="3"/>
       <c r="M141" s="3" t="s">
@@ -3343,11 +3343,11 @@
       <c r="O141" s="3"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -3390,8 +3390,8 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -3476,15 +3476,15 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
       <c r="K148" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="L148" s="3"/>
       <c r="M148" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
@@ -3501,11 +3501,11 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L149" s="3"/>
       <c r="M149" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
@@ -3522,11 +3522,11 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L150" s="3"/>
       <c r="M150" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
@@ -3543,11 +3543,11 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L151" s="3"/>
       <c r="M151" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
@@ -3564,11 +3564,11 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L152" s="3"/>
       <c r="M152" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
@@ -3585,11 +3585,11 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L153" s="3"/>
       <c r="M153" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
@@ -3606,36 +3606,40 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="175" spans="1:15">
-      <c r="A175" s="1" t="s">
+    <row r="155" spans="1:15">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-    </row>
-    <row r="176" spans="1:15">
-      <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3652,75 +3656,71 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2" t="s">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2" t="s">
+      <c r="G178" s="2"/>
+      <c r="H178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2" t="s">
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-    </row>
-    <row r="178" spans="1:15">
-      <c r="A178" s="3" t="s">
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L178" s="3"/>
-      <c r="M178" s="3"/>
-      <c r="N178" s="3"/>
-      <c r="O178" s="3"/>
-    </row>
-    <row r="179" spans="1:15">
-      <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
+      <c r="E179" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="F179" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="3"/>
+      <c r="K179" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
       <c r="N179" s="3"/>
@@ -3733,11 +3733,11 @@
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
@@ -3754,11 +3754,11 @@
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
@@ -3768,27 +3768,31 @@
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="199" spans="1:15">
-      <c r="A199" s="1" t="s">
+    <row r="182" spans="1:15">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-    </row>
-    <row r="200" spans="1:15">
-      <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -3805,82 +3809,74 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2" t="s">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2" t="s">
+      <c r="G202" s="2"/>
+      <c r="H202" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2" t="s">
+      <c r="I202" s="2"/>
+      <c r="J202" s="2"/>
+      <c r="K202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
-      <c r="O201" s="2"/>
-    </row>
-    <row r="202" spans="1:15">
-      <c r="A202" s="3" t="s">
+      <c r="L202" s="2"/>
+      <c r="M202" s="2"/>
+      <c r="N202" s="2"/>
+      <c r="O202" s="2"/>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I202" s="3"/>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N202" s="3"/>
-      <c r="O202" s="3"/>
-    </row>
-    <row r="203" spans="1:15">
-      <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
+      <c r="E203" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F203" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L203" s="3"/>
       <c r="M203" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
@@ -3892,23 +3888,23 @@
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G204" s="3"/>
       <c r="H204" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L204" s="11"/>
-      <c r="M204" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N204" s="11"/>
-      <c r="O204" s="11"/>
+      <c r="K204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="3"/>
@@ -3917,44 +3913,44 @@
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G205" s="3"/>
       <c r="H205" s="3" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3"/>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
+      <c r="K205" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L205" s="11"/>
+      <c r="M205" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N205" s="11"/>
+      <c r="O205" s="11"/>
     </row>
     <row r="206" spans="1:15">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
       <c r="F206" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="L206" s="3"/>
-      <c r="M206" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="M206" s="3"/>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
     </row>
@@ -3965,20 +3961,20 @@
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L207" s="3"/>
       <c r="M207" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
@@ -3989,17 +3985,21 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-      <c r="H208" s="3"/>
+      <c r="F208" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L208" s="3"/>
       <c r="M208" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
@@ -4016,11 +4016,11 @@
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L209" s="3"/>
       <c r="M209" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
@@ -4037,11 +4037,11 @@
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
       <c r="K210" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L210" s="3"/>
       <c r="M210" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
@@ -4054,15 +4054,15 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
-      <c r="H211" s="4"/>
-      <c r="I211" s="4"/>
-      <c r="J211" s="4"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
       <c r="K211" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L211" s="3"/>
       <c r="M211" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
@@ -4079,11 +4079,11 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L212" s="3"/>
       <c r="M212" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
@@ -4099,15 +4099,15 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
-      <c r="K213" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L213" s="12"/>
-      <c r="M213" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
+      <c r="K213" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="4"/>
@@ -4120,15 +4120,15 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
-      <c r="K214" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L214" s="13"/>
-      <c r="M214" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N214" s="13"/>
-      <c r="O214" s="13"/>
+      <c r="K214" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L214" s="12"/>
+      <c r="M214" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N214" s="12"/>
+      <c r="O214" s="12"/>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="4"/>
@@ -4142,11 +4142,11 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L215" s="13"/>
       <c r="M215" s="13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
@@ -4162,15 +4162,15 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
-      <c r="K216" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L216" s="14"/>
-      <c r="M216" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N216" s="14"/>
-      <c r="O216" s="14"/>
+      <c r="K216" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L216" s="13"/>
+      <c r="M216" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N216" s="13"/>
+      <c r="O216" s="13"/>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="4"/>
@@ -4183,15 +4183,15 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
-      <c r="K217" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L217" s="15"/>
-      <c r="M217" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N217" s="15"/>
-      <c r="O217" s="15"/>
+      <c r="K217" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L217" s="14"/>
+      <c r="M217" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N217" s="14"/>
+      <c r="O217" s="14"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="4"/>
@@ -4205,36 +4205,40 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L218" s="15"/>
       <c r="M218" s="15" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="N218" s="15"/>
       <c r="O218" s="15"/>
     </row>
-    <row r="238" spans="1:15">
-      <c r="A238" s="1" t="s">
+    <row r="219" spans="1:15">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
+      <c r="I219" s="4"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L219" s="15"/>
+      <c r="M219" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N219" s="15"/>
+      <c r="O219" s="15"/>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
-      <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-    </row>
-    <row r="239" spans="1:15">
-      <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -4251,82 +4255,74 @@
       <c r="O239" s="1"/>
     </row>
     <row r="240" spans="1:15">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+    </row>
+    <row r="241" spans="1:15">
+      <c r="A241" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2" t="s">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F240" s="2" t="s">
+      <c r="F241" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2" t="s">
+      <c r="G241" s="2"/>
+      <c r="H241" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2" t="s">
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-    </row>
-    <row r="241" spans="1:15">
-      <c r="A241" s="3" t="s">
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+    </row>
+    <row r="242" spans="1:15">
+      <c r="A242" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N241" s="3"/>
-      <c r="O241" s="3"/>
-    </row>
-    <row r="242" spans="1:15">
-      <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="E242" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F242" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G242" s="3"/>
       <c r="H242" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
       <c r="K242" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L242" s="3"/>
       <c r="M242" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
@@ -4338,23 +4334,23 @@
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G243" s="3"/>
       <c r="H243" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L243" s="11"/>
-      <c r="M243" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N243" s="11"/>
-      <c r="O243" s="11"/>
+      <c r="K243" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="3"/>
@@ -4363,40 +4359,44 @@
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="G244" s="3"/>
       <c r="H244" s="3" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L244" s="3"/>
-      <c r="M244" s="3"/>
-      <c r="N244" s="3"/>
-      <c r="O244" s="3"/>
+      <c r="K244" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N244" s="11"/>
+      <c r="O244" s="11"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4"/>
-      <c r="F245" s="3"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
+      <c r="H245" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="L245" s="3"/>
-      <c r="M245" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="M245" s="3"/>
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
     </row>
@@ -4412,11 +4412,11 @@
       <c r="I246" s="3"/>
       <c r="J246" s="3"/>
       <c r="K246" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L246" s="3"/>
       <c r="M246" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
@@ -4427,17 +4427,17 @@
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
-      <c r="F247" s="4"/>
-      <c r="G247" s="4"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L247" s="3"/>
       <c r="M247" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N247" s="3"/>
       <c r="O247" s="3"/>
@@ -4454,11 +4454,11 @@
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L248" s="3"/>
       <c r="M248" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
@@ -4475,11 +4475,11 @@
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L249" s="3"/>
       <c r="M249" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
@@ -4492,15 +4492,15 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
-      <c r="I250" s="4"/>
-      <c r="J250" s="4"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
       <c r="K250" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L250" s="3"/>
       <c r="M250" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
@@ -4517,11 +4517,11 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
       <c r="K251" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L251" s="3"/>
       <c r="M251" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
@@ -4537,15 +4537,15 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
-      <c r="K252" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="L252" s="12"/>
-      <c r="M252" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N252" s="12"/>
-      <c r="O252" s="12"/>
+      <c r="K252" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="4"/>
@@ -4558,15 +4558,15 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
-      <c r="K253" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L253" s="13"/>
-      <c r="M253" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N253" s="13"/>
-      <c r="O253" s="13"/>
+      <c r="K253" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L253" s="12"/>
+      <c r="M253" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="N253" s="12"/>
+      <c r="O253" s="12"/>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="4"/>
@@ -4580,11 +4580,11 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
       <c r="K254" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L254" s="13"/>
       <c r="M254" s="13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="N254" s="13"/>
       <c r="O254" s="13"/>
@@ -4600,15 +4600,15 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
-      <c r="K255" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L255" s="14"/>
-      <c r="M255" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="N255" s="14"/>
-      <c r="O255" s="14"/>
+      <c r="K255" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L255" s="13"/>
+      <c r="M255" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N255" s="13"/>
+      <c r="O255" s="13"/>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="4"/>
@@ -4621,15 +4621,15 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
-      <c r="K256" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L256" s="15"/>
-      <c r="M256" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N256" s="15"/>
-      <c r="O256" s="15"/>
+      <c r="K256" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L256" s="14"/>
+      <c r="M256" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N256" s="14"/>
+      <c r="O256" s="14"/>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="4"/>
@@ -4643,36 +4643,40 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
       <c r="K257" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L257" s="15"/>
       <c r="M257" s="15" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="N257" s="15"/>
       <c r="O257" s="15"/>
     </row>
-    <row r="276" spans="1:15">
-      <c r="A276" s="1" t="s">
+    <row r="258" spans="1:15">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
+      <c r="I258" s="4"/>
+      <c r="J258" s="4"/>
+      <c r="K258" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L258" s="15"/>
+      <c r="M258" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="N258" s="15"/>
+      <c r="O258" s="15"/>
+    </row>
+    <row r="277" spans="1:15">
+      <c r="A277" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-      <c r="F276" s="1"/>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
-      <c r="I276" s="1"/>
-      <c r="J276" s="1"/>
-      <c r="K276" s="1"/>
-      <c r="L276" s="1"/>
-      <c r="M276" s="1"/>
-      <c r="N276" s="1"/>
-      <c r="O276" s="1"/>
-    </row>
-    <row r="277" spans="1:15">
-      <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -4689,82 +4693,74 @@
       <c r="O277" s="1"/>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="2" t="s">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+    </row>
+    <row r="279" spans="1:15">
+      <c r="A279" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2" t="s">
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F278" s="2" t="s">
+      <c r="F279" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2" t="s">
+      <c r="G279" s="2"/>
+      <c r="H279" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2" t="s">
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-    </row>
-    <row r="279" spans="1:15">
-      <c r="A279" s="3" t="s">
+      <c r="L279" s="2"/>
+      <c r="M279" s="2"/>
+      <c r="N279" s="2"/>
+      <c r="O279" s="2"/>
+    </row>
+    <row r="280" spans="1:15">
+      <c r="A280" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B279" s="3"/>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I279" s="3"/>
-      <c r="J279" s="3"/>
-      <c r="K279" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L279" s="3"/>
-      <c r="M279" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N279" s="3"/>
-      <c r="O279" s="3"/>
-    </row>
-    <row r="280" spans="1:15">
-      <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
+      <c r="E280" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F280" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G280" s="3"/>
       <c r="H280" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L280" s="3"/>
       <c r="M280" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
@@ -4776,23 +4772,23 @@
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G281" s="3"/>
       <c r="H281" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
-      <c r="K281" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L281" s="11"/>
-      <c r="M281" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N281" s="11"/>
-      <c r="O281" s="11"/>
+      <c r="K281" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L281" s="3"/>
+      <c r="M281" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="3"/>
@@ -4801,21 +4797,23 @@
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="G282" s="3"/>
       <c r="H282" s="3" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
-      <c r="K282" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L282" s="3"/>
-      <c r="M282" s="3"/>
-      <c r="N282" s="3"/>
-      <c r="O282" s="3"/>
+      <c r="K282" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="3"/>
@@ -4824,21 +4822,19 @@
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="G283" s="3"/>
       <c r="H283" s="3" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="L283" s="3"/>
-      <c r="M283" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="M283" s="3"/>
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
     </row>
@@ -4849,41 +4845,45 @@
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G284" s="3"/>
       <c r="H284" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
       <c r="K284" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L284" s="3"/>
       <c r="M284" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
     </row>
     <row r="285" spans="1:15">
-      <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="3"/>
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3"/>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
+      <c r="H285" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
       <c r="K285" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L285" s="3"/>
       <c r="M285" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
@@ -4900,11 +4900,11 @@
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
       <c r="K286" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L286" s="3"/>
       <c r="M286" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
@@ -4921,11 +4921,11 @@
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L287" s="3"/>
       <c r="M287" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
@@ -4942,11 +4942,11 @@
       <c r="I288" s="3"/>
       <c r="J288" s="3"/>
       <c r="K288" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L288" s="3"/>
       <c r="M288" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
@@ -4963,11 +4963,11 @@
       <c r="I289" s="3"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L289" s="3"/>
       <c r="M289" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
@@ -4984,11 +4984,11 @@
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
       <c r="K290" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L290" s="3"/>
       <c r="M290" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
@@ -5005,11 +5005,11 @@
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
       <c r="K291" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L291" s="3"/>
       <c r="M291" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
@@ -5026,11 +5026,11 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L292" s="3"/>
       <c r="M292" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
@@ -5047,11 +5047,11 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L293" s="3"/>
       <c r="M293" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
@@ -5068,11 +5068,11 @@
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
       <c r="K294" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L294" s="3"/>
       <c r="M294" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
@@ -5089,57 +5089,61 @@
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L295" s="3"/>
       <c r="M295" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
     </row>
     <row r="296" spans="1:15">
-      <c r="A296" s="3"/>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L296" s="3"/>
       <c r="M296" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="306" spans="1:15">
-      <c r="A306" s="16" t="s">
+    <row r="297" spans="1:15">
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B306" s="16"/>
-      <c r="C306" s="16"/>
-      <c r="D306" s="16"/>
-      <c r="E306" s="16"/>
-      <c r="F306" s="16"/>
-      <c r="G306" s="16"/>
-      <c r="H306" s="16"/>
-      <c r="I306" s="16"/>
-      <c r="J306" s="16"/>
-      <c r="K306" s="16"/>
-      <c r="L306" s="16"/>
-      <c r="M306" s="16"/>
-      <c r="N306" s="16"/>
-      <c r="O306" s="16"/>
-    </row>
-    <row r="307" spans="1:15">
-      <c r="A307" s="16"/>
       <c r="B307" s="16"/>
       <c r="C307" s="16"/>
       <c r="D307" s="16"/>
@@ -5156,82 +5160,74 @@
       <c r="O307" s="16"/>
     </row>
     <row r="308" spans="1:15">
-      <c r="A308" s="2" t="s">
+      <c r="A308" s="16"/>
+      <c r="B308" s="16"/>
+      <c r="C308" s="16"/>
+      <c r="D308" s="16"/>
+      <c r="E308" s="16"/>
+      <c r="F308" s="16"/>
+      <c r="G308" s="16"/>
+      <c r="H308" s="16"/>
+      <c r="I308" s="16"/>
+      <c r="J308" s="16"/>
+      <c r="K308" s="16"/>
+      <c r="L308" s="16"/>
+      <c r="M308" s="16"/>
+      <c r="N308" s="16"/>
+      <c r="O308" s="16"/>
+    </row>
+    <row r="309" spans="1:15">
+      <c r="A309" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2" t="s">
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F308" s="2" t="s">
+      <c r="F309" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2" t="s">
+      <c r="G309" s="2"/>
+      <c r="H309" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I308" s="2"/>
-      <c r="J308" s="2"/>
-      <c r="K308" s="2" t="s">
+      <c r="I309" s="2"/>
+      <c r="J309" s="2"/>
+      <c r="K309" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L308" s="2"/>
-      <c r="M308" s="2"/>
-      <c r="N308" s="2"/>
-      <c r="O308" s="2"/>
-    </row>
-    <row r="309" spans="1:15">
-      <c r="A309" s="3" t="s">
+      <c r="L309" s="2"/>
+      <c r="M309" s="2"/>
+      <c r="N309" s="2"/>
+      <c r="O309" s="2"/>
+    </row>
+    <row r="310" spans="1:15">
+      <c r="A310" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G309" s="3"/>
-      <c r="H309" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I309" s="3"/>
-      <c r="J309" s="3"/>
-      <c r="K309" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L309" s="3"/>
-      <c r="M309" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N309" s="3"/>
-      <c r="O309" s="3"/>
-    </row>
-    <row r="310" spans="1:15">
-      <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
+      <c r="E310" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F310" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G310" s="3"/>
       <c r="H310" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L310" s="3"/>
       <c r="M310" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N310" s="3"/>
       <c r="O310" s="3"/>
@@ -5243,21 +5239,23 @@
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G311" s="3"/>
       <c r="H311" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
-      <c r="K311" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L311" s="11"/>
-      <c r="M311" s="11"/>
-      <c r="N311" s="11"/>
-      <c r="O311" s="11"/>
+      <c r="K311" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L311" s="3"/>
+      <c r="M311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N311" s="3"/>
+      <c r="O311" s="3"/>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="3"/>
@@ -5266,23 +5264,21 @@
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="G312" s="3"/>
       <c r="H312" s="3" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
-      <c r="K312" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="L312" s="3"/>
-      <c r="M312" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N312" s="3"/>
-      <c r="O312" s="3"/>
+      <c r="K312" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L312" s="11"/>
+      <c r="M312" s="11"/>
+      <c r="N312" s="11"/>
+      <c r="O312" s="11"/>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="3"/>
@@ -5290,17 +5286,21 @@
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
+      <c r="F313" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
+      <c r="H313" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L313" s="3"/>
       <c r="M313" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N313" s="3"/>
       <c r="O313" s="3"/>
@@ -5317,11 +5317,11 @@
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L314" s="3"/>
       <c r="M314" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N314" s="3"/>
       <c r="O314" s="3"/>
@@ -5338,11 +5338,11 @@
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="K315" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L315" s="3"/>
       <c r="M315" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N315" s="3"/>
       <c r="O315" s="3"/>
@@ -5359,11 +5359,11 @@
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
       <c r="K316" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L316" s="3"/>
       <c r="M316" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N316" s="3"/>
       <c r="O316" s="3"/>
@@ -5380,11 +5380,11 @@
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L317" s="3"/>
       <c r="M317" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N317" s="3"/>
       <c r="O317" s="3"/>
@@ -5401,11 +5401,11 @@
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
       <c r="K318" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L318" s="3"/>
       <c r="M318" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N318" s="3"/>
       <c r="O318" s="3"/>
@@ -5422,11 +5422,11 @@
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L319" s="3"/>
       <c r="M319" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N319" s="3"/>
       <c r="O319" s="3"/>
@@ -5443,11 +5443,11 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L320" s="3"/>
       <c r="M320" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N320" s="3"/>
       <c r="O320" s="3"/>
@@ -5464,11 +5464,11 @@
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L321" s="3"/>
       <c r="M321" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N321" s="3"/>
       <c r="O321" s="3"/>
@@ -5485,11 +5485,11 @@
       <c r="I322" s="3"/>
       <c r="J322" s="3"/>
       <c r="K322" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L322" s="3"/>
       <c r="M322" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N322" s="3"/>
       <c r="O322" s="3"/>
@@ -5506,11 +5506,11 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L323" s="3"/>
       <c r="M323" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N323" s="3"/>
       <c r="O323" s="3"/>
@@ -5527,11 +5527,11 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
       <c r="K324" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L324" s="3"/>
       <c r="M324" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N324" s="3"/>
       <c r="O324" s="3"/>
@@ -5548,36 +5548,40 @@
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L325" s="3"/>
       <c r="M325" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N325" s="3"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="335" spans="1:15">
-      <c r="A335" s="1" t="s">
+    <row r="326" spans="1:15">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3"/>
+      <c r="E326" s="3"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L326" s="3"/>
+      <c r="M326" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
-      <c r="H335" s="1"/>
-      <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
-      <c r="K335" s="1"/>
-      <c r="L335" s="1"/>
-      <c r="M335" s="1"/>
-      <c r="N335" s="1"/>
-      <c r="O335" s="1"/>
-    </row>
-    <row r="336" spans="1:15">
-      <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -5594,82 +5598,74 @@
       <c r="O336" s="1"/>
     </row>
     <row r="337" spans="1:15">
-      <c r="A337" s="2" t="s">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+      <c r="G337" s="1"/>
+      <c r="H337" s="1"/>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+      <c r="K337" s="1"/>
+      <c r="L337" s="1"/>
+      <c r="M337" s="1"/>
+      <c r="N337" s="1"/>
+      <c r="O337" s="1"/>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2" t="s">
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F337" s="2" t="s">
+      <c r="F338" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2" t="s">
+      <c r="G338" s="2"/>
+      <c r="H338" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I337" s="2"/>
-      <c r="J337" s="2"/>
-      <c r="K337" s="2" t="s">
+      <c r="I338" s="2"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L337" s="2"/>
-      <c r="M337" s="2"/>
-      <c r="N337" s="2"/>
-      <c r="O337" s="2"/>
-    </row>
-    <row r="338" spans="1:15">
-      <c r="A338" s="3" t="s">
+      <c r="L338" s="2"/>
+      <c r="M338" s="2"/>
+      <c r="N338" s="2"/>
+      <c r="O338" s="2"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B338" s="3"/>
-      <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
-      <c r="E338" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F338" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G338" s="3"/>
-      <c r="H338" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I338" s="3"/>
-      <c r="J338" s="3"/>
-      <c r="K338" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L338" s="3"/>
-      <c r="M338" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N338" s="3"/>
-      <c r="O338" s="3"/>
-    </row>
-    <row r="339" spans="1:15">
-      <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
+      <c r="E339" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F339" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G339" s="3"/>
       <c r="H339" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L339" s="3"/>
       <c r="M339" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N339" s="3"/>
       <c r="O339" s="3"/>
@@ -5681,23 +5677,23 @@
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G340" s="3"/>
       <c r="H340" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I340" s="3"/>
       <c r="J340" s="3"/>
-      <c r="K340" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L340" s="11"/>
-      <c r="M340" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N340" s="11"/>
-      <c r="O340" s="11"/>
+      <c r="K340" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L340" s="3"/>
+      <c r="M340" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N340" s="3"/>
+      <c r="O340" s="3"/>
     </row>
     <row r="341" spans="1:15">
       <c r="A341" s="3"/>
@@ -5706,44 +5702,44 @@
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G341" s="3"/>
       <c r="H341" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
-      <c r="K341" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L341" s="3"/>
-      <c r="M341" s="3"/>
-      <c r="N341" s="3"/>
-      <c r="O341" s="3"/>
+      <c r="K341" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L341" s="11"/>
+      <c r="M341" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N341" s="11"/>
+      <c r="O341" s="11"/>
     </row>
     <row r="342" spans="1:15">
-      <c r="A342" s="4"/>
-      <c r="B342" s="4"/>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
       <c r="F342" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G342" s="3"/>
       <c r="H342" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="L342" s="3"/>
-      <c r="M342" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="M342" s="3"/>
       <c r="N342" s="3"/>
       <c r="O342" s="3"/>
     </row>
@@ -5754,20 +5750,20 @@
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G343" s="3"/>
       <c r="H343" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L343" s="3"/>
       <c r="M343" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N343" s="3"/>
       <c r="O343" s="3"/>
@@ -5778,42 +5774,50 @@
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
-      <c r="F344" s="4"/>
-      <c r="G344" s="4"/>
-      <c r="H344" s="4"/>
-      <c r="I344" s="4"/>
-      <c r="J344" s="4"/>
+      <c r="F344" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
       <c r="K344" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L344" s="3"/>
       <c r="M344" s="3" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="N344" s="3"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="362" spans="1:15">
-      <c r="A362" s="1" t="s">
+    <row r="345" spans="1:15">
+      <c r="A345" s="4"/>
+      <c r="B345" s="4"/>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
+      <c r="I345" s="4"/>
+      <c r="J345" s="4"/>
+      <c r="K345" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L345" s="3"/>
+      <c r="M345" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="A363" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-      <c r="D362" s="1"/>
-      <c r="E362" s="1"/>
-      <c r="F362" s="1"/>
-      <c r="G362" s="1"/>
-      <c r="H362" s="1"/>
-      <c r="I362" s="1"/>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1"/>
-      <c r="L362" s="1"/>
-      <c r="M362" s="1"/>
-      <c r="N362" s="1"/>
-      <c r="O362" s="1"/>
-    </row>
-    <row r="363" spans="1:15">
-      <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -5830,82 +5834,74 @@
       <c r="O363" s="1"/>
     </row>
     <row r="364" spans="1:15">
-      <c r="A364" s="2" t="s">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="1"/>
+      <c r="H364" s="1"/>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="L364" s="1"/>
+      <c r="M364" s="1"/>
+      <c r="N364" s="1"/>
+      <c r="O364" s="1"/>
+    </row>
+    <row r="365" spans="1:15">
+      <c r="A365" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-      <c r="E364" s="2" t="s">
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F364" s="2" t="s">
+      <c r="F365" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G364" s="2"/>
-      <c r="H364" s="2" t="s">
+      <c r="G365" s="2"/>
+      <c r="H365" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I364" s="2"/>
-      <c r="J364" s="2"/>
-      <c r="K364" s="2" t="s">
+      <c r="I365" s="2"/>
+      <c r="J365" s="2"/>
+      <c r="K365" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L364" s="2"/>
-      <c r="M364" s="2"/>
-      <c r="N364" s="2"/>
-      <c r="O364" s="2"/>
-    </row>
-    <row r="365" spans="1:15">
-      <c r="A365" s="3" t="s">
+      <c r="L365" s="2"/>
+      <c r="M365" s="2"/>
+      <c r="N365" s="2"/>
+      <c r="O365" s="2"/>
+    </row>
+    <row r="366" spans="1:15">
+      <c r="A366" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B365" s="3"/>
-      <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G365" s="3"/>
-      <c r="H365" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I365" s="3"/>
-      <c r="J365" s="3"/>
-      <c r="K365" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L365" s="3"/>
-      <c r="M365" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N365" s="3"/>
-      <c r="O365" s="3"/>
-    </row>
-    <row r="366" spans="1:15">
-      <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
+      <c r="E366" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F366" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G366" s="3"/>
       <c r="H366" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I366" s="3"/>
       <c r="J366" s="3"/>
       <c r="K366" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L366" s="3"/>
       <c r="M366" s="3" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="N366" s="3"/>
       <c r="O366" s="3"/>
@@ -5917,23 +5913,23 @@
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G367" s="3"/>
       <c r="H367" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I367" s="3"/>
       <c r="J367" s="3"/>
-      <c r="K367" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L367" s="11"/>
-      <c r="M367" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N367" s="11"/>
-      <c r="O367" s="11"/>
+      <c r="K367" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L367" s="3"/>
+      <c r="M367" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N367" s="3"/>
+      <c r="O367" s="3"/>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="3"/>
@@ -5942,21 +5938,23 @@
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G368" s="3"/>
       <c r="H368" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I368" s="3"/>
       <c r="J368" s="3"/>
-      <c r="K368" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L368" s="3"/>
-      <c r="M368" s="3"/>
-      <c r="N368" s="3"/>
-      <c r="O368" s="3"/>
+      <c r="K368" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L368" s="11"/>
+      <c r="M368" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N368" s="11"/>
+      <c r="O368" s="11"/>
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="3"/>
@@ -5965,45 +5963,43 @@
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G369" s="3"/>
       <c r="H369" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I369" s="3"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="L369" s="3"/>
-      <c r="M369" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="M369" s="3"/>
       <c r="N369" s="3"/>
       <c r="O369" s="3"/>
     </row>
     <row r="370" spans="1:15">
-      <c r="A370" s="4"/>
-      <c r="B370" s="4"/>
-      <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
+      <c r="E370" s="3"/>
       <c r="F370" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G370" s="3"/>
       <c r="H370" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I370" s="3"/>
       <c r="J370" s="3"/>
       <c r="K370" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L370" s="3"/>
       <c r="M370" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
@@ -6014,17 +6010,21 @@
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
-      <c r="F371" s="3"/>
+      <c r="F371" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
+      <c r="H371" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I371" s="3"/>
       <c r="J371" s="3"/>
       <c r="K371" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L371" s="3"/>
       <c r="M371" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N371" s="3"/>
       <c r="O371" s="3"/>
@@ -6041,11 +6041,11 @@
       <c r="I372" s="3"/>
       <c r="J372" s="3"/>
       <c r="K372" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L372" s="3"/>
       <c r="M372" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N372" s="3"/>
       <c r="O372" s="3"/>
@@ -6062,36 +6062,40 @@
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L373" s="3"/>
       <c r="M373" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N373" s="3"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="389" spans="1:15">
-      <c r="A389" s="1" t="s">
+    <row r="374" spans="1:15">
+      <c r="A374" s="4"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4"/>
+      <c r="E374" s="4"/>
+      <c r="F374" s="3"/>
+      <c r="G374" s="3"/>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="J374" s="3"/>
+      <c r="K374" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L374" s="3"/>
+      <c r="M374" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N374" s="3"/>
+      <c r="O374" s="3"/>
+    </row>
+    <row r="390" spans="1:15">
+      <c r="A390" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-      <c r="D389" s="1"/>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
-      <c r="G389" s="1"/>
-      <c r="H389" s="1"/>
-      <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
-      <c r="K389" s="1"/>
-      <c r="L389" s="1"/>
-      <c r="M389" s="1"/>
-      <c r="N389" s="1"/>
-      <c r="O389" s="1"/>
-    </row>
-    <row r="390" spans="1:15">
-      <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -6108,82 +6112,74 @@
       <c r="O390" s="1"/>
     </row>
     <row r="391" spans="1:15">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1"/>
+    </row>
+    <row r="392" spans="1:15">
+      <c r="A392" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2" t="s">
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F391" s="2" t="s">
+      <c r="F392" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G391" s="2"/>
-      <c r="H391" s="2" t="s">
+      <c r="G392" s="2"/>
+      <c r="H392" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I391" s="2"/>
-      <c r="J391" s="2"/>
-      <c r="K391" s="2" t="s">
+      <c r="I392" s="2"/>
+      <c r="J392" s="2"/>
+      <c r="K392" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L391" s="2"/>
-      <c r="M391" s="2"/>
-      <c r="N391" s="2"/>
-      <c r="O391" s="2"/>
-    </row>
-    <row r="392" spans="1:15">
-      <c r="A392" s="3" t="s">
+      <c r="L392" s="2"/>
+      <c r="M392" s="2"/>
+      <c r="N392" s="2"/>
+      <c r="O392" s="2"/>
+    </row>
+    <row r="393" spans="1:15">
+      <c r="A393" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
-      <c r="D392" s="3"/>
-      <c r="E392" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F392" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I392" s="3"/>
-      <c r="J392" s="3"/>
-      <c r="K392" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L392" s="3"/>
-      <c r="M392" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N392" s="3"/>
-      <c r="O392" s="3"/>
-    </row>
-    <row r="393" spans="1:15">
-      <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
+      <c r="E393" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F393" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G393" s="3"/>
       <c r="H393" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I393" s="3"/>
       <c r="J393" s="3"/>
       <c r="K393" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L393" s="3"/>
       <c r="M393" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N393" s="3"/>
       <c r="O393" s="3"/>
@@ -6195,23 +6191,23 @@
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G394" s="3"/>
       <c r="H394" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I394" s="3"/>
       <c r="J394" s="3"/>
-      <c r="K394" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L394" s="11"/>
-      <c r="M394" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N394" s="11"/>
-      <c r="O394" s="11"/>
+      <c r="K394" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L394" s="3"/>
+      <c r="M394" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N394" s="3"/>
+      <c r="O394" s="3"/>
     </row>
     <row r="395" spans="1:15">
       <c r="A395" s="3"/>
@@ -6220,21 +6216,23 @@
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G395" s="3"/>
       <c r="H395" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I395" s="3"/>
       <c r="J395" s="3"/>
-      <c r="K395" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L395" s="3"/>
-      <c r="M395" s="3"/>
-      <c r="N395" s="3"/>
-      <c r="O395" s="3"/>
+      <c r="K395" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L395" s="11"/>
+      <c r="M395" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N395" s="11"/>
+      <c r="O395" s="11"/>
     </row>
     <row r="396" spans="1:15">
       <c r="A396" s="3"/>
@@ -6243,21 +6241,19 @@
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G396" s="3"/>
       <c r="H396" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I396" s="3"/>
       <c r="J396" s="3"/>
       <c r="K396" s="3" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="L396" s="3"/>
-      <c r="M396" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="M396" s="3"/>
       <c r="N396" s="3"/>
       <c r="O396" s="3"/>
     </row>
@@ -6268,41 +6264,45 @@
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G397" s="3"/>
       <c r="H397" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="L397" s="3"/>
       <c r="M397" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N397" s="3"/>
       <c r="O397" s="3"/>
     </row>
     <row r="398" spans="1:15">
-      <c r="A398" s="4"/>
-      <c r="B398" s="4"/>
-      <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="4"/>
-      <c r="F398" s="3"/>
+      <c r="A398" s="3"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="3"/>
+      <c r="E398" s="3"/>
+      <c r="F398" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
+      <c r="H398" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I398" s="3"/>
       <c r="J398" s="3"/>
       <c r="K398" s="3" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="L398" s="3"/>
       <c r="M398" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N398" s="3"/>
       <c r="O398" s="3"/>
@@ -6319,11 +6319,11 @@
       <c r="I399" s="3"/>
       <c r="J399" s="3"/>
       <c r="K399" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L399" s="3"/>
       <c r="M399" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N399" s="3"/>
       <c r="O399" s="3"/>
@@ -6334,17 +6334,17 @@
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
-      <c r="F400" s="4"/>
-      <c r="G400" s="4"/>
-      <c r="H400" s="4"/>
-      <c r="I400" s="4"/>
-      <c r="J400" s="4"/>
+      <c r="F400" s="3"/>
+      <c r="G400" s="3"/>
+      <c r="H400" s="3"/>
+      <c r="I400" s="3"/>
+      <c r="J400" s="3"/>
       <c r="K400" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L400" s="3"/>
       <c r="M400" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N400" s="3"/>
       <c r="O400" s="3"/>
@@ -6361,31 +6361,35 @@
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L401" s="3"/>
       <c r="M401" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N401" s="3"/>
       <c r="O401" s="3"/>
     </row>
     <row r="402" spans="1:15">
-      <c r="A402" s="17"/>
-      <c r="B402" s="17"/>
-      <c r="C402" s="17"/>
-      <c r="D402" s="17"/>
-      <c r="E402" s="17"/>
-      <c r="F402" s="17"/>
-      <c r="G402" s="17"/>
-      <c r="H402" s="17"/>
-      <c r="I402" s="17"/>
-      <c r="J402" s="17"/>
-      <c r="K402" s="17"/>
-      <c r="L402" s="17"/>
-      <c r="M402" s="17"/>
-      <c r="N402" s="17"/>
-      <c r="O402" s="17"/>
+      <c r="A402" s="4"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
+      <c r="H402" s="4"/>
+      <c r="I402" s="4"/>
+      <c r="J402" s="4"/>
+      <c r="K402" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L402" s="3"/>
+      <c r="M402" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N402" s="3"/>
+      <c r="O402" s="3"/>
     </row>
     <row r="403" spans="1:15">
       <c r="A403" s="17"/>
@@ -6575,26 +6579,26 @@
       <c r="O413" s="17"/>
     </row>
     <row r="414" spans="1:15">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="17"/>
+      <c r="B414" s="17"/>
+      <c r="C414" s="17"/>
+      <c r="D414" s="17"/>
+      <c r="E414" s="17"/>
+      <c r="F414" s="17"/>
+      <c r="G414" s="17"/>
+      <c r="H414" s="17"/>
+      <c r="I414" s="17"/>
+      <c r="J414" s="17"/>
+      <c r="K414" s="17"/>
+      <c r="L414" s="17"/>
+      <c r="M414" s="17"/>
+      <c r="N414" s="17"/>
+      <c r="O414" s="17"/>
+    </row>
+    <row r="415" spans="1:15">
+      <c r="A415" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-      <c r="D414" s="1"/>
-      <c r="E414" s="1"/>
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1"/>
-      <c r="M414" s="1"/>
-      <c r="N414" s="1"/>
-      <c r="O414" s="1"/>
-    </row>
-    <row r="415" spans="1:15">
-      <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -6611,82 +6615,74 @@
       <c r="O415" s="1"/>
     </row>
     <row r="416" spans="1:15">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1"/>
+      <c r="N416" s="1"/>
+      <c r="O416" s="1"/>
+    </row>
+    <row r="417" spans="1:15">
+      <c r="A417" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2" t="s">
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F416" s="2" t="s">
+      <c r="F417" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2" t="s">
+      <c r="G417" s="2"/>
+      <c r="H417" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2"/>
-      <c r="K416" s="2" t="s">
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
+      <c r="K417" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L416" s="2"/>
-      <c r="M416" s="2"/>
-      <c r="N416" s="2"/>
-      <c r="O416" s="2"/>
-    </row>
-    <row r="417" spans="1:15">
-      <c r="A417" s="3" t="s">
+      <c r="L417" s="2"/>
+      <c r="M417" s="2"/>
+      <c r="N417" s="2"/>
+      <c r="O417" s="2"/>
+    </row>
+    <row r="418" spans="1:15">
+      <c r="A418" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B417" s="3"/>
-      <c r="C417" s="3"/>
-      <c r="D417" s="3"/>
-      <c r="E417" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F417" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G417" s="3"/>
-      <c r="H417" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I417" s="3"/>
-      <c r="J417" s="3"/>
-      <c r="K417" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L417" s="3"/>
-      <c r="M417" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N417" s="3"/>
-      <c r="O417" s="3"/>
-    </row>
-    <row r="418" spans="1:15">
-      <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
-      <c r="E418" s="3"/>
+      <c r="E418" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F418" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G418" s="3"/>
       <c r="H418" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I418" s="3"/>
       <c r="J418" s="3"/>
       <c r="K418" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L418" s="3"/>
       <c r="M418" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N418" s="3"/>
       <c r="O418" s="3"/>
@@ -6698,19 +6694,21 @@
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G419" s="3"/>
       <c r="H419" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I419" s="3"/>
       <c r="J419" s="3"/>
       <c r="K419" s="3" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="L419" s="3"/>
-      <c r="M419" s="3"/>
+      <c r="M419" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N419" s="3"/>
       <c r="O419" s="3"/>
     </row>
@@ -6721,41 +6719,43 @@
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="G420" s="3"/>
       <c r="H420" s="3" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I420" s="3"/>
       <c r="J420" s="3"/>
       <c r="K420" s="3" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="L420" s="3"/>
-      <c r="M420" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="M420" s="3"/>
       <c r="N420" s="3"/>
       <c r="O420" s="3"/>
     </row>
     <row r="421" spans="1:15">
-      <c r="A421" s="4"/>
-      <c r="B421" s="4"/>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
-      <c r="F421" s="4"/>
-      <c r="G421" s="4"/>
-      <c r="H421" s="4"/>
-      <c r="I421" s="4"/>
-      <c r="J421" s="4"/>
+      <c r="A421" s="3"/>
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="3"/>
+      <c r="E421" s="3"/>
+      <c r="F421" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G421" s="3"/>
+      <c r="H421" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I421" s="3"/>
+      <c r="J421" s="3"/>
       <c r="K421" s="3" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="L421" s="3"/>
       <c r="M421" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N421" s="3"/>
       <c r="O421" s="3"/>
@@ -6772,11 +6772,11 @@
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="K422" s="3" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="L422" s="3"/>
       <c r="M422" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N422" s="3"/>
       <c r="O422" s="3"/>
@@ -6793,11 +6793,11 @@
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L423" s="3"/>
       <c r="M423" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N423" s="3"/>
       <c r="O423" s="3"/>
@@ -6814,11 +6814,11 @@
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L424" s="3"/>
       <c r="M424" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N424" s="3"/>
       <c r="O424" s="3"/>
@@ -6835,41 +6835,40 @@
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L425" s="3"/>
       <c r="M425" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N425" s="3"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="438" spans="1:18">
-      <c r="A438" s="1" t="s">
+    <row r="426" spans="1:15">
+      <c r="A426" s="4"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="4"/>
+      <c r="D426" s="4"/>
+      <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
+      <c r="H426" s="4"/>
+      <c r="I426" s="4"/>
+      <c r="J426" s="4"/>
+      <c r="K426" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L426" s="3"/>
+      <c r="M426" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N426" s="3"/>
+      <c r="O426" s="3"/>
+    </row>
+    <row r="439" spans="1:18">
+      <c r="A439" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
-      <c r="D438" s="1"/>
-      <c r="E438" s="1"/>
-      <c r="F438" s="1"/>
-      <c r="G438" s="1"/>
-      <c r="H438" s="1"/>
-      <c r="I438" s="1"/>
-      <c r="J438" s="1"/>
-      <c r="K438" s="1"/>
-      <c r="L438" s="1"/>
-      <c r="M438" s="1"/>
-      <c r="N438" s="1"/>
-      <c r="O438" s="1"/>
-      <c r="P438" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q438" s="18"/>
-      <c r="R438" s="18"/>
-    </row>
-    <row r="439" spans="1:18">
-      <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -6884,93 +6883,87 @@
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
-      <c r="P439" s="18"/>
+      <c r="P439" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="Q439" s="18"/>
       <c r="R439" s="18"/>
     </row>
     <row r="440" spans="1:18">
-      <c r="A440" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F440" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G440" s="2"/>
-      <c r="H440" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I440" s="2"/>
-      <c r="J440" s="2"/>
-      <c r="K440" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L440" s="2"/>
-      <c r="M440" s="2"/>
-      <c r="N440" s="2"/>
-      <c r="O440" s="2"/>
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="1"/>
+      <c r="F440" s="1"/>
+      <c r="G440" s="1"/>
+      <c r="H440" s="1"/>
+      <c r="I440" s="1"/>
+      <c r="J440" s="1"/>
+      <c r="K440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="M440" s="1"/>
+      <c r="N440" s="1"/>
+      <c r="O440" s="1"/>
       <c r="P440" s="18"/>
       <c r="Q440" s="18"/>
       <c r="R440" s="18"/>
     </row>
     <row r="441" spans="1:18">
-      <c r="A441" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B441" s="3"/>
-      <c r="C441" s="3"/>
-      <c r="D441" s="3"/>
-      <c r="E441" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F441" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G441" s="3"/>
-      <c r="H441" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I441" s="3"/>
-      <c r="J441" s="3"/>
-      <c r="K441" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L441" s="3"/>
-      <c r="M441" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N441" s="3"/>
-      <c r="O441" s="3"/>
+      <c r="A441" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G441" s="2"/>
+      <c r="H441" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I441" s="2"/>
+      <c r="J441" s="2"/>
+      <c r="K441" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L441" s="2"/>
+      <c r="M441" s="2"/>
+      <c r="N441" s="2"/>
+      <c r="O441" s="2"/>
       <c r="P441" s="18"/>
       <c r="Q441" s="18"/>
       <c r="R441" s="18"/>
     </row>
     <row r="442" spans="1:18">
-      <c r="A442" s="3"/>
+      <c r="A442" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
-      <c r="E442" s="3"/>
+      <c r="E442" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F442" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G442" s="3"/>
       <c r="H442" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I442" s="3"/>
       <c r="J442" s="3"/>
       <c r="K442" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L442" s="3"/>
       <c r="M442" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N442" s="3"/>
       <c r="O442" s="3"/>
@@ -6985,19 +6978,21 @@
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G443" s="3"/>
       <c r="H443" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I443" s="3"/>
       <c r="J443" s="3"/>
       <c r="K443" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L443" s="3"/>
-      <c r="M443" s="3"/>
+      <c r="M443" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N443" s="3"/>
       <c r="O443" s="3"/>
       <c r="P443" s="18"/>
@@ -7010,50 +7005,48 @@
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
-      <c r="F444" s="7" t="s">
+      <c r="F444" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G444" s="3"/>
+      <c r="H444" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I444" s="3"/>
+      <c r="J444" s="3"/>
+      <c r="K444" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G444" s="7"/>
-      <c r="H444" s="7" t="s">
+      <c r="L444" s="11"/>
+      <c r="M444" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I444" s="7"/>
-      <c r="J444" s="7"/>
-      <c r="K444" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L444" s="3"/>
-      <c r="M444" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N444" s="3"/>
-      <c r="O444" s="3"/>
+      <c r="N444" s="11"/>
+      <c r="O444" s="11"/>
       <c r="P444" s="18"/>
       <c r="Q444" s="18"/>
       <c r="R444" s="18"/>
     </row>
     <row r="445" spans="1:18">
-      <c r="A445" s="4"/>
-      <c r="B445" s="4"/>
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
-      <c r="E445" s="4"/>
+      <c r="A445" s="3"/>
+      <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
+      <c r="D445" s="3"/>
+      <c r="E445" s="3"/>
       <c r="F445" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G445" s="7"/>
       <c r="H445" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I445" s="7"/>
       <c r="J445" s="7"/>
       <c r="K445" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L445" s="3"/>
-      <c r="M445" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="M445" s="3"/>
       <c r="N445" s="3"/>
       <c r="O445" s="3"/>
       <c r="P445" s="18"/>
@@ -7061,26 +7054,26 @@
       <c r="R445" s="18"/>
     </row>
     <row r="446" spans="1:18">
-      <c r="A446" s="4"/>
-      <c r="B446" s="4"/>
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
-      <c r="E446" s="4"/>
-      <c r="F446" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G446" s="3"/>
-      <c r="H446" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I446" s="3"/>
-      <c r="J446" s="3"/>
+      <c r="A446" s="3"/>
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+      <c r="D446" s="3"/>
+      <c r="E446" s="3"/>
+      <c r="F446" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G446" s="7"/>
+      <c r="H446" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I446" s="7"/>
+      <c r="J446" s="7"/>
       <c r="K446" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L446" s="3"/>
       <c r="M446" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N446" s="3"/>
       <c r="O446" s="3"/>
@@ -7088,47 +7081,57 @@
       <c r="Q446" s="18"/>
       <c r="R446" s="18"/>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:18">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
-      <c r="F447" s="4"/>
-      <c r="G447" s="4"/>
-      <c r="H447" s="4"/>
-      <c r="I447" s="4"/>
-      <c r="J447" s="4"/>
+      <c r="F447" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G447" s="3"/>
+      <c r="H447" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I447" s="3"/>
+      <c r="J447" s="3"/>
       <c r="K447" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L447" s="3"/>
       <c r="M447" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N447" s="3"/>
       <c r="O447" s="3"/>
-    </row>
-    <row r="448" spans="1:15">
+      <c r="P447" s="18"/>
+      <c r="Q447" s="18"/>
+      <c r="R447" s="18"/>
+    </row>
+    <row r="448" spans="1:18">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
-      <c r="F448" s="4"/>
-      <c r="G448" s="4"/>
-      <c r="H448" s="4"/>
-      <c r="I448" s="4"/>
-      <c r="J448" s="4"/>
+      <c r="F448" s="3"/>
+      <c r="G448" s="3"/>
+      <c r="H448" s="3"/>
+      <c r="I448" s="3"/>
+      <c r="J448" s="3"/>
       <c r="K448" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L448" s="3"/>
       <c r="M448" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N448" s="3"/>
       <c r="O448" s="3"/>
+      <c r="P448" s="18"/>
+      <c r="Q448" s="18"/>
+      <c r="R448" s="18"/>
     </row>
     <row r="449" spans="1:15">
       <c r="A449" s="4"/>
@@ -7142,11 +7145,11 @@
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
       <c r="K449" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L449" s="3"/>
       <c r="M449" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N449" s="3"/>
       <c r="O449" s="3"/>
@@ -7163,11 +7166,11 @@
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
       <c r="K450" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L450" s="3"/>
       <c r="M450" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N450" s="3"/>
       <c r="O450" s="3"/>
@@ -7184,11 +7187,11 @@
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
       <c r="K451" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L451" s="3"/>
       <c r="M451" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N451" s="3"/>
       <c r="O451" s="3"/>
@@ -7205,11 +7208,11 @@
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
       <c r="K452" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L452" s="3"/>
       <c r="M452" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N452" s="3"/>
       <c r="O452" s="3"/>
@@ -7226,11 +7229,11 @@
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
       <c r="K453" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L453" s="3"/>
       <c r="M453" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N453" s="3"/>
       <c r="O453" s="3"/>
@@ -7247,11 +7250,11 @@
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
       <c r="K454" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L454" s="3"/>
       <c r="M454" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N454" s="3"/>
       <c r="O454" s="3"/>
@@ -7268,17 +7271,59 @@
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
       <c r="K455" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L455" s="3"/>
       <c r="M455" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N455" s="3"/>
       <c r="O455" s="3"/>
     </row>
+    <row r="456" spans="1:15">
+      <c r="A456" s="4"/>
+      <c r="B456" s="4"/>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
+      <c r="H456" s="4"/>
+      <c r="I456" s="4"/>
+      <c r="J456" s="4"/>
+      <c r="K456" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L456" s="3"/>
+      <c r="M456" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N456" s="3"/>
+      <c r="O456" s="3"/>
+    </row>
+    <row r="457" spans="1:15">
+      <c r="A457" s="4"/>
+      <c r="B457" s="4"/>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
+      <c r="H457" s="4"/>
+      <c r="I457" s="4"/>
+      <c r="J457" s="4"/>
+      <c r="K457" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L457" s="3"/>
+      <c r="M457" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N457" s="3"/>
+      <c r="O457" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="703">
+  <mergeCells count="711">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -7358,15 +7403,17 @@
     <mergeCell ref="M71:O71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:O72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M72:O72"/>
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="K73:O73"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="M74:O74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:J75"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="M75:O75"/>
     <mergeCell ref="K76:L76"/>
@@ -7387,15 +7434,13 @@
     <mergeCell ref="M83:O83"/>
     <mergeCell ref="K84:L84"/>
     <mergeCell ref="M84:O84"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:O94"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="M85:O85"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="K95:O95"/>
+    <mergeCell ref="A96:D96"/>
     <mergeCell ref="F96:G96"/>
     <mergeCell ref="H96:J96"/>
     <mergeCell ref="K96:L96"/>
@@ -7406,11 +7451,11 @@
     <mergeCell ref="M97:O97"/>
     <mergeCell ref="F98:G98"/>
     <mergeCell ref="H98:J98"/>
-    <mergeCell ref="K98:O98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="M98:O98"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="K99:O99"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="H100:J100"/>
     <mergeCell ref="K100:L100"/>
@@ -7419,13 +7464,15 @@
     <mergeCell ref="H101:J101"/>
     <mergeCell ref="K101:L101"/>
     <mergeCell ref="M101:O101"/>
-    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:J102"/>
     <mergeCell ref="K102:L102"/>
     <mergeCell ref="M102:O102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="F103:J103"/>
     <mergeCell ref="K103:L103"/>
     <mergeCell ref="M103:O103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:J104"/>
     <mergeCell ref="K104:L104"/>
     <mergeCell ref="M104:O104"/>
     <mergeCell ref="K105:L105"/>
@@ -7440,26 +7487,24 @@
     <mergeCell ref="M109:O109"/>
     <mergeCell ref="K110:L110"/>
     <mergeCell ref="M110:O110"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="K134:O134"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="M111:O111"/>
     <mergeCell ref="A135:D135"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="H135:J135"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="M135:O135"/>
+    <mergeCell ref="K135:O135"/>
+    <mergeCell ref="A136:D136"/>
     <mergeCell ref="F136:G136"/>
     <mergeCell ref="H136:J136"/>
     <mergeCell ref="K136:L136"/>
     <mergeCell ref="M136:O136"/>
     <mergeCell ref="F137:G137"/>
     <mergeCell ref="H137:J137"/>
-    <mergeCell ref="K137:O137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:O137"/>
     <mergeCell ref="F138:G138"/>
     <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="M138:O138"/>
+    <mergeCell ref="K138:O138"/>
     <mergeCell ref="F139:G139"/>
     <mergeCell ref="H139:J139"/>
     <mergeCell ref="K139:L139"/>
@@ -7468,16 +7513,17 @@
     <mergeCell ref="H140:J140"/>
     <mergeCell ref="K140:L140"/>
     <mergeCell ref="M140:O140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:J141"/>
     <mergeCell ref="K141:L141"/>
     <mergeCell ref="M141:O141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:J142"/>
     <mergeCell ref="K142:L142"/>
     <mergeCell ref="M142:O142"/>
     <mergeCell ref="F143:G143"/>
     <mergeCell ref="H143:J143"/>
     <mergeCell ref="K143:L143"/>
     <mergeCell ref="M143:O143"/>
+    <mergeCell ref="F144:G144"/>
     <mergeCell ref="H144:J144"/>
     <mergeCell ref="K144:L144"/>
     <mergeCell ref="M144:O144"/>
@@ -7490,6 +7536,7 @@
     <mergeCell ref="H147:J147"/>
     <mergeCell ref="K147:L147"/>
     <mergeCell ref="M147:O147"/>
+    <mergeCell ref="H148:J148"/>
     <mergeCell ref="K148:L148"/>
     <mergeCell ref="M148:O148"/>
     <mergeCell ref="K149:L149"/>
@@ -7504,18 +7551,16 @@
     <mergeCell ref="M153:O153"/>
     <mergeCell ref="K154:L154"/>
     <mergeCell ref="M154:O154"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="H177:J177"/>
-    <mergeCell ref="K177:O177"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="M155:O155"/>
     <mergeCell ref="A178:D178"/>
     <mergeCell ref="F178:G178"/>
     <mergeCell ref="H178:J178"/>
     <mergeCell ref="K178:O178"/>
+    <mergeCell ref="A179:D179"/>
     <mergeCell ref="F179:G179"/>
     <mergeCell ref="H179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:O179"/>
+    <mergeCell ref="K179:O179"/>
     <mergeCell ref="F180:G180"/>
     <mergeCell ref="H180:J180"/>
     <mergeCell ref="K180:L180"/>
@@ -7524,15 +7569,15 @@
     <mergeCell ref="H181:J181"/>
     <mergeCell ref="K181:L181"/>
     <mergeCell ref="M181:O181"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="K201:O201"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:O182"/>
     <mergeCell ref="A202:D202"/>
     <mergeCell ref="F202:G202"/>
     <mergeCell ref="H202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:O202"/>
+    <mergeCell ref="K202:O202"/>
+    <mergeCell ref="A203:D203"/>
     <mergeCell ref="F203:G203"/>
     <mergeCell ref="H203:J203"/>
     <mergeCell ref="K203:L203"/>
@@ -7543,15 +7588,16 @@
     <mergeCell ref="M204:O204"/>
     <mergeCell ref="F205:G205"/>
     <mergeCell ref="H205:J205"/>
-    <mergeCell ref="K205:O205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:O205"/>
     <mergeCell ref="F206:G206"/>
     <mergeCell ref="H206:J206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="M206:O206"/>
+    <mergeCell ref="K206:O206"/>
     <mergeCell ref="F207:G207"/>
     <mergeCell ref="H207:J207"/>
     <mergeCell ref="K207:L207"/>
     <mergeCell ref="M207:O207"/>
+    <mergeCell ref="F208:G208"/>
     <mergeCell ref="H208:J208"/>
     <mergeCell ref="K208:L208"/>
     <mergeCell ref="M208:O208"/>
@@ -7561,6 +7607,7 @@
     <mergeCell ref="H210:J210"/>
     <mergeCell ref="K210:L210"/>
     <mergeCell ref="M210:O210"/>
+    <mergeCell ref="H211:J211"/>
     <mergeCell ref="K211:L211"/>
     <mergeCell ref="M211:O211"/>
     <mergeCell ref="K212:L212"/>
@@ -7577,15 +7624,13 @@
     <mergeCell ref="M217:O217"/>
     <mergeCell ref="K218:L218"/>
     <mergeCell ref="M218:O218"/>
-    <mergeCell ref="A240:D240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:J240"/>
-    <mergeCell ref="K240:O240"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="M219:O219"/>
     <mergeCell ref="A241:D241"/>
     <mergeCell ref="F241:G241"/>
     <mergeCell ref="H241:J241"/>
-    <mergeCell ref="K241:L241"/>
-    <mergeCell ref="M241:O241"/>
+    <mergeCell ref="K241:O241"/>
+    <mergeCell ref="A242:D242"/>
     <mergeCell ref="F242:G242"/>
     <mergeCell ref="H242:J242"/>
     <mergeCell ref="K242:L242"/>
@@ -7596,15 +7641,16 @@
     <mergeCell ref="M243:O243"/>
     <mergeCell ref="F244:G244"/>
     <mergeCell ref="H244:J244"/>
-    <mergeCell ref="K244:O244"/>
+    <mergeCell ref="K244:L244"/>
+    <mergeCell ref="M244:O244"/>
     <mergeCell ref="F245:G245"/>
     <mergeCell ref="H245:J245"/>
-    <mergeCell ref="K245:L245"/>
-    <mergeCell ref="M245:O245"/>
+    <mergeCell ref="K245:O245"/>
     <mergeCell ref="F246:G246"/>
     <mergeCell ref="H246:J246"/>
     <mergeCell ref="K246:L246"/>
     <mergeCell ref="M246:O246"/>
+    <mergeCell ref="F247:G247"/>
     <mergeCell ref="H247:J247"/>
     <mergeCell ref="K247:L247"/>
     <mergeCell ref="M247:O247"/>
@@ -7614,6 +7660,7 @@
     <mergeCell ref="H249:J249"/>
     <mergeCell ref="K249:L249"/>
     <mergeCell ref="M249:O249"/>
+    <mergeCell ref="H250:J250"/>
     <mergeCell ref="K250:L250"/>
     <mergeCell ref="M250:O250"/>
     <mergeCell ref="K251:L251"/>
@@ -7630,15 +7677,13 @@
     <mergeCell ref="M256:O256"/>
     <mergeCell ref="K257:L257"/>
     <mergeCell ref="M257:O257"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:J278"/>
-    <mergeCell ref="K278:O278"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="M258:O258"/>
     <mergeCell ref="A279:D279"/>
     <mergeCell ref="F279:G279"/>
     <mergeCell ref="H279:J279"/>
-    <mergeCell ref="K279:L279"/>
-    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="K279:O279"/>
+    <mergeCell ref="A280:D280"/>
     <mergeCell ref="F280:G280"/>
     <mergeCell ref="H280:J280"/>
     <mergeCell ref="K280:L280"/>
@@ -7649,11 +7694,11 @@
     <mergeCell ref="M281:O281"/>
     <mergeCell ref="F282:G282"/>
     <mergeCell ref="H282:J282"/>
-    <mergeCell ref="K282:O282"/>
+    <mergeCell ref="K282:L282"/>
+    <mergeCell ref="M282:O282"/>
     <mergeCell ref="F283:G283"/>
     <mergeCell ref="H283:J283"/>
-    <mergeCell ref="K283:L283"/>
-    <mergeCell ref="M283:O283"/>
+    <mergeCell ref="K283:O283"/>
     <mergeCell ref="F284:G284"/>
     <mergeCell ref="H284:J284"/>
     <mergeCell ref="K284:L284"/>
@@ -7706,26 +7751,26 @@
     <mergeCell ref="H296:J296"/>
     <mergeCell ref="K296:L296"/>
     <mergeCell ref="M296:O296"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="H308:J308"/>
-    <mergeCell ref="K308:O308"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="H297:J297"/>
+    <mergeCell ref="K297:L297"/>
+    <mergeCell ref="M297:O297"/>
     <mergeCell ref="A309:D309"/>
     <mergeCell ref="F309:G309"/>
     <mergeCell ref="H309:J309"/>
-    <mergeCell ref="K309:L309"/>
-    <mergeCell ref="M309:O309"/>
+    <mergeCell ref="K309:O309"/>
+    <mergeCell ref="A310:D310"/>
     <mergeCell ref="F310:G310"/>
     <mergeCell ref="H310:J310"/>
     <mergeCell ref="K310:L310"/>
     <mergeCell ref="M310:O310"/>
     <mergeCell ref="F311:G311"/>
     <mergeCell ref="H311:J311"/>
-    <mergeCell ref="K311:O311"/>
+    <mergeCell ref="K311:L311"/>
+    <mergeCell ref="M311:O311"/>
     <mergeCell ref="F312:G312"/>
     <mergeCell ref="H312:J312"/>
-    <mergeCell ref="K312:L312"/>
-    <mergeCell ref="M312:O312"/>
+    <mergeCell ref="K312:O312"/>
     <mergeCell ref="F313:G313"/>
     <mergeCell ref="H313:J313"/>
     <mergeCell ref="K313:L313"/>
@@ -7778,15 +7823,15 @@
     <mergeCell ref="H325:J325"/>
     <mergeCell ref="K325:L325"/>
     <mergeCell ref="M325:O325"/>
-    <mergeCell ref="A337:D337"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="H337:J337"/>
-    <mergeCell ref="K337:O337"/>
+    <mergeCell ref="F326:G326"/>
+    <mergeCell ref="H326:J326"/>
+    <mergeCell ref="K326:L326"/>
+    <mergeCell ref="M326:O326"/>
     <mergeCell ref="A338:D338"/>
     <mergeCell ref="F338:G338"/>
     <mergeCell ref="H338:J338"/>
-    <mergeCell ref="K338:L338"/>
-    <mergeCell ref="M338:O338"/>
+    <mergeCell ref="K338:O338"/>
+    <mergeCell ref="A339:D339"/>
     <mergeCell ref="F339:G339"/>
     <mergeCell ref="H339:J339"/>
     <mergeCell ref="K339:L339"/>
@@ -7797,26 +7842,26 @@
     <mergeCell ref="M340:O340"/>
     <mergeCell ref="F341:G341"/>
     <mergeCell ref="H341:J341"/>
-    <mergeCell ref="K341:O341"/>
+    <mergeCell ref="K341:L341"/>
+    <mergeCell ref="M341:O341"/>
     <mergeCell ref="F342:G342"/>
     <mergeCell ref="H342:J342"/>
-    <mergeCell ref="K342:L342"/>
-    <mergeCell ref="M342:O342"/>
+    <mergeCell ref="K342:O342"/>
     <mergeCell ref="F343:G343"/>
     <mergeCell ref="H343:J343"/>
     <mergeCell ref="K343:L343"/>
     <mergeCell ref="M343:O343"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="H344:J344"/>
     <mergeCell ref="K344:L344"/>
     <mergeCell ref="M344:O344"/>
-    <mergeCell ref="A364:D364"/>
-    <mergeCell ref="F364:G364"/>
-    <mergeCell ref="H364:J364"/>
-    <mergeCell ref="K364:O364"/>
+    <mergeCell ref="K345:L345"/>
+    <mergeCell ref="M345:O345"/>
     <mergeCell ref="A365:D365"/>
     <mergeCell ref="F365:G365"/>
     <mergeCell ref="H365:J365"/>
-    <mergeCell ref="K365:L365"/>
-    <mergeCell ref="M365:O365"/>
+    <mergeCell ref="K365:O365"/>
+    <mergeCell ref="A366:D366"/>
     <mergeCell ref="F366:G366"/>
     <mergeCell ref="H366:J366"/>
     <mergeCell ref="K366:L366"/>
@@ -7827,11 +7872,11 @@
     <mergeCell ref="M367:O367"/>
     <mergeCell ref="F368:G368"/>
     <mergeCell ref="H368:J368"/>
-    <mergeCell ref="K368:O368"/>
+    <mergeCell ref="K368:L368"/>
+    <mergeCell ref="M368:O368"/>
     <mergeCell ref="F369:G369"/>
     <mergeCell ref="H369:J369"/>
-    <mergeCell ref="K369:L369"/>
-    <mergeCell ref="M369:O369"/>
+    <mergeCell ref="K369:O369"/>
     <mergeCell ref="F370:G370"/>
     <mergeCell ref="H370:J370"/>
     <mergeCell ref="K370:L370"/>
@@ -7848,15 +7893,15 @@
     <mergeCell ref="H373:J373"/>
     <mergeCell ref="K373:L373"/>
     <mergeCell ref="M373:O373"/>
-    <mergeCell ref="A391:D391"/>
-    <mergeCell ref="F391:G391"/>
-    <mergeCell ref="H391:J391"/>
-    <mergeCell ref="K391:O391"/>
+    <mergeCell ref="F374:G374"/>
+    <mergeCell ref="H374:J374"/>
+    <mergeCell ref="K374:L374"/>
+    <mergeCell ref="M374:O374"/>
     <mergeCell ref="A392:D392"/>
     <mergeCell ref="F392:G392"/>
     <mergeCell ref="H392:J392"/>
-    <mergeCell ref="K392:L392"/>
-    <mergeCell ref="M392:O392"/>
+    <mergeCell ref="K392:O392"/>
+    <mergeCell ref="A393:D393"/>
     <mergeCell ref="F393:G393"/>
     <mergeCell ref="H393:J393"/>
     <mergeCell ref="K393:L393"/>
@@ -7867,11 +7912,11 @@
     <mergeCell ref="M394:O394"/>
     <mergeCell ref="F395:G395"/>
     <mergeCell ref="H395:J395"/>
-    <mergeCell ref="K395:O395"/>
+    <mergeCell ref="K395:L395"/>
+    <mergeCell ref="M395:O395"/>
     <mergeCell ref="F396:G396"/>
     <mergeCell ref="H396:J396"/>
-    <mergeCell ref="K396:L396"/>
-    <mergeCell ref="M396:O396"/>
+    <mergeCell ref="K396:O396"/>
     <mergeCell ref="F397:G397"/>
     <mergeCell ref="H397:J397"/>
     <mergeCell ref="K397:L397"/>
@@ -7884,30 +7929,32 @@
     <mergeCell ref="H399:J399"/>
     <mergeCell ref="K399:L399"/>
     <mergeCell ref="M399:O399"/>
+    <mergeCell ref="F400:G400"/>
+    <mergeCell ref="H400:J400"/>
     <mergeCell ref="K400:L400"/>
     <mergeCell ref="M400:O400"/>
     <mergeCell ref="K401:L401"/>
     <mergeCell ref="M401:O401"/>
-    <mergeCell ref="A416:D416"/>
-    <mergeCell ref="F416:G416"/>
-    <mergeCell ref="H416:J416"/>
-    <mergeCell ref="K416:O416"/>
+    <mergeCell ref="K402:L402"/>
+    <mergeCell ref="M402:O402"/>
     <mergeCell ref="A417:D417"/>
     <mergeCell ref="F417:G417"/>
     <mergeCell ref="H417:J417"/>
-    <mergeCell ref="K417:L417"/>
-    <mergeCell ref="M417:O417"/>
+    <mergeCell ref="K417:O417"/>
+    <mergeCell ref="A418:D418"/>
     <mergeCell ref="F418:G418"/>
     <mergeCell ref="H418:J418"/>
     <mergeCell ref="K418:L418"/>
     <mergeCell ref="M418:O418"/>
     <mergeCell ref="F419:G419"/>
     <mergeCell ref="H419:J419"/>
-    <mergeCell ref="K419:O419"/>
+    <mergeCell ref="K419:L419"/>
+    <mergeCell ref="M419:O419"/>
     <mergeCell ref="F420:G420"/>
     <mergeCell ref="H420:J420"/>
-    <mergeCell ref="K420:L420"/>
-    <mergeCell ref="M420:O420"/>
+    <mergeCell ref="K420:O420"/>
+    <mergeCell ref="F421:G421"/>
+    <mergeCell ref="H421:J421"/>
     <mergeCell ref="K421:L421"/>
     <mergeCell ref="M421:O421"/>
     <mergeCell ref="K422:L422"/>
@@ -7918,36 +7965,38 @@
     <mergeCell ref="M424:O424"/>
     <mergeCell ref="K425:L425"/>
     <mergeCell ref="M425:O425"/>
-    <mergeCell ref="A440:D440"/>
-    <mergeCell ref="F440:G440"/>
-    <mergeCell ref="H440:J440"/>
-    <mergeCell ref="K440:O440"/>
+    <mergeCell ref="K426:L426"/>
+    <mergeCell ref="M426:O426"/>
     <mergeCell ref="A441:D441"/>
     <mergeCell ref="F441:G441"/>
     <mergeCell ref="H441:J441"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="M441:O441"/>
+    <mergeCell ref="K441:O441"/>
+    <mergeCell ref="A442:D442"/>
     <mergeCell ref="F442:G442"/>
     <mergeCell ref="H442:J442"/>
     <mergeCell ref="K442:L442"/>
     <mergeCell ref="M442:O442"/>
     <mergeCell ref="F443:G443"/>
     <mergeCell ref="H443:J443"/>
-    <mergeCell ref="K443:O443"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="M443:O443"/>
     <mergeCell ref="F444:G444"/>
     <mergeCell ref="H444:J444"/>
     <mergeCell ref="K444:L444"/>
     <mergeCell ref="M444:O444"/>
     <mergeCell ref="F445:G445"/>
     <mergeCell ref="H445:J445"/>
-    <mergeCell ref="K445:L445"/>
-    <mergeCell ref="M445:O445"/>
+    <mergeCell ref="K445:O445"/>
     <mergeCell ref="F446:G446"/>
     <mergeCell ref="H446:J446"/>
     <mergeCell ref="K446:L446"/>
     <mergeCell ref="M446:O446"/>
+    <mergeCell ref="F447:G447"/>
+    <mergeCell ref="H447:J447"/>
     <mergeCell ref="K447:L447"/>
     <mergeCell ref="M447:O447"/>
+    <mergeCell ref="F448:G448"/>
+    <mergeCell ref="H448:J448"/>
     <mergeCell ref="K448:L448"/>
     <mergeCell ref="M448:O448"/>
     <mergeCell ref="K449:L449"/>
@@ -7964,24 +8013,28 @@
     <mergeCell ref="M454:O454"/>
     <mergeCell ref="K455:L455"/>
     <mergeCell ref="M455:O455"/>
+    <mergeCell ref="K456:L456"/>
+    <mergeCell ref="M456:O456"/>
+    <mergeCell ref="K457:L457"/>
+    <mergeCell ref="M457:O457"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A23:O24"/>
     <mergeCell ref="A44:O45"/>
     <mergeCell ref="P23:R30"/>
-    <mergeCell ref="A389:O390"/>
-    <mergeCell ref="A92:O93"/>
-    <mergeCell ref="A132:O133"/>
-    <mergeCell ref="A175:O176"/>
-    <mergeCell ref="A199:O200"/>
-    <mergeCell ref="A238:O239"/>
-    <mergeCell ref="A276:O277"/>
-    <mergeCell ref="A306:O307"/>
-    <mergeCell ref="A335:O336"/>
-    <mergeCell ref="A362:O363"/>
-    <mergeCell ref="A414:O415"/>
     <mergeCell ref="A67:O68"/>
-    <mergeCell ref="A438:O439"/>
-    <mergeCell ref="P438:R446"/>
+    <mergeCell ref="A390:O391"/>
+    <mergeCell ref="A93:O94"/>
+    <mergeCell ref="A133:O134"/>
+    <mergeCell ref="A176:O177"/>
+    <mergeCell ref="A200:O201"/>
+    <mergeCell ref="A239:O240"/>
+    <mergeCell ref="A277:O278"/>
+    <mergeCell ref="A307:O308"/>
+    <mergeCell ref="A336:O337"/>
+    <mergeCell ref="A363:O364"/>
+    <mergeCell ref="A415:O416"/>
+    <mergeCell ref="A439:O440"/>
+    <mergeCell ref="P439:R448"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/客户资源.xlsx
+++ b/需求分析/接口文档/客户/客户资源.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21435" windowHeight="9525"/>
+    <workbookView windowWidth="27120" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="客户资源" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -608,6 +608,15 @@
     <t>/s/getVisitCustomerFollow.action</t>
   </si>
   <si>
+    <t>跟进人的用户Id</t>
+  </si>
+  <si>
+    <t>promoterName</t>
+  </si>
+  <si>
+    <t>跟进人的姓名</t>
+  </si>
+  <si>
     <t>搜索当前部门下的客户</t>
   </si>
   <si>
@@ -629,9 +638,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -670,11 +679,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,16 +716,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,24 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,23 +764,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,15 +793,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,13 +896,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,19 +950,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,12 +981,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,19 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,6 +1059,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,32 +1105,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,6 +1136,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1144,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,88 +1168,88 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,10 +1258,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,28 +1270,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1692,10 +1701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R457"/>
+  <dimension ref="A1:R459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="G451" sqref="G451"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:O416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6865,164 +6874,150 @@
       <c r="N426" s="3"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="439" spans="1:18">
-      <c r="A439" s="1" t="s">
+    <row r="427" spans="1:15">
+      <c r="A427" s="4"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
+      <c r="E427" s="4"/>
+      <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
+      <c r="H427" s="4"/>
+      <c r="I427" s="4"/>
+      <c r="J427" s="4"/>
+      <c r="K427" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L427" s="3"/>
+      <c r="M427" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
-      <c r="D439" s="1"/>
-      <c r="E439" s="1"/>
-      <c r="F439" s="1"/>
-      <c r="G439" s="1"/>
-      <c r="H439" s="1"/>
-      <c r="I439" s="1"/>
-      <c r="J439" s="1"/>
-      <c r="K439" s="1"/>
-      <c r="L439" s="1"/>
-      <c r="M439" s="1"/>
-      <c r="N439" s="1"/>
-      <c r="O439" s="1"/>
-      <c r="P439" s="18" t="s">
+      <c r="N427" s="3"/>
+      <c r="O427" s="3"/>
+    </row>
+    <row r="428" spans="1:15">
+      <c r="A428" s="4"/>
+      <c r="B428" s="4"/>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="4"/>
+      <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
+      <c r="H428" s="4"/>
+      <c r="I428" s="4"/>
+      <c r="J428" s="4"/>
+      <c r="K428" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="Q439" s="18"/>
-      <c r="R439" s="18"/>
-    </row>
-    <row r="440" spans="1:18">
-      <c r="A440" s="1"/>
-      <c r="B440" s="1"/>
-      <c r="C440" s="1"/>
-      <c r="D440" s="1"/>
-      <c r="E440" s="1"/>
-      <c r="F440" s="1"/>
-      <c r="G440" s="1"/>
-      <c r="H440" s="1"/>
-      <c r="I440" s="1"/>
-      <c r="J440" s="1"/>
-      <c r="K440" s="1"/>
-      <c r="L440" s="1"/>
-      <c r="M440" s="1"/>
-      <c r="N440" s="1"/>
-      <c r="O440" s="1"/>
-      <c r="P440" s="18"/>
-      <c r="Q440" s="18"/>
-      <c r="R440" s="18"/>
+      <c r="L428" s="3"/>
+      <c r="M428" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N428" s="3"/>
+      <c r="O428" s="3"/>
     </row>
     <row r="441" spans="1:18">
-      <c r="A441" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-      <c r="E441" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G441" s="2"/>
-      <c r="H441" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I441" s="2"/>
-      <c r="J441" s="2"/>
-      <c r="K441" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L441" s="2"/>
-      <c r="M441" s="2"/>
-      <c r="N441" s="2"/>
-      <c r="O441" s="2"/>
-      <c r="P441" s="18"/>
+      <c r="A441" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="1"/>
+      <c r="F441" s="1"/>
+      <c r="G441" s="1"/>
+      <c r="H441" s="1"/>
+      <c r="I441" s="1"/>
+      <c r="J441" s="1"/>
+      <c r="K441" s="1"/>
+      <c r="L441" s="1"/>
+      <c r="M441" s="1"/>
+      <c r="N441" s="1"/>
+      <c r="O441" s="1"/>
+      <c r="P441" s="18" t="s">
+        <v>190</v>
+      </c>
       <c r="Q441" s="18"/>
       <c r="R441" s="18"/>
     </row>
     <row r="442" spans="1:18">
-      <c r="A442" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B442" s="3"/>
-      <c r="C442" s="3"/>
-      <c r="D442" s="3"/>
-      <c r="E442" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F442" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G442" s="3"/>
-      <c r="H442" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I442" s="3"/>
-      <c r="J442" s="3"/>
-      <c r="K442" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L442" s="3"/>
-      <c r="M442" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N442" s="3"/>
-      <c r="O442" s="3"/>
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="1"/>
+      <c r="F442" s="1"/>
+      <c r="G442" s="1"/>
+      <c r="H442" s="1"/>
+      <c r="I442" s="1"/>
+      <c r="J442" s="1"/>
+      <c r="K442" s="1"/>
+      <c r="L442" s="1"/>
+      <c r="M442" s="1"/>
+      <c r="N442" s="1"/>
+      <c r="O442" s="1"/>
       <c r="P442" s="18"/>
       <c r="Q442" s="18"/>
       <c r="R442" s="18"/>
     </row>
     <row r="443" spans="1:18">
-      <c r="A443" s="3"/>
-      <c r="B443" s="3"/>
-      <c r="C443" s="3"/>
-      <c r="D443" s="3"/>
-      <c r="E443" s="3"/>
-      <c r="F443" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G443" s="3"/>
-      <c r="H443" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I443" s="3"/>
-      <c r="J443" s="3"/>
-      <c r="K443" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L443" s="3"/>
-      <c r="M443" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N443" s="3"/>
-      <c r="O443" s="3"/>
+      <c r="A443" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G443" s="2"/>
+      <c r="H443" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I443" s="2"/>
+      <c r="J443" s="2"/>
+      <c r="K443" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L443" s="2"/>
+      <c r="M443" s="2"/>
+      <c r="N443" s="2"/>
+      <c r="O443" s="2"/>
       <c r="P443" s="18"/>
       <c r="Q443" s="18"/>
       <c r="R443" s="18"/>
     </row>
     <row r="444" spans="1:18">
-      <c r="A444" s="3"/>
+      <c r="A444" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
-      <c r="E444" s="3"/>
+      <c r="E444" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F444" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G444" s="3"/>
       <c r="H444" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I444" s="3"/>
       <c r="J444" s="3"/>
-      <c r="K444" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="L444" s="11"/>
-      <c r="M444" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="N444" s="11"/>
-      <c r="O444" s="11"/>
+      <c r="K444" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L444" s="3"/>
+      <c r="M444" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N444" s="3"/>
+      <c r="O444" s="3"/>
       <c r="P444" s="18"/>
       <c r="Q444" s="18"/>
       <c r="R444" s="18"/>
@@ -7033,20 +7028,22 @@
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
-      <c r="F445" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G445" s="7"/>
-      <c r="H445" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I445" s="7"/>
-      <c r="J445" s="7"/>
+      <c r="F445" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G445" s="3"/>
+      <c r="H445" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I445" s="3"/>
+      <c r="J445" s="3"/>
       <c r="K445" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L445" s="3"/>
-      <c r="M445" s="3"/>
+      <c r="M445" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N445" s="3"/>
       <c r="O445" s="3"/>
       <c r="P445" s="18"/>
@@ -7059,50 +7056,48 @@
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
-      <c r="F446" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G446" s="7"/>
-      <c r="H446" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I446" s="7"/>
-      <c r="J446" s="7"/>
-      <c r="K446" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L446" s="3"/>
-      <c r="M446" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N446" s="3"/>
-      <c r="O446" s="3"/>
+      <c r="F446" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G446" s="3"/>
+      <c r="H446" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I446" s="3"/>
+      <c r="J446" s="3"/>
+      <c r="K446" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L446" s="11"/>
+      <c r="M446" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N446" s="11"/>
+      <c r="O446" s="11"/>
       <c r="P446" s="18"/>
       <c r="Q446" s="18"/>
       <c r="R446" s="18"/>
     </row>
     <row r="447" spans="1:18">
-      <c r="A447" s="4"/>
-      <c r="B447" s="4"/>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="4"/>
-      <c r="F447" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G447" s="3"/>
-      <c r="H447" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I447" s="3"/>
-      <c r="J447" s="3"/>
+      <c r="A447" s="3"/>
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="3"/>
+      <c r="F447" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G447" s="7"/>
+      <c r="H447" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I447" s="7"/>
+      <c r="J447" s="7"/>
       <c r="K447" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L447" s="3"/>
-      <c r="M447" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="M447" s="3"/>
       <c r="N447" s="3"/>
       <c r="O447" s="3"/>
       <c r="P447" s="18"/>
@@ -7110,22 +7105,26 @@
       <c r="R447" s="18"/>
     </row>
     <row r="448" spans="1:18">
-      <c r="A448" s="4"/>
-      <c r="B448" s="4"/>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
-      <c r="E448" s="4"/>
-      <c r="F448" s="3"/>
-      <c r="G448" s="3"/>
-      <c r="H448" s="3"/>
-      <c r="I448" s="3"/>
-      <c r="J448" s="3"/>
+      <c r="A448" s="3"/>
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="3"/>
+      <c r="E448" s="3"/>
+      <c r="F448" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G448" s="7"/>
+      <c r="H448" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I448" s="7"/>
+      <c r="J448" s="7"/>
       <c r="K448" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L448" s="3"/>
       <c r="M448" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N448" s="3"/>
       <c r="O448" s="3"/>
@@ -7133,47 +7132,57 @@
       <c r="Q448" s="18"/>
       <c r="R448" s="18"/>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:18">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
-      <c r="F449" s="4"/>
-      <c r="G449" s="4"/>
-      <c r="H449" s="4"/>
-      <c r="I449" s="4"/>
-      <c r="J449" s="4"/>
+      <c r="F449" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G449" s="3"/>
+      <c r="H449" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I449" s="3"/>
+      <c r="J449" s="3"/>
       <c r="K449" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L449" s="3"/>
       <c r="M449" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N449" s="3"/>
       <c r="O449" s="3"/>
-    </row>
-    <row r="450" spans="1:15">
+      <c r="P449" s="18"/>
+      <c r="Q449" s="18"/>
+      <c r="R449" s="18"/>
+    </row>
+    <row r="450" spans="1:18">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
-      <c r="F450" s="4"/>
-      <c r="G450" s="4"/>
-      <c r="H450" s="4"/>
-      <c r="I450" s="4"/>
-      <c r="J450" s="4"/>
+      <c r="F450" s="3"/>
+      <c r="G450" s="3"/>
+      <c r="H450" s="3"/>
+      <c r="I450" s="3"/>
+      <c r="J450" s="3"/>
       <c r="K450" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L450" s="3"/>
       <c r="M450" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N450" s="3"/>
       <c r="O450" s="3"/>
+      <c r="P450" s="18"/>
+      <c r="Q450" s="18"/>
+      <c r="R450" s="18"/>
     </row>
     <row r="451" spans="1:15">
       <c r="A451" s="4"/>
@@ -7187,11 +7196,11 @@
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
       <c r="K451" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L451" s="3"/>
       <c r="M451" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N451" s="3"/>
       <c r="O451" s="3"/>
@@ -7208,11 +7217,11 @@
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
       <c r="K452" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L452" s="3"/>
       <c r="M452" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N452" s="3"/>
       <c r="O452" s="3"/>
@@ -7229,11 +7238,11 @@
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
       <c r="K453" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L453" s="3"/>
       <c r="M453" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N453" s="3"/>
       <c r="O453" s="3"/>
@@ -7250,11 +7259,11 @@
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
       <c r="K454" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L454" s="3"/>
       <c r="M454" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N454" s="3"/>
       <c r="O454" s="3"/>
@@ -7271,11 +7280,11 @@
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
       <c r="K455" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L455" s="3"/>
       <c r="M455" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N455" s="3"/>
       <c r="O455" s="3"/>
@@ -7292,11 +7301,11 @@
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
       <c r="K456" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L456" s="3"/>
       <c r="M456" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N456" s="3"/>
       <c r="O456" s="3"/>
@@ -7313,17 +7322,59 @@
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
       <c r="K457" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L457" s="3"/>
       <c r="M457" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N457" s="3"/>
       <c r="O457" s="3"/>
     </row>
+    <row r="458" spans="1:15">
+      <c r="A458" s="4"/>
+      <c r="B458" s="4"/>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
+      <c r="H458" s="4"/>
+      <c r="I458" s="4"/>
+      <c r="J458" s="4"/>
+      <c r="K458" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L458" s="3"/>
+      <c r="M458" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N458" s="3"/>
+      <c r="O458" s="3"/>
+    </row>
+    <row r="459" spans="1:15">
+      <c r="A459" s="4"/>
+      <c r="B459" s="4"/>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
+      <c r="I459" s="4"/>
+      <c r="J459" s="4"/>
+      <c r="K459" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L459" s="3"/>
+      <c r="M459" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N459" s="3"/>
+      <c r="O459" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="711">
+  <mergeCells count="715">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -7967,40 +8018,40 @@
     <mergeCell ref="M425:O425"/>
     <mergeCell ref="K426:L426"/>
     <mergeCell ref="M426:O426"/>
-    <mergeCell ref="A441:D441"/>
-    <mergeCell ref="F441:G441"/>
-    <mergeCell ref="H441:J441"/>
-    <mergeCell ref="K441:O441"/>
-    <mergeCell ref="A442:D442"/>
-    <mergeCell ref="F442:G442"/>
-    <mergeCell ref="H442:J442"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="M442:O442"/>
+    <mergeCell ref="K427:L427"/>
+    <mergeCell ref="M427:O427"/>
+    <mergeCell ref="K428:L428"/>
+    <mergeCell ref="M428:O428"/>
+    <mergeCell ref="A443:D443"/>
     <mergeCell ref="F443:G443"/>
     <mergeCell ref="H443:J443"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="M443:O443"/>
+    <mergeCell ref="K443:O443"/>
+    <mergeCell ref="A444:D444"/>
     <mergeCell ref="F444:G444"/>
     <mergeCell ref="H444:J444"/>
     <mergeCell ref="K444:L444"/>
     <mergeCell ref="M444:O444"/>
     <mergeCell ref="F445:G445"/>
     <mergeCell ref="H445:J445"/>
-    <mergeCell ref="K445:O445"/>
+    <mergeCell ref="K445:L445"/>
+    <mergeCell ref="M445:O445"/>
     <mergeCell ref="F446:G446"/>
     <mergeCell ref="H446:J446"/>
     <mergeCell ref="K446:L446"/>
     <mergeCell ref="M446:O446"/>
     <mergeCell ref="F447:G447"/>
     <mergeCell ref="H447:J447"/>
-    <mergeCell ref="K447:L447"/>
-    <mergeCell ref="M447:O447"/>
+    <mergeCell ref="K447:O447"/>
     <mergeCell ref="F448:G448"/>
     <mergeCell ref="H448:J448"/>
     <mergeCell ref="K448:L448"/>
     <mergeCell ref="M448:O448"/>
+    <mergeCell ref="F449:G449"/>
+    <mergeCell ref="H449:J449"/>
     <mergeCell ref="K449:L449"/>
     <mergeCell ref="M449:O449"/>
+    <mergeCell ref="F450:G450"/>
+    <mergeCell ref="H450:J450"/>
     <mergeCell ref="K450:L450"/>
     <mergeCell ref="M450:O450"/>
     <mergeCell ref="K451:L451"/>
@@ -8017,6 +8068,10 @@
     <mergeCell ref="M456:O456"/>
     <mergeCell ref="K457:L457"/>
     <mergeCell ref="M457:O457"/>
+    <mergeCell ref="K458:L458"/>
+    <mergeCell ref="M458:O458"/>
+    <mergeCell ref="K459:L459"/>
+    <mergeCell ref="M459:O459"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A23:O24"/>
     <mergeCell ref="A44:O45"/>
@@ -8033,8 +8088,8 @@
     <mergeCell ref="A336:O337"/>
     <mergeCell ref="A363:O364"/>
     <mergeCell ref="A415:O416"/>
-    <mergeCell ref="A439:O440"/>
-    <mergeCell ref="P439:R448"/>
+    <mergeCell ref="A441:O442"/>
+    <mergeCell ref="P441:R450"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
